--- a/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
+++ b/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SHARED\FRC2023\ROBOT_CODE\AlexanderGCowbell\src\main\java\frc\data\mp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{731BEF5C-1D0A-4C16-8902-5ACE6BCE3DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9135927-24F2-4E9C-BEB8-173183E60D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="615" yWindow="690" windowWidth="28350" windowHeight="8625" tabRatio="1000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ScoreHighCone" sheetId="3" r:id="rId1"/>
-    <sheet name="ScoreHighCube" sheetId="1" r:id="rId2"/>
+    <sheet name="ScoreConeHigh" sheetId="3" r:id="rId1"/>
+    <sheet name="ScoreConeMid" sheetId="10" r:id="rId2"/>
+    <sheet name="ScoreConeLow" sheetId="11" r:id="rId3"/>
+    <sheet name="ScoreCubeHigh" sheetId="1" r:id="rId4"/>
+    <sheet name="ScoreCubeMid" sheetId="6" r:id="rId5"/>
+    <sheet name="ScoreCubeLow" sheetId="8" r:id="rId6"/>
+    <sheet name="PickupConeHighFeeder" sheetId="5" r:id="rId7"/>
+    <sheet name="PickupConeHighShelf" sheetId="7" r:id="rId8"/>
+    <sheet name="PickupConeLow" sheetId="12" r:id="rId9"/>
+    <sheet name="PickupConeFloor" sheetId="13" r:id="rId10"/>
+    <sheet name="PickupCubeHigh" sheetId="14" r:id="rId11"/>
+    <sheet name="PickupCubeLow" sheetId="4" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="15">
   <si>
     <t>proximal_pos</t>
   </si>
@@ -86,11 +109,14 @@
   <si>
     <t>Scale</t>
   </si>
+  <si>
+    <t>Pic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -953,10 +979,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
@@ -7960,8 +7986,2857 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A94D2D7-9287-4DBF-AA7A-A58115FB9C85}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58470089-5D33-4267-8631-B5FFB2A6D185}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752DA2FE-56D1-4F82-A910-2BE20092F8F9}">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-12342</v>
+      </c>
+      <c r="B2">
+        <v>13009</v>
+      </c>
+      <c r="C2">
+        <v>-27</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0.49072194099999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-12509</v>
+      </c>
+      <c r="B3">
+        <v>13080</v>
+      </c>
+      <c r="C3">
+        <v>-195</v>
+      </c>
+      <c r="D3">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>0.49072194099999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-12509</v>
+      </c>
+      <c r="B4">
+        <v>13080</v>
+      </c>
+      <c r="C4">
+        <v>-195</v>
+      </c>
+      <c r="D4">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>0.49072194099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-12509</v>
+      </c>
+      <c r="B5">
+        <v>13080</v>
+      </c>
+      <c r="C5">
+        <v>-195</v>
+      </c>
+      <c r="D5">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>0.49072194099999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-12509</v>
+      </c>
+      <c r="B6">
+        <v>13080</v>
+      </c>
+      <c r="C6">
+        <v>-195</v>
+      </c>
+      <c r="D6">
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <v>0.49072194099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-12559</v>
+      </c>
+      <c r="B7">
+        <v>13301</v>
+      </c>
+      <c r="C7">
+        <v>-245</v>
+      </c>
+      <c r="D7">
+        <v>293</v>
+      </c>
+      <c r="E7">
+        <v>0.49072194099999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-12559</v>
+      </c>
+      <c r="B8">
+        <v>13301</v>
+      </c>
+      <c r="C8">
+        <v>-245</v>
+      </c>
+      <c r="D8">
+        <v>293</v>
+      </c>
+      <c r="E8">
+        <v>0.49072194099999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-12599</v>
+      </c>
+      <c r="B9">
+        <v>13663</v>
+      </c>
+      <c r="C9">
+        <v>-283</v>
+      </c>
+      <c r="D9">
+        <v>652</v>
+      </c>
+      <c r="E9">
+        <v>0.49072194099999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-12599</v>
+      </c>
+      <c r="B10">
+        <v>13663</v>
+      </c>
+      <c r="C10">
+        <v>-283</v>
+      </c>
+      <c r="D10">
+        <v>652</v>
+      </c>
+      <c r="E10">
+        <v>0.49072194099999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-12599</v>
+      </c>
+      <c r="B11">
+        <v>13663</v>
+      </c>
+      <c r="C11">
+        <v>-283</v>
+      </c>
+      <c r="D11">
+        <v>652</v>
+      </c>
+      <c r="E11">
+        <v>0.49072194099999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-12607</v>
+      </c>
+      <c r="B12">
+        <v>14091</v>
+      </c>
+      <c r="C12">
+        <v>-268</v>
+      </c>
+      <c r="D12">
+        <v>1078</v>
+      </c>
+      <c r="E12">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-12607</v>
+      </c>
+      <c r="B13">
+        <v>14091</v>
+      </c>
+      <c r="C13">
+        <v>-268</v>
+      </c>
+      <c r="D13">
+        <v>1078</v>
+      </c>
+      <c r="E13">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-12607</v>
+      </c>
+      <c r="B14">
+        <v>14543</v>
+      </c>
+      <c r="C14">
+        <v>-176</v>
+      </c>
+      <c r="D14">
+        <v>1519</v>
+      </c>
+      <c r="E14">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-12590</v>
+      </c>
+      <c r="B15">
+        <v>14543</v>
+      </c>
+      <c r="C15">
+        <v>-176</v>
+      </c>
+      <c r="D15">
+        <v>1519</v>
+      </c>
+      <c r="E15">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-12593</v>
+      </c>
+      <c r="B16">
+        <v>15025</v>
+      </c>
+      <c r="C16">
+        <v>-85</v>
+      </c>
+      <c r="D16">
+        <v>1933</v>
+      </c>
+      <c r="E16">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-12593</v>
+      </c>
+      <c r="B17">
+        <v>15025</v>
+      </c>
+      <c r="C17">
+        <v>-85</v>
+      </c>
+      <c r="D17">
+        <v>1933</v>
+      </c>
+      <c r="E17">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-12593</v>
+      </c>
+      <c r="B18">
+        <v>15552</v>
+      </c>
+      <c r="C18">
+        <v>-35</v>
+      </c>
+      <c r="D18">
+        <v>2242</v>
+      </c>
+      <c r="E18">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-12593</v>
+      </c>
+      <c r="B19">
+        <v>15552</v>
+      </c>
+      <c r="C19">
+        <v>-35</v>
+      </c>
+      <c r="D19">
+        <v>2242</v>
+      </c>
+      <c r="E19">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-12593</v>
+      </c>
+      <c r="B20">
+        <v>15552</v>
+      </c>
+      <c r="C20">
+        <v>-35</v>
+      </c>
+      <c r="D20">
+        <v>2242</v>
+      </c>
+      <c r="E20">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-12593</v>
+      </c>
+      <c r="B21">
+        <v>16129</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2458</v>
+      </c>
+      <c r="E21">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-12593</v>
+      </c>
+      <c r="B22">
+        <v>16129</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2458</v>
+      </c>
+      <c r="E22">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-12593</v>
+      </c>
+      <c r="B23">
+        <v>16709</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>2613</v>
+      </c>
+      <c r="E23">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-12593</v>
+      </c>
+      <c r="B24">
+        <v>16709</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>2613</v>
+      </c>
+      <c r="E24">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-12597</v>
+      </c>
+      <c r="B25">
+        <v>17264</v>
+      </c>
+      <c r="C25">
+        <v>-7</v>
+      </c>
+      <c r="D25">
+        <v>2720</v>
+      </c>
+      <c r="E25">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-12597</v>
+      </c>
+      <c r="B26">
+        <v>17264</v>
+      </c>
+      <c r="C26">
+        <v>-7</v>
+      </c>
+      <c r="D26">
+        <v>2720</v>
+      </c>
+      <c r="E26">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-12616</v>
+      </c>
+      <c r="B27">
+        <v>17788</v>
+      </c>
+      <c r="C27">
+        <v>-22</v>
+      </c>
+      <c r="D27">
+        <v>2762</v>
+      </c>
+      <c r="E27">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-12616</v>
+      </c>
+      <c r="B28">
+        <v>17788</v>
+      </c>
+      <c r="C28">
+        <v>-22</v>
+      </c>
+      <c r="D28">
+        <v>2762</v>
+      </c>
+      <c r="E28">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-12640</v>
+      </c>
+      <c r="B29">
+        <v>18275</v>
+      </c>
+      <c r="C29">
+        <v>-46</v>
+      </c>
+      <c r="D29">
+        <v>2727</v>
+      </c>
+      <c r="E29">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-12640</v>
+      </c>
+      <c r="B30">
+        <v>18275</v>
+      </c>
+      <c r="C30">
+        <v>-46</v>
+      </c>
+      <c r="D30">
+        <v>2727</v>
+      </c>
+      <c r="E30">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-12640</v>
+      </c>
+      <c r="B31">
+        <v>18730</v>
+      </c>
+      <c r="C31">
+        <v>-48</v>
+      </c>
+      <c r="D31">
+        <v>2608</v>
+      </c>
+      <c r="E31">
+        <v>0.44185042400000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-12640</v>
+      </c>
+      <c r="B32">
+        <v>18730</v>
+      </c>
+      <c r="C32">
+        <v>-48</v>
+      </c>
+      <c r="D32">
+        <v>2608</v>
+      </c>
+      <c r="E32">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-12639</v>
+      </c>
+      <c r="B33">
+        <v>19584</v>
+      </c>
+      <c r="C33">
+        <v>-42</v>
+      </c>
+      <c r="D33">
+        <v>2323</v>
+      </c>
+      <c r="E33">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-12639</v>
+      </c>
+      <c r="B34">
+        <v>19584</v>
+      </c>
+      <c r="C34">
+        <v>-42</v>
+      </c>
+      <c r="D34">
+        <v>2323</v>
+      </c>
+      <c r="E34">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-12638</v>
+      </c>
+      <c r="B35">
+        <v>20012</v>
+      </c>
+      <c r="C35">
+        <v>-23</v>
+      </c>
+      <c r="D35">
+        <v>2227</v>
+      </c>
+      <c r="E35">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-12638</v>
+      </c>
+      <c r="B36">
+        <v>20012</v>
+      </c>
+      <c r="C36">
+        <v>-23</v>
+      </c>
+      <c r="D36">
+        <v>2227</v>
+      </c>
+      <c r="E36">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-12638</v>
+      </c>
+      <c r="B37">
+        <v>20012</v>
+      </c>
+      <c r="C37">
+        <v>-23</v>
+      </c>
+      <c r="D37">
+        <v>2227</v>
+      </c>
+      <c r="E37">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-12638</v>
+      </c>
+      <c r="B38">
+        <v>20423</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2149</v>
+      </c>
+      <c r="E38">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-12638</v>
+      </c>
+      <c r="B39">
+        <v>20423</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2149</v>
+      </c>
+      <c r="E39">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-12638</v>
+      </c>
+      <c r="B40">
+        <v>20798</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>2070</v>
+      </c>
+      <c r="E40">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-12638</v>
+      </c>
+      <c r="B41">
+        <v>20798</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>2070</v>
+      </c>
+      <c r="E41">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-12638</v>
+      </c>
+      <c r="B42">
+        <v>21136</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1978</v>
+      </c>
+      <c r="E42">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-12638</v>
+      </c>
+      <c r="B43">
+        <v>21136</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1978</v>
+      </c>
+      <c r="E43">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-12638</v>
+      </c>
+      <c r="B44">
+        <v>21430</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1851</v>
+      </c>
+      <c r="E44">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-12638</v>
+      </c>
+      <c r="B45">
+        <v>21430</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1851</v>
+      </c>
+      <c r="E45">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-12638</v>
+      </c>
+      <c r="B46">
+        <v>21674</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1669</v>
+      </c>
+      <c r="E46">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-12638</v>
+      </c>
+      <c r="B47">
+        <v>21674</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1669</v>
+      </c>
+      <c r="E47">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-12638</v>
+      </c>
+      <c r="B48">
+        <v>21874</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1459</v>
+      </c>
+      <c r="E48">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-12638</v>
+      </c>
+      <c r="B49">
+        <v>21874</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1459</v>
+      </c>
+      <c r="E49">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-12638</v>
+      </c>
+      <c r="B50">
+        <v>22033</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1242</v>
+      </c>
+      <c r="E50">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-12638</v>
+      </c>
+      <c r="B51">
+        <v>22033</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1242</v>
+      </c>
+      <c r="E51">
+        <v>0.35020113000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-12638</v>
+      </c>
+      <c r="B52">
+        <v>22155</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1025</v>
+      </c>
+      <c r="E52">
+        <v>0.28768152000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-12638</v>
+      </c>
+      <c r="B53">
+        <v>22155</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1025</v>
+      </c>
+      <c r="E53">
+        <v>0.28768152000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-12638</v>
+      </c>
+      <c r="B54">
+        <v>22241</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>817</v>
+      </c>
+      <c r="E54">
+        <v>0.28768152000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-12638</v>
+      </c>
+      <c r="B55">
+        <v>22241</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>817</v>
+      </c>
+      <c r="E55">
+        <v>0.28768152000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-12638</v>
+      </c>
+      <c r="B56">
+        <v>22279</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>612</v>
+      </c>
+      <c r="E56">
+        <v>0.28768152000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-12638</v>
+      </c>
+      <c r="B57">
+        <v>22279</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>612</v>
+      </c>
+      <c r="E57">
+        <v>0.28768152000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-12638</v>
+      </c>
+      <c r="B58">
+        <v>22274</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>406</v>
+      </c>
+      <c r="E58">
+        <v>0.28768152000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F1F263-3883-414D-A10C-0DF6D55BE064}">
+  <dimension ref="A1:E105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-6267</v>
+      </c>
+      <c r="B2">
+        <v>6952</v>
+      </c>
+      <c r="C2">
+        <v>-8</v>
+      </c>
+      <c r="D2">
+        <v>-3729</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-6267</v>
+      </c>
+      <c r="B3">
+        <v>6952</v>
+      </c>
+      <c r="C3">
+        <v>-8</v>
+      </c>
+      <c r="D3">
+        <v>-3729</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-6267</v>
+      </c>
+      <c r="B4">
+        <v>6952</v>
+      </c>
+      <c r="C4">
+        <v>-8</v>
+      </c>
+      <c r="D4">
+        <v>-3729</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-6358</v>
+      </c>
+      <c r="B5">
+        <v>5754</v>
+      </c>
+      <c r="C5">
+        <v>-98</v>
+      </c>
+      <c r="D5">
+        <v>-4430</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-6358</v>
+      </c>
+      <c r="B6">
+        <v>5754</v>
+      </c>
+      <c r="C6">
+        <v>-98</v>
+      </c>
+      <c r="D6">
+        <v>-4430</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-6520</v>
+      </c>
+      <c r="B7">
+        <v>4347</v>
+      </c>
+      <c r="C7">
+        <v>-259</v>
+      </c>
+      <c r="D7">
+        <v>-5227</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-6520</v>
+      </c>
+      <c r="B8">
+        <v>4347</v>
+      </c>
+      <c r="C8">
+        <v>-259</v>
+      </c>
+      <c r="D8">
+        <v>-5227</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-6706</v>
+      </c>
+      <c r="B9">
+        <v>2727</v>
+      </c>
+      <c r="C9">
+        <v>-446</v>
+      </c>
+      <c r="D9">
+        <v>-6122</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-6706</v>
+      </c>
+      <c r="B10">
+        <v>2727</v>
+      </c>
+      <c r="C10">
+        <v>-446</v>
+      </c>
+      <c r="D10">
+        <v>-6122</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-6873</v>
+      </c>
+      <c r="B11">
+        <v>895</v>
+      </c>
+      <c r="C11">
+        <v>-613</v>
+      </c>
+      <c r="D11">
+        <v>-7074</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-6873</v>
+      </c>
+      <c r="B12">
+        <v>895</v>
+      </c>
+      <c r="C12">
+        <v>-613</v>
+      </c>
+      <c r="D12">
+        <v>-7074</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-7011</v>
+      </c>
+      <c r="B13">
+        <v>-1121</v>
+      </c>
+      <c r="C13">
+        <v>-743</v>
+      </c>
+      <c r="D13">
+        <v>-8060</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-7011</v>
+      </c>
+      <c r="B14">
+        <v>-1121</v>
+      </c>
+      <c r="C14">
+        <v>-743</v>
+      </c>
+      <c r="D14">
+        <v>-8060</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-7117</v>
+      </c>
+      <c r="B15">
+        <v>-3290</v>
+      </c>
+      <c r="C15">
+        <v>-760</v>
+      </c>
+      <c r="D15">
+        <v>-9032</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-7117</v>
+      </c>
+      <c r="B16">
+        <v>-3290</v>
+      </c>
+      <c r="C16">
+        <v>-760</v>
+      </c>
+      <c r="D16">
+        <v>-9032</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-7117</v>
+      </c>
+      <c r="B17">
+        <v>-3290</v>
+      </c>
+      <c r="C17">
+        <v>-760</v>
+      </c>
+      <c r="D17">
+        <v>-9032</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-7195</v>
+      </c>
+      <c r="B18">
+        <v>-5596</v>
+      </c>
+      <c r="C18">
+        <v>-676</v>
+      </c>
+      <c r="D18">
+        <v>-9934</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-7195</v>
+      </c>
+      <c r="B19">
+        <v>-5596</v>
+      </c>
+      <c r="C19">
+        <v>-676</v>
+      </c>
+      <c r="D19">
+        <v>-9934</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-7240</v>
+      </c>
+      <c r="B20">
+        <v>-8015</v>
+      </c>
+      <c r="C20">
+        <v>-535</v>
+      </c>
+      <c r="D20">
+        <v>-10728</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-7240</v>
+      </c>
+      <c r="B21">
+        <v>-8015</v>
+      </c>
+      <c r="C21">
+        <v>-535</v>
+      </c>
+      <c r="D21">
+        <v>-10728</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-7231</v>
+      </c>
+      <c r="B22">
+        <v>-10509</v>
+      </c>
+      <c r="C22">
+        <v>-361</v>
+      </c>
+      <c r="D22">
+        <v>-11391</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-7231</v>
+      </c>
+      <c r="B23">
+        <v>-10509</v>
+      </c>
+      <c r="C23">
+        <v>-361</v>
+      </c>
+      <c r="D23">
+        <v>-11391</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-7231</v>
+      </c>
+      <c r="B24">
+        <v>-13025</v>
+      </c>
+      <c r="C24">
+        <v>-221</v>
+      </c>
+      <c r="D24">
+        <v>-11898</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-7231</v>
+      </c>
+      <c r="B25">
+        <v>-13025</v>
+      </c>
+      <c r="C25">
+        <v>-221</v>
+      </c>
+      <c r="D25">
+        <v>-11898</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-7303</v>
+      </c>
+      <c r="B26">
+        <v>-15534</v>
+      </c>
+      <c r="C26">
+        <v>-185</v>
+      </c>
+      <c r="D26">
+        <v>-12237</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-7303</v>
+      </c>
+      <c r="B27">
+        <v>-15534</v>
+      </c>
+      <c r="C27">
+        <v>-185</v>
+      </c>
+      <c r="D27">
+        <v>-12237</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-7492</v>
+      </c>
+      <c r="B28">
+        <v>-18000</v>
+      </c>
+      <c r="C28">
+        <v>-294</v>
+      </c>
+      <c r="D28">
+        <v>-12403</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-7492</v>
+      </c>
+      <c r="B29">
+        <v>-18000</v>
+      </c>
+      <c r="C29">
+        <v>-294</v>
+      </c>
+      <c r="D29">
+        <v>-12403</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-7492</v>
+      </c>
+      <c r="B30">
+        <v>-18000</v>
+      </c>
+      <c r="C30">
+        <v>-294</v>
+      </c>
+      <c r="D30">
+        <v>-12403</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-8158</v>
+      </c>
+      <c r="B31">
+        <v>-22720</v>
+      </c>
+      <c r="C31">
+        <v>-920</v>
+      </c>
+      <c r="D31">
+        <v>-12211</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-8158</v>
+      </c>
+      <c r="B32">
+        <v>-22720</v>
+      </c>
+      <c r="C32">
+        <v>-920</v>
+      </c>
+      <c r="D32">
+        <v>-12211</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-8572</v>
+      </c>
+      <c r="B33">
+        <v>-24939</v>
+      </c>
+      <c r="C33">
+        <v>-1335</v>
+      </c>
+      <c r="D33">
+        <v>-11918</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-8572</v>
+      </c>
+      <c r="B34">
+        <v>-24939</v>
+      </c>
+      <c r="C34">
+        <v>-1335</v>
+      </c>
+      <c r="D34">
+        <v>-11918</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-9028</v>
+      </c>
+      <c r="B35">
+        <v>-27030</v>
+      </c>
+      <c r="C35">
+        <v>-1720</v>
+      </c>
+      <c r="D35">
+        <v>-11508</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-9028</v>
+      </c>
+      <c r="B36">
+        <v>-27030</v>
+      </c>
+      <c r="C36">
+        <v>-1720</v>
+      </c>
+      <c r="D36">
+        <v>-11508</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-9484</v>
+      </c>
+      <c r="B37">
+        <v>-28878</v>
+      </c>
+      <c r="C37">
+        <v>-1991</v>
+      </c>
+      <c r="D37">
+        <v>-10889</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-9484</v>
+      </c>
+      <c r="B38">
+        <v>-28878</v>
+      </c>
+      <c r="C38">
+        <v>-1991</v>
+      </c>
+      <c r="D38">
+        <v>-10889</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-9922</v>
+      </c>
+      <c r="B39">
+        <v>-30383</v>
+      </c>
+      <c r="C39">
+        <v>-2131</v>
+      </c>
+      <c r="D39">
+        <v>-9998</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-9922</v>
+      </c>
+      <c r="B40">
+        <v>-30383</v>
+      </c>
+      <c r="C40">
+        <v>-2131</v>
+      </c>
+      <c r="D40">
+        <v>-9998</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-10368</v>
+      </c>
+      <c r="B41">
+        <v>-31671</v>
+      </c>
+      <c r="C41">
+        <v>-2209</v>
+      </c>
+      <c r="D41">
+        <v>-8974</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-10368</v>
+      </c>
+      <c r="B42">
+        <v>-31671</v>
+      </c>
+      <c r="C42">
+        <v>-2209</v>
+      </c>
+      <c r="D42">
+        <v>-8974</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-10844</v>
+      </c>
+      <c r="B43">
+        <v>-32833</v>
+      </c>
+      <c r="C43">
+        <v>-2271</v>
+      </c>
+      <c r="D43">
+        <v>-7912</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-10844</v>
+      </c>
+      <c r="B44">
+        <v>-32833</v>
+      </c>
+      <c r="C44">
+        <v>-2271</v>
+      </c>
+      <c r="D44">
+        <v>-7912</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-11345</v>
+      </c>
+      <c r="B45">
+        <v>-33913</v>
+      </c>
+      <c r="C45">
+        <v>-2317</v>
+      </c>
+      <c r="D45">
+        <v>-6893</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-11345</v>
+      </c>
+      <c r="B46">
+        <v>-33913</v>
+      </c>
+      <c r="C46">
+        <v>-2317</v>
+      </c>
+      <c r="D46">
+        <v>-6893</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-11831</v>
+      </c>
+      <c r="B47">
+        <v>-34867</v>
+      </c>
+      <c r="C47">
+        <v>-2347</v>
+      </c>
+      <c r="D47">
+        <v>-6003</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-11831</v>
+      </c>
+      <c r="B48">
+        <v>-34867</v>
+      </c>
+      <c r="C48">
+        <v>-2347</v>
+      </c>
+      <c r="D48">
+        <v>-6003</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-12301</v>
+      </c>
+      <c r="B49">
+        <v>-35672</v>
+      </c>
+      <c r="C49">
+        <v>-2379</v>
+      </c>
+      <c r="D49">
+        <v>-5298</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-12301</v>
+      </c>
+      <c r="B50">
+        <v>-35672</v>
+      </c>
+      <c r="C50">
+        <v>-2379</v>
+      </c>
+      <c r="D50">
+        <v>-5298</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-12743</v>
+      </c>
+      <c r="B51">
+        <v>-36342</v>
+      </c>
+      <c r="C51">
+        <v>-2376</v>
+      </c>
+      <c r="D51">
+        <v>-4677</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-12743</v>
+      </c>
+      <c r="B52">
+        <v>-36342</v>
+      </c>
+      <c r="C52">
+        <v>-2376</v>
+      </c>
+      <c r="D52">
+        <v>-4677</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-13185</v>
+      </c>
+      <c r="B53">
+        <v>-36897</v>
+      </c>
+      <c r="C53">
+        <v>-2342</v>
+      </c>
+      <c r="D53">
+        <v>-4072</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-13185</v>
+      </c>
+      <c r="B54">
+        <v>-36897</v>
+      </c>
+      <c r="C54">
+        <v>-2342</v>
+      </c>
+      <c r="D54">
+        <v>-4072</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-13605</v>
+      </c>
+      <c r="B55">
+        <v>-37285</v>
+      </c>
+      <c r="C55">
+        <v>-2261</v>
+      </c>
+      <c r="D55">
+        <v>-3384</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-13605</v>
+      </c>
+      <c r="B56">
+        <v>-37285</v>
+      </c>
+      <c r="C56">
+        <v>-2261</v>
+      </c>
+      <c r="D56">
+        <v>-3384</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-14002</v>
+      </c>
+      <c r="B57">
+        <v>-37486</v>
+      </c>
+      <c r="C57">
+        <v>-2171</v>
+      </c>
+      <c r="D57">
+        <v>-2628</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-14002</v>
+      </c>
+      <c r="B58">
+        <v>-37486</v>
+      </c>
+      <c r="C58">
+        <v>-2171</v>
+      </c>
+      <c r="D58">
+        <v>-2628</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-14376</v>
+      </c>
+      <c r="B59">
+        <v>-37562</v>
+      </c>
+      <c r="C59">
+        <v>-2076</v>
+      </c>
+      <c r="D59">
+        <v>-1900</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-14376</v>
+      </c>
+      <c r="B60">
+        <v>-37562</v>
+      </c>
+      <c r="C60">
+        <v>-2076</v>
+      </c>
+      <c r="D60">
+        <v>-1900</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-14714</v>
+      </c>
+      <c r="B61">
+        <v>-37576</v>
+      </c>
+      <c r="C61">
+        <v>-1972</v>
+      </c>
+      <c r="D61">
+        <v>-1244</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-14714</v>
+      </c>
+      <c r="B62">
+        <v>-37576</v>
+      </c>
+      <c r="C62">
+        <v>-1972</v>
+      </c>
+      <c r="D62">
+        <v>-1244</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-15019</v>
+      </c>
+      <c r="B63">
+        <v>-37556</v>
+      </c>
+      <c r="C63">
+        <v>-1837</v>
+      </c>
+      <c r="D63">
+        <v>-667</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-15019</v>
+      </c>
+      <c r="B64">
+        <v>-37556</v>
+      </c>
+      <c r="C64">
+        <v>-1837</v>
+      </c>
+      <c r="D64">
+        <v>-667</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-15289</v>
+      </c>
+      <c r="B65">
+        <v>-37482</v>
+      </c>
+      <c r="C65">
+        <v>-1687</v>
+      </c>
+      <c r="D65">
+        <v>-204</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-15289</v>
+      </c>
+      <c r="B66">
+        <v>-37482</v>
+      </c>
+      <c r="C66">
+        <v>-1687</v>
+      </c>
+      <c r="D66">
+        <v>-204</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-15517</v>
+      </c>
+      <c r="B67">
+        <v>-37313</v>
+      </c>
+      <c r="C67">
+        <v>-1518</v>
+      </c>
+      <c r="D67">
+        <v>168</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-15517</v>
+      </c>
+      <c r="B68">
+        <v>-37313</v>
+      </c>
+      <c r="C68">
+        <v>-1518</v>
+      </c>
+      <c r="D68">
+        <v>168</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-15702</v>
+      </c>
+      <c r="B69">
+        <v>-37086</v>
+      </c>
+      <c r="C69">
+        <v>-1330</v>
+      </c>
+      <c r="D69">
+        <v>472</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-15702</v>
+      </c>
+      <c r="B70">
+        <v>-37086</v>
+      </c>
+      <c r="C70">
+        <v>-1330</v>
+      </c>
+      <c r="D70">
+        <v>472</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-15848</v>
+      </c>
+      <c r="B71">
+        <v>-36853</v>
+      </c>
+      <c r="C71">
+        <v>-1137</v>
+      </c>
+      <c r="D71">
+        <v>720</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-15848</v>
+      </c>
+      <c r="B72">
+        <v>-36853</v>
+      </c>
+      <c r="C72">
+        <v>-1137</v>
+      </c>
+      <c r="D72">
+        <v>720</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-15960</v>
+      </c>
+      <c r="B73">
+        <v>-36640</v>
+      </c>
+      <c r="C73">
+        <v>-944</v>
+      </c>
+      <c r="D73">
+        <v>914</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-15960</v>
+      </c>
+      <c r="B74">
+        <v>-36640</v>
+      </c>
+      <c r="C74">
+        <v>-944</v>
+      </c>
+      <c r="D74">
+        <v>914</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-16051</v>
+      </c>
+      <c r="B75">
+        <v>-36444</v>
+      </c>
+      <c r="C75">
+        <v>-764</v>
+      </c>
+      <c r="D75">
+        <v>1037</v>
+      </c>
+      <c r="E75" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-16051</v>
+      </c>
+      <c r="B76">
+        <v>-36444</v>
+      </c>
+      <c r="C76">
+        <v>-764</v>
+      </c>
+      <c r="D76">
+        <v>1037</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-16113</v>
+      </c>
+      <c r="B77">
+        <v>-36253</v>
+      </c>
+      <c r="C77">
+        <v>-598</v>
+      </c>
+      <c r="D77">
+        <v>1060</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-16113</v>
+      </c>
+      <c r="B78">
+        <v>-36253</v>
+      </c>
+      <c r="C78">
+        <v>-598</v>
+      </c>
+      <c r="D78">
+        <v>1060</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-16113</v>
+      </c>
+      <c r="B79">
+        <v>-36253</v>
+      </c>
+      <c r="C79">
+        <v>-598</v>
+      </c>
+      <c r="D79">
+        <v>1060</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-16167</v>
+      </c>
+      <c r="B80">
+        <v>-36049</v>
+      </c>
+      <c r="C80">
+        <v>-467</v>
+      </c>
+      <c r="D80">
+        <v>1037</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-16167</v>
+      </c>
+      <c r="B81">
+        <v>-36049</v>
+      </c>
+      <c r="C81">
+        <v>-467</v>
+      </c>
+      <c r="D81">
+        <v>1037</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-16219</v>
+      </c>
+      <c r="B82">
+        <v>-35834</v>
+      </c>
+      <c r="C82">
+        <v>-372</v>
+      </c>
+      <c r="D82">
+        <v>1019</v>
+      </c>
+      <c r="E82" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-16219</v>
+      </c>
+      <c r="B83">
+        <v>-35834</v>
+      </c>
+      <c r="C83">
+        <v>-372</v>
+      </c>
+      <c r="D83">
+        <v>1019</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-16310</v>
+      </c>
+      <c r="B84">
+        <v>-35621</v>
+      </c>
+      <c r="C84">
+        <v>-349</v>
+      </c>
+      <c r="D84">
+        <v>1019</v>
+      </c>
+      <c r="E84" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-16310</v>
+      </c>
+      <c r="B85">
+        <v>-35621</v>
+      </c>
+      <c r="C85">
+        <v>-349</v>
+      </c>
+      <c r="D85">
+        <v>1019</v>
+      </c>
+      <c r="E85" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-16406</v>
+      </c>
+      <c r="B86">
+        <v>-35424</v>
+      </c>
+      <c r="C86">
+        <v>-355</v>
+      </c>
+      <c r="D86">
+        <v>1020</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-16406</v>
+      </c>
+      <c r="B87">
+        <v>-35424</v>
+      </c>
+      <c r="C87">
+        <v>-355</v>
+      </c>
+      <c r="D87">
+        <v>1020</v>
+      </c>
+      <c r="E87" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>-16406</v>
+      </c>
+      <c r="B88">
+        <v>-35424</v>
+      </c>
+      <c r="C88">
+        <v>-355</v>
+      </c>
+      <c r="D88">
+        <v>1020</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-16527</v>
+      </c>
+      <c r="B89">
+        <v>-35104</v>
+      </c>
+      <c r="C89">
+        <v>-359</v>
+      </c>
+      <c r="D89">
+        <v>946</v>
+      </c>
+      <c r="E89" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-16527</v>
+      </c>
+      <c r="B90">
+        <v>-35104</v>
+      </c>
+      <c r="C90">
+        <v>-359</v>
+      </c>
+      <c r="D90">
+        <v>946</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-16572</v>
+      </c>
+      <c r="B91">
+        <v>-34984</v>
+      </c>
+      <c r="C91">
+        <v>-353</v>
+      </c>
+      <c r="D91">
+        <v>852</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-16572</v>
+      </c>
+      <c r="B92">
+        <v>-34984</v>
+      </c>
+      <c r="C92">
+        <v>-353</v>
+      </c>
+      <c r="D92">
+        <v>852</v>
+      </c>
+      <c r="E92" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-16569</v>
+      </c>
+      <c r="B93">
+        <v>-34896</v>
+      </c>
+      <c r="C93">
+        <v>-261</v>
+      </c>
+      <c r="D93">
+        <v>727</v>
+      </c>
+      <c r="E93" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-16569</v>
+      </c>
+      <c r="B94">
+        <v>-34896</v>
+      </c>
+      <c r="C94">
+        <v>-261</v>
+      </c>
+      <c r="D94">
+        <v>727</v>
+      </c>
+      <c r="E94" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>-16556</v>
+      </c>
+      <c r="B95">
+        <v>-34823</v>
+      </c>
+      <c r="C95">
+        <v>-151</v>
+      </c>
+      <c r="D95">
+        <v>604</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-16556</v>
+      </c>
+      <c r="B96">
+        <v>-34823</v>
+      </c>
+      <c r="C96">
+        <v>-151</v>
+      </c>
+      <c r="D96">
+        <v>604</v>
+      </c>
+      <c r="E96" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-16567</v>
+      </c>
+      <c r="B97">
+        <v>-34803</v>
+      </c>
+      <c r="C97">
+        <v>-90</v>
+      </c>
+      <c r="D97">
+        <v>451</v>
+      </c>
+      <c r="E97" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-16567</v>
+      </c>
+      <c r="B98">
+        <v>-34803</v>
+      </c>
+      <c r="C98">
+        <v>-90</v>
+      </c>
+      <c r="D98">
+        <v>451</v>
+      </c>
+      <c r="E98" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-16566</v>
+      </c>
+      <c r="B99">
+        <v>-34831</v>
+      </c>
+      <c r="C99">
+        <v>-40</v>
+      </c>
+      <c r="D99">
+        <v>275</v>
+      </c>
+      <c r="E99" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-16566</v>
+      </c>
+      <c r="B100">
+        <v>-34831</v>
+      </c>
+      <c r="C100">
+        <v>-40</v>
+      </c>
+      <c r="D100">
+        <v>275</v>
+      </c>
+      <c r="E100" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-16567</v>
+      </c>
+      <c r="B101">
+        <v>-34829</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>156</v>
+      </c>
+      <c r="E101" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-16567</v>
+      </c>
+      <c r="B102">
+        <v>-34829</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>156</v>
+      </c>
+      <c r="E102" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>-16567</v>
+      </c>
+      <c r="B103">
+        <v>-34824</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>73</v>
+      </c>
+      <c r="E103" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>-16567</v>
+      </c>
+      <c r="B104">
+        <v>-34824</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>73</v>
+      </c>
+      <c r="E104" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>-16567</v>
+      </c>
+      <c r="B105">
+        <v>-34827</v>
+      </c>
+      <c r="C105">
+        <v>-11</v>
+      </c>
+      <c r="D105">
+        <v>-4</v>
+      </c>
+      <c r="E105" s="1">
+        <v>-3.19E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754E4EB7-BFB9-4631-9C27-652F106B88A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11522,7 +14397,7 @@
         <v>-33716.057627118644</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:Q120" si="11">J67</f>
+        <f t="shared" ref="P67:Q119" si="11">J67</f>
         <v>-5202</v>
       </c>
       <c r="Q67">
@@ -15434,4 +18309,5415 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1DA114-CF27-4252-9AFF-D4CE16261667}">
+  <dimension ref="A1:E93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-5422</v>
+      </c>
+      <c r="B2">
+        <v>6994</v>
+      </c>
+      <c r="C2">
+        <v>-19</v>
+      </c>
+      <c r="D2">
+        <v>-3381</v>
+      </c>
+      <c r="E2">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-5422</v>
+      </c>
+      <c r="B3">
+        <v>6994</v>
+      </c>
+      <c r="C3">
+        <v>-19</v>
+      </c>
+      <c r="D3">
+        <v>-3381</v>
+      </c>
+      <c r="E3">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-5484</v>
+      </c>
+      <c r="B4">
+        <v>5924</v>
+      </c>
+      <c r="C4">
+        <v>-81</v>
+      </c>
+      <c r="D4">
+        <v>-3983</v>
+      </c>
+      <c r="E4">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-5484</v>
+      </c>
+      <c r="B5">
+        <v>5924</v>
+      </c>
+      <c r="C5">
+        <v>-81</v>
+      </c>
+      <c r="D5">
+        <v>-3983</v>
+      </c>
+      <c r="E5">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-5710</v>
+      </c>
+      <c r="B6">
+        <v>4640</v>
+      </c>
+      <c r="C6">
+        <v>-306</v>
+      </c>
+      <c r="D6">
+        <v>-4651</v>
+      </c>
+      <c r="E6">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-5710</v>
+      </c>
+      <c r="B7">
+        <v>4640</v>
+      </c>
+      <c r="C7">
+        <v>-306</v>
+      </c>
+      <c r="D7">
+        <v>-4651</v>
+      </c>
+      <c r="E7">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-6022</v>
+      </c>
+      <c r="B8">
+        <v>3135</v>
+      </c>
+      <c r="C8">
+        <v>-618</v>
+      </c>
+      <c r="D8">
+        <v>-5473</v>
+      </c>
+      <c r="E8">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-6022</v>
+      </c>
+      <c r="B9">
+        <v>3135</v>
+      </c>
+      <c r="C9">
+        <v>-618</v>
+      </c>
+      <c r="D9">
+        <v>-5473</v>
+      </c>
+      <c r="E9">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-6310</v>
+      </c>
+      <c r="B10">
+        <v>1491</v>
+      </c>
+      <c r="C10">
+        <v>-901</v>
+      </c>
+      <c r="D10">
+        <v>-6374</v>
+      </c>
+      <c r="E10">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-6310</v>
+      </c>
+      <c r="B11">
+        <v>1491</v>
+      </c>
+      <c r="C11">
+        <v>-901</v>
+      </c>
+      <c r="D11">
+        <v>-6374</v>
+      </c>
+      <c r="E11">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-6310</v>
+      </c>
+      <c r="B12">
+        <v>1491</v>
+      </c>
+      <c r="C12">
+        <v>-901</v>
+      </c>
+      <c r="D12">
+        <v>-6374</v>
+      </c>
+      <c r="E12">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-6561</v>
+      </c>
+      <c r="B13">
+        <v>-262</v>
+      </c>
+      <c r="C13">
+        <v>-1138</v>
+      </c>
+      <c r="D13">
+        <v>-7253</v>
+      </c>
+      <c r="E13">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-6561</v>
+      </c>
+      <c r="B14">
+        <v>-262</v>
+      </c>
+      <c r="C14">
+        <v>-1138</v>
+      </c>
+      <c r="D14">
+        <v>-7253</v>
+      </c>
+      <c r="E14">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-6772</v>
+      </c>
+      <c r="B15">
+        <v>-2127</v>
+      </c>
+      <c r="C15">
+        <v>-1288</v>
+      </c>
+      <c r="D15">
+        <v>-8047</v>
+      </c>
+      <c r="E15">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-6772</v>
+      </c>
+      <c r="B16">
+        <v>-2127</v>
+      </c>
+      <c r="C16">
+        <v>-1288</v>
+      </c>
+      <c r="D16">
+        <v>-8047</v>
+      </c>
+      <c r="E16">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-6941</v>
+      </c>
+      <c r="B17">
+        <v>-4133</v>
+      </c>
+      <c r="C17">
+        <v>-1231</v>
+      </c>
+      <c r="D17">
+        <v>-8769</v>
+      </c>
+      <c r="E17">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-6941</v>
+      </c>
+      <c r="B18">
+        <v>-4133</v>
+      </c>
+      <c r="C18">
+        <v>-1231</v>
+      </c>
+      <c r="D18">
+        <v>-8769</v>
+      </c>
+      <c r="E18">
+        <v>0.55212473900000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-7073</v>
+      </c>
+      <c r="B19">
+        <v>-6246</v>
+      </c>
+      <c r="C19">
+        <v>-1051</v>
+      </c>
+      <c r="D19">
+        <v>-9384</v>
+      </c>
+      <c r="E19">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-7073</v>
+      </c>
+      <c r="B20">
+        <v>-6246</v>
+      </c>
+      <c r="C20">
+        <v>-1051</v>
+      </c>
+      <c r="D20">
+        <v>-9384</v>
+      </c>
+      <c r="E20">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-7170</v>
+      </c>
+      <c r="B21">
+        <v>-8388</v>
+      </c>
+      <c r="C21">
+        <v>-859</v>
+      </c>
+      <c r="D21">
+        <v>-9878</v>
+      </c>
+      <c r="E21">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-7170</v>
+      </c>
+      <c r="B22">
+        <v>-8388</v>
+      </c>
+      <c r="C22">
+        <v>-859</v>
+      </c>
+      <c r="D22">
+        <v>-9878</v>
+      </c>
+      <c r="E22">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-7170</v>
+      </c>
+      <c r="B23">
+        <v>-8388</v>
+      </c>
+      <c r="C23">
+        <v>-859</v>
+      </c>
+      <c r="D23">
+        <v>-9878</v>
+      </c>
+      <c r="E23">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-7236</v>
+      </c>
+      <c r="B24">
+        <v>-12499</v>
+      </c>
+      <c r="C24">
+        <v>-676</v>
+      </c>
+      <c r="D24">
+        <v>-10377</v>
+      </c>
+      <c r="E24">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-7236</v>
+      </c>
+      <c r="B25">
+        <v>-12499</v>
+      </c>
+      <c r="C25">
+        <v>-676</v>
+      </c>
+      <c r="D25">
+        <v>-10377</v>
+      </c>
+      <c r="E25">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-7595</v>
+      </c>
+      <c r="B26">
+        <v>-14443</v>
+      </c>
+      <c r="C26">
+        <v>-654</v>
+      </c>
+      <c r="D26">
+        <v>-10309</v>
+      </c>
+      <c r="E26">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-7595</v>
+      </c>
+      <c r="B27">
+        <v>-14443</v>
+      </c>
+      <c r="C27">
+        <v>-654</v>
+      </c>
+      <c r="D27">
+        <v>-10309</v>
+      </c>
+      <c r="E27">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-8036</v>
+      </c>
+      <c r="B28">
+        <v>-16298</v>
+      </c>
+      <c r="C28">
+        <v>-962</v>
+      </c>
+      <c r="D28">
+        <v>-10052</v>
+      </c>
+      <c r="E28">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-8036</v>
+      </c>
+      <c r="B29">
+        <v>-16298</v>
+      </c>
+      <c r="C29">
+        <v>-962</v>
+      </c>
+      <c r="D29">
+        <v>-10052</v>
+      </c>
+      <c r="E29">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-8597</v>
+      </c>
+      <c r="B30">
+        <v>-18073</v>
+      </c>
+      <c r="C30">
+        <v>-1427</v>
+      </c>
+      <c r="D30">
+        <v>-9684</v>
+      </c>
+      <c r="E30">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-8597</v>
+      </c>
+      <c r="B31">
+        <v>-18073</v>
+      </c>
+      <c r="C31">
+        <v>-1427</v>
+      </c>
+      <c r="D31">
+        <v>-9684</v>
+      </c>
+      <c r="E31">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-9220</v>
+      </c>
+      <c r="B32">
+        <v>-19630</v>
+      </c>
+      <c r="C32">
+        <v>-1983</v>
+      </c>
+      <c r="D32">
+        <v>-9148</v>
+      </c>
+      <c r="E32">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-9220</v>
+      </c>
+      <c r="B33">
+        <v>-19630</v>
+      </c>
+      <c r="C33">
+        <v>-1983</v>
+      </c>
+      <c r="D33">
+        <v>-9148</v>
+      </c>
+      <c r="E33">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-9843</v>
+      </c>
+      <c r="B34">
+        <v>-20858</v>
+      </c>
+      <c r="C34">
+        <v>-2514</v>
+      </c>
+      <c r="D34">
+        <v>-8361</v>
+      </c>
+      <c r="E34">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-9843</v>
+      </c>
+      <c r="B35">
+        <v>-20858</v>
+      </c>
+      <c r="C35">
+        <v>-2514</v>
+      </c>
+      <c r="D35">
+        <v>-8361</v>
+      </c>
+      <c r="E35">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-10494</v>
+      </c>
+      <c r="B36">
+        <v>-21841</v>
+      </c>
+      <c r="C36">
+        <v>-2898</v>
+      </c>
+      <c r="D36">
+        <v>-7401</v>
+      </c>
+      <c r="E36">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-10494</v>
+      </c>
+      <c r="B37">
+        <v>-21841</v>
+      </c>
+      <c r="C37">
+        <v>-2898</v>
+      </c>
+      <c r="D37">
+        <v>-7401</v>
+      </c>
+      <c r="E37">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-11233</v>
+      </c>
+      <c r="B38">
+        <v>-22684</v>
+      </c>
+      <c r="C38">
+        <v>-3199</v>
+      </c>
+      <c r="D38">
+        <v>-6386</v>
+      </c>
+      <c r="E38">
+        <v>0.549219966</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-11233</v>
+      </c>
+      <c r="B39">
+        <v>-22684</v>
+      </c>
+      <c r="C39">
+        <v>-3199</v>
+      </c>
+      <c r="D39">
+        <v>-6386</v>
+      </c>
+      <c r="E39">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-12070</v>
+      </c>
+      <c r="B40">
+        <v>-23457</v>
+      </c>
+      <c r="C40">
+        <v>-3472</v>
+      </c>
+      <c r="D40">
+        <v>-5387</v>
+      </c>
+      <c r="E40">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-12070</v>
+      </c>
+      <c r="B41">
+        <v>-23457</v>
+      </c>
+      <c r="C41">
+        <v>-3472</v>
+      </c>
+      <c r="D41">
+        <v>-5387</v>
+      </c>
+      <c r="E41">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-12964</v>
+      </c>
+      <c r="B42">
+        <v>-24161</v>
+      </c>
+      <c r="C42">
+        <v>-3743</v>
+      </c>
+      <c r="D42">
+        <v>-4533</v>
+      </c>
+      <c r="E42">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-12964</v>
+      </c>
+      <c r="B43">
+        <v>-24161</v>
+      </c>
+      <c r="C43">
+        <v>-3743</v>
+      </c>
+      <c r="D43">
+        <v>-4533</v>
+      </c>
+      <c r="E43">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-13879</v>
+      </c>
+      <c r="B44">
+        <v>-24742</v>
+      </c>
+      <c r="C44">
+        <v>-4036</v>
+      </c>
+      <c r="D44">
+        <v>-3884</v>
+      </c>
+      <c r="E44">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-13879</v>
+      </c>
+      <c r="B45">
+        <v>-24742</v>
+      </c>
+      <c r="C45">
+        <v>-4036</v>
+      </c>
+      <c r="D45">
+        <v>-3884</v>
+      </c>
+      <c r="E45">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-14797</v>
+      </c>
+      <c r="B46">
+        <v>-25136</v>
+      </c>
+      <c r="C46">
+        <v>-4302</v>
+      </c>
+      <c r="D46">
+        <v>-3299</v>
+      </c>
+      <c r="E46">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-14797</v>
+      </c>
+      <c r="B47">
+        <v>-25136</v>
+      </c>
+      <c r="C47">
+        <v>-4302</v>
+      </c>
+      <c r="D47">
+        <v>-3299</v>
+      </c>
+      <c r="E47">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-15735</v>
+      </c>
+      <c r="B48">
+        <v>-25399</v>
+      </c>
+      <c r="C48">
+        <v>-4500</v>
+      </c>
+      <c r="D48">
+        <v>-2716</v>
+      </c>
+      <c r="E48">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-15735</v>
+      </c>
+      <c r="B49">
+        <v>-25399</v>
+      </c>
+      <c r="C49">
+        <v>-4500</v>
+      </c>
+      <c r="D49">
+        <v>-2716</v>
+      </c>
+      <c r="E49">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-16700</v>
+      </c>
+      <c r="B50">
+        <v>-25586</v>
+      </c>
+      <c r="C50">
+        <v>-4632</v>
+      </c>
+      <c r="D50">
+        <v>-2130</v>
+      </c>
+      <c r="E50">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-16700</v>
+      </c>
+      <c r="B51">
+        <v>-25586</v>
+      </c>
+      <c r="C51">
+        <v>-4632</v>
+      </c>
+      <c r="D51">
+        <v>-2130</v>
+      </c>
+      <c r="E51">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-16700</v>
+      </c>
+      <c r="B52">
+        <v>-25586</v>
+      </c>
+      <c r="C52">
+        <v>-4632</v>
+      </c>
+      <c r="D52">
+        <v>-2130</v>
+      </c>
+      <c r="E52">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-17665</v>
+      </c>
+      <c r="B53">
+        <v>-25688</v>
+      </c>
+      <c r="C53">
+        <v>-4702</v>
+      </c>
+      <c r="D53">
+        <v>-1528</v>
+      </c>
+      <c r="E53">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-17665</v>
+      </c>
+      <c r="B54">
+        <v>-25688</v>
+      </c>
+      <c r="C54">
+        <v>-4702</v>
+      </c>
+      <c r="D54">
+        <v>-1528</v>
+      </c>
+      <c r="E54">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-18587</v>
+      </c>
+      <c r="B55">
+        <v>-25700</v>
+      </c>
+      <c r="C55">
+        <v>-4708</v>
+      </c>
+      <c r="D55">
+        <v>-959</v>
+      </c>
+      <c r="E55">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-18587</v>
+      </c>
+      <c r="B56">
+        <v>-25700</v>
+      </c>
+      <c r="C56">
+        <v>-4708</v>
+      </c>
+      <c r="D56">
+        <v>-959</v>
+      </c>
+      <c r="E56">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-19457</v>
+      </c>
+      <c r="B57">
+        <v>-25666</v>
+      </c>
+      <c r="C57">
+        <v>-4661</v>
+      </c>
+      <c r="D57">
+        <v>-530</v>
+      </c>
+      <c r="E57">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-19457</v>
+      </c>
+      <c r="B58">
+        <v>-25666</v>
+      </c>
+      <c r="C58">
+        <v>-4661</v>
+      </c>
+      <c r="D58">
+        <v>-530</v>
+      </c>
+      <c r="E58">
+        <v>0.50726193200000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-20272</v>
+      </c>
+      <c r="B59">
+        <v>-25585</v>
+      </c>
+      <c r="C59">
+        <v>-4537</v>
+      </c>
+      <c r="D59">
+        <v>-188</v>
+      </c>
+      <c r="E59">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-20272</v>
+      </c>
+      <c r="B60">
+        <v>-25585</v>
+      </c>
+      <c r="C60">
+        <v>-4537</v>
+      </c>
+      <c r="D60">
+        <v>-188</v>
+      </c>
+      <c r="E60">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-21031</v>
+      </c>
+      <c r="B61">
+        <v>-25470</v>
+      </c>
+      <c r="C61">
+        <v>-4329</v>
+      </c>
+      <c r="D61">
+        <v>115</v>
+      </c>
+      <c r="E61">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-21031</v>
+      </c>
+      <c r="B62">
+        <v>-25470</v>
+      </c>
+      <c r="C62">
+        <v>-4329</v>
+      </c>
+      <c r="D62">
+        <v>115</v>
+      </c>
+      <c r="E62">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-21737</v>
+      </c>
+      <c r="B63">
+        <v>-25318</v>
+      </c>
+      <c r="C63">
+        <v>-4072</v>
+      </c>
+      <c r="D63">
+        <v>370</v>
+      </c>
+      <c r="E63">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-21737</v>
+      </c>
+      <c r="B64">
+        <v>-25318</v>
+      </c>
+      <c r="C64">
+        <v>-4072</v>
+      </c>
+      <c r="D64">
+        <v>370</v>
+      </c>
+      <c r="E64">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-22397</v>
+      </c>
+      <c r="B65">
+        <v>-25145</v>
+      </c>
+      <c r="C65">
+        <v>-3811</v>
+      </c>
+      <c r="D65">
+        <v>555</v>
+      </c>
+      <c r="E65">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-22397</v>
+      </c>
+      <c r="B66">
+        <v>-25145</v>
+      </c>
+      <c r="C66">
+        <v>-3811</v>
+      </c>
+      <c r="D66">
+        <v>555</v>
+      </c>
+      <c r="E66">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-22996</v>
+      </c>
+      <c r="B67">
+        <v>-24982</v>
+      </c>
+      <c r="C67">
+        <v>-3540</v>
+      </c>
+      <c r="D67">
+        <v>683</v>
+      </c>
+      <c r="E67">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-22996</v>
+      </c>
+      <c r="B68">
+        <v>-24982</v>
+      </c>
+      <c r="C68">
+        <v>-3540</v>
+      </c>
+      <c r="D68">
+        <v>683</v>
+      </c>
+      <c r="E68">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-23545</v>
+      </c>
+      <c r="B69">
+        <v>-24845</v>
+      </c>
+      <c r="C69">
+        <v>-3273</v>
+      </c>
+      <c r="D69">
+        <v>741</v>
+      </c>
+      <c r="E69">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-23545</v>
+      </c>
+      <c r="B70">
+        <v>-24845</v>
+      </c>
+      <c r="C70">
+        <v>-3273</v>
+      </c>
+      <c r="D70">
+        <v>741</v>
+      </c>
+      <c r="E70">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-24023</v>
+      </c>
+      <c r="B71">
+        <v>-24739</v>
+      </c>
+      <c r="C71">
+        <v>-2992</v>
+      </c>
+      <c r="D71">
+        <v>732</v>
+      </c>
+      <c r="E71">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-24023</v>
+      </c>
+      <c r="B72">
+        <v>-24739</v>
+      </c>
+      <c r="C72">
+        <v>-2992</v>
+      </c>
+      <c r="D72">
+        <v>732</v>
+      </c>
+      <c r="E72">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-24426</v>
+      </c>
+      <c r="B73">
+        <v>-24658</v>
+      </c>
+      <c r="C73">
+        <v>-2689</v>
+      </c>
+      <c r="D73">
+        <v>660</v>
+      </c>
+      <c r="E73">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-24426</v>
+      </c>
+      <c r="B74">
+        <v>-24658</v>
+      </c>
+      <c r="C74">
+        <v>-2689</v>
+      </c>
+      <c r="D74">
+        <v>660</v>
+      </c>
+      <c r="E74">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-24754</v>
+      </c>
+      <c r="B75">
+        <v>-24610</v>
+      </c>
+      <c r="C75">
+        <v>-2357</v>
+      </c>
+      <c r="D75">
+        <v>534</v>
+      </c>
+      <c r="E75">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-24754</v>
+      </c>
+      <c r="B76">
+        <v>-24610</v>
+      </c>
+      <c r="C76">
+        <v>-2357</v>
+      </c>
+      <c r="D76">
+        <v>534</v>
+      </c>
+      <c r="E76">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-25029</v>
+      </c>
+      <c r="B77">
+        <v>-24568</v>
+      </c>
+      <c r="C77">
+        <v>-2033</v>
+      </c>
+      <c r="D77">
+        <v>415</v>
+      </c>
+      <c r="E77">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-25029</v>
+      </c>
+      <c r="B78">
+        <v>-24568</v>
+      </c>
+      <c r="C78">
+        <v>-2033</v>
+      </c>
+      <c r="D78">
+        <v>415</v>
+      </c>
+      <c r="E78">
+        <v>0.43119955100000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-25261</v>
+      </c>
+      <c r="B79">
+        <v>-24511</v>
+      </c>
+      <c r="C79">
+        <v>-1717</v>
+      </c>
+      <c r="D79">
+        <v>334</v>
+      </c>
+      <c r="E79">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-25261</v>
+      </c>
+      <c r="B80">
+        <v>-24511</v>
+      </c>
+      <c r="C80">
+        <v>-1717</v>
+      </c>
+      <c r="D80">
+        <v>334</v>
+      </c>
+      <c r="E80">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-25450</v>
+      </c>
+      <c r="B81">
+        <v>-24460</v>
+      </c>
+      <c r="C81">
+        <v>-1428</v>
+      </c>
+      <c r="D81">
+        <v>279</v>
+      </c>
+      <c r="E81">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-25450</v>
+      </c>
+      <c r="B82">
+        <v>-24460</v>
+      </c>
+      <c r="C82">
+        <v>-1428</v>
+      </c>
+      <c r="D82">
+        <v>279</v>
+      </c>
+      <c r="E82">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-25596</v>
+      </c>
+      <c r="B83">
+        <v>-24371</v>
+      </c>
+      <c r="C83">
+        <v>-1170</v>
+      </c>
+      <c r="D83">
+        <v>286</v>
+      </c>
+      <c r="E83">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-25596</v>
+      </c>
+      <c r="B84">
+        <v>-24371</v>
+      </c>
+      <c r="C84">
+        <v>-1170</v>
+      </c>
+      <c r="D84">
+        <v>286</v>
+      </c>
+      <c r="E84">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-25596</v>
+      </c>
+      <c r="B85">
+        <v>-24371</v>
+      </c>
+      <c r="C85">
+        <v>-1170</v>
+      </c>
+      <c r="D85">
+        <v>286</v>
+      </c>
+      <c r="E85">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-25700</v>
+      </c>
+      <c r="B86">
+        <v>-24213</v>
+      </c>
+      <c r="C86">
+        <v>-946</v>
+      </c>
+      <c r="D86">
+        <v>355</v>
+      </c>
+      <c r="E86">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-25700</v>
+      </c>
+      <c r="B87">
+        <v>-24213</v>
+      </c>
+      <c r="C87">
+        <v>-946</v>
+      </c>
+      <c r="D87">
+        <v>355</v>
+      </c>
+      <c r="E87">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>-25778</v>
+      </c>
+      <c r="B88">
+        <v>-24172</v>
+      </c>
+      <c r="C88">
+        <v>-750</v>
+      </c>
+      <c r="D88">
+        <v>339</v>
+      </c>
+      <c r="E88">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-25778</v>
+      </c>
+      <c r="B89">
+        <v>-24172</v>
+      </c>
+      <c r="C89">
+        <v>-750</v>
+      </c>
+      <c r="D89">
+        <v>339</v>
+      </c>
+      <c r="E89">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-25755</v>
+      </c>
+      <c r="B90">
+        <v>-24138</v>
+      </c>
+      <c r="C90">
+        <v>-306</v>
+      </c>
+      <c r="D90">
+        <v>322</v>
+      </c>
+      <c r="E90">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-25755</v>
+      </c>
+      <c r="B91">
+        <v>-24138</v>
+      </c>
+      <c r="C91">
+        <v>-306</v>
+      </c>
+      <c r="D91">
+        <v>322</v>
+      </c>
+      <c r="E91">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-25749</v>
+      </c>
+      <c r="B92">
+        <v>-24069</v>
+      </c>
+      <c r="C92">
+        <v>-153</v>
+      </c>
+      <c r="D92">
+        <v>303</v>
+      </c>
+      <c r="E92">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-25749</v>
+      </c>
+      <c r="B93">
+        <v>-24069</v>
+      </c>
+      <c r="C93">
+        <v>-153</v>
+      </c>
+      <c r="D93">
+        <v>303</v>
+      </c>
+      <c r="E93">
+        <v>0.41258740399999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328A3D05-15EC-44D7-8A8E-F9C1CCBDD56D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4452A2C0-D173-4635-89B3-218927C8FDC6}">
+  <dimension ref="A1:E77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-9674</v>
+      </c>
+      <c r="B2">
+        <v>15123</v>
+      </c>
+      <c r="C2">
+        <v>-2427</v>
+      </c>
+      <c r="D2">
+        <v>2596</v>
+      </c>
+      <c r="E2">
+        <v>0.53748482500000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-9674</v>
+      </c>
+      <c r="B3">
+        <v>15123</v>
+      </c>
+      <c r="C3">
+        <v>-2427</v>
+      </c>
+      <c r="D3">
+        <v>2596</v>
+      </c>
+      <c r="E3">
+        <v>0.53748482500000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-10627</v>
+      </c>
+      <c r="B4">
+        <v>15737</v>
+      </c>
+      <c r="C4">
+        <v>-2399</v>
+      </c>
+      <c r="D4">
+        <v>2789</v>
+      </c>
+      <c r="E4">
+        <v>0.53748482500000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-10627</v>
+      </c>
+      <c r="B5">
+        <v>15737</v>
+      </c>
+      <c r="C5">
+        <v>-2399</v>
+      </c>
+      <c r="D5">
+        <v>2789</v>
+      </c>
+      <c r="E5">
+        <v>0.53748482500000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-10627</v>
+      </c>
+      <c r="B6">
+        <v>15737</v>
+      </c>
+      <c r="C6">
+        <v>-2399</v>
+      </c>
+      <c r="D6">
+        <v>2789</v>
+      </c>
+      <c r="E6">
+        <v>0.53748482500000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-10627</v>
+      </c>
+      <c r="B7">
+        <v>15737</v>
+      </c>
+      <c r="C7">
+        <v>-2399</v>
+      </c>
+      <c r="D7">
+        <v>2789</v>
+      </c>
+      <c r="E7">
+        <v>0.53748482500000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-11096</v>
+      </c>
+      <c r="B8">
+        <v>16387</v>
+      </c>
+      <c r="C8">
+        <v>-2387</v>
+      </c>
+      <c r="D8">
+        <v>2939</v>
+      </c>
+      <c r="E8">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-11096</v>
+      </c>
+      <c r="B9">
+        <v>16387</v>
+      </c>
+      <c r="C9">
+        <v>-2387</v>
+      </c>
+      <c r="D9">
+        <v>2939</v>
+      </c>
+      <c r="E9">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-11096</v>
+      </c>
+      <c r="B10">
+        <v>16387</v>
+      </c>
+      <c r="C10">
+        <v>-2387</v>
+      </c>
+      <c r="D10">
+        <v>2939</v>
+      </c>
+      <c r="E10">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-11096</v>
+      </c>
+      <c r="B11">
+        <v>16387</v>
+      </c>
+      <c r="C11">
+        <v>-2387</v>
+      </c>
+      <c r="D11">
+        <v>2939</v>
+      </c>
+      <c r="E11">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-11573</v>
+      </c>
+      <c r="B12">
+        <v>17061</v>
+      </c>
+      <c r="C12">
+        <v>-2388</v>
+      </c>
+      <c r="D12">
+        <v>3077</v>
+      </c>
+      <c r="E12">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-11573</v>
+      </c>
+      <c r="B13">
+        <v>17061</v>
+      </c>
+      <c r="C13">
+        <v>-2388</v>
+      </c>
+      <c r="D13">
+        <v>3077</v>
+      </c>
+      <c r="E13">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-12504</v>
+      </c>
+      <c r="B14">
+        <v>18446</v>
+      </c>
+      <c r="C14">
+        <v>-2351</v>
+      </c>
+      <c r="D14">
+        <v>3322</v>
+      </c>
+      <c r="E14">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-12504</v>
+      </c>
+      <c r="B15">
+        <v>18446</v>
+      </c>
+      <c r="C15">
+        <v>-2351</v>
+      </c>
+      <c r="D15">
+        <v>3322</v>
+      </c>
+      <c r="E15">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-12504</v>
+      </c>
+      <c r="B16">
+        <v>18446</v>
+      </c>
+      <c r="C16">
+        <v>-2351</v>
+      </c>
+      <c r="D16">
+        <v>3322</v>
+      </c>
+      <c r="E16">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-12504</v>
+      </c>
+      <c r="B17">
+        <v>18446</v>
+      </c>
+      <c r="C17">
+        <v>-2351</v>
+      </c>
+      <c r="D17">
+        <v>3322</v>
+      </c>
+      <c r="E17">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-12962</v>
+      </c>
+      <c r="B18">
+        <v>19119</v>
+      </c>
+      <c r="C18">
+        <v>-2333</v>
+      </c>
+      <c r="D18">
+        <v>3381</v>
+      </c>
+      <c r="E18">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-12962</v>
+      </c>
+      <c r="B19">
+        <v>19119</v>
+      </c>
+      <c r="C19">
+        <v>-2333</v>
+      </c>
+      <c r="D19">
+        <v>3381</v>
+      </c>
+      <c r="E19">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-13414</v>
+      </c>
+      <c r="B20">
+        <v>19774</v>
+      </c>
+      <c r="C20">
+        <v>-2319</v>
+      </c>
+      <c r="D20">
+        <v>3387</v>
+      </c>
+      <c r="E20">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-13414</v>
+      </c>
+      <c r="B21">
+        <v>19774</v>
+      </c>
+      <c r="C21">
+        <v>-2319</v>
+      </c>
+      <c r="D21">
+        <v>3387</v>
+      </c>
+      <c r="E21">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-13414</v>
+      </c>
+      <c r="B22">
+        <v>19774</v>
+      </c>
+      <c r="C22">
+        <v>-2319</v>
+      </c>
+      <c r="D22">
+        <v>3387</v>
+      </c>
+      <c r="E22">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-13414</v>
+      </c>
+      <c r="B23">
+        <v>19774</v>
+      </c>
+      <c r="C23">
+        <v>-2319</v>
+      </c>
+      <c r="D23">
+        <v>3387</v>
+      </c>
+      <c r="E23">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-13839</v>
+      </c>
+      <c r="B24">
+        <v>20463</v>
+      </c>
+      <c r="C24">
+        <v>-2267</v>
+      </c>
+      <c r="D24">
+        <v>3400</v>
+      </c>
+      <c r="E24">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-13839</v>
+      </c>
+      <c r="B25">
+        <v>20463</v>
+      </c>
+      <c r="C25">
+        <v>-2267</v>
+      </c>
+      <c r="D25">
+        <v>3400</v>
+      </c>
+      <c r="E25">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-13839</v>
+      </c>
+      <c r="B26">
+        <v>20463</v>
+      </c>
+      <c r="C26">
+        <v>-2267</v>
+      </c>
+      <c r="D26">
+        <v>3400</v>
+      </c>
+      <c r="E26">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-14235</v>
+      </c>
+      <c r="B27">
+        <v>21181</v>
+      </c>
+      <c r="C27">
+        <v>-2199</v>
+      </c>
+      <c r="D27">
+        <v>3429</v>
+      </c>
+      <c r="E27">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-14235</v>
+      </c>
+      <c r="B28">
+        <v>21181</v>
+      </c>
+      <c r="C28">
+        <v>-2199</v>
+      </c>
+      <c r="D28">
+        <v>3429</v>
+      </c>
+      <c r="E28">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-14627</v>
+      </c>
+      <c r="B29">
+        <v>21879</v>
+      </c>
+      <c r="C29">
+        <v>-2125</v>
+      </c>
+      <c r="D29">
+        <v>3432</v>
+      </c>
+      <c r="E29">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-14627</v>
+      </c>
+      <c r="B30">
+        <v>21879</v>
+      </c>
+      <c r="C30">
+        <v>-2125</v>
+      </c>
+      <c r="D30">
+        <v>3432</v>
+      </c>
+      <c r="E30">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-14627</v>
+      </c>
+      <c r="B31">
+        <v>21879</v>
+      </c>
+      <c r="C31">
+        <v>-2125</v>
+      </c>
+      <c r="D31">
+        <v>3432</v>
+      </c>
+      <c r="E31">
+        <v>0.51600706600000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-15017</v>
+      </c>
+      <c r="B32">
+        <v>22544</v>
+      </c>
+      <c r="C32">
+        <v>-2059</v>
+      </c>
+      <c r="D32">
+        <v>3427</v>
+      </c>
+      <c r="E32">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-15017</v>
+      </c>
+      <c r="B33">
+        <v>22544</v>
+      </c>
+      <c r="C33">
+        <v>-2059</v>
+      </c>
+      <c r="D33">
+        <v>3427</v>
+      </c>
+      <c r="E33">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-15400</v>
+      </c>
+      <c r="B34">
+        <v>23194</v>
+      </c>
+      <c r="C34">
+        <v>-1988</v>
+      </c>
+      <c r="D34">
+        <v>3422</v>
+      </c>
+      <c r="E34">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-15400</v>
+      </c>
+      <c r="B35">
+        <v>23194</v>
+      </c>
+      <c r="C35">
+        <v>-1988</v>
+      </c>
+      <c r="D35">
+        <v>3422</v>
+      </c>
+      <c r="E35">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-15764</v>
+      </c>
+      <c r="B36">
+        <v>24484</v>
+      </c>
+      <c r="C36">
+        <v>-1927</v>
+      </c>
+      <c r="D36">
+        <v>3306</v>
+      </c>
+      <c r="E36">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-15764</v>
+      </c>
+      <c r="B37">
+        <v>24484</v>
+      </c>
+      <c r="C37">
+        <v>-1927</v>
+      </c>
+      <c r="D37">
+        <v>3306</v>
+      </c>
+      <c r="E37">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-16107</v>
+      </c>
+      <c r="B38">
+        <v>25086</v>
+      </c>
+      <c r="C38">
+        <v>-1872</v>
+      </c>
+      <c r="D38">
+        <v>3210</v>
+      </c>
+      <c r="E38">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-16107</v>
+      </c>
+      <c r="B39">
+        <v>25086</v>
+      </c>
+      <c r="C39">
+        <v>-1872</v>
+      </c>
+      <c r="D39">
+        <v>3210</v>
+      </c>
+      <c r="E39">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-16456</v>
+      </c>
+      <c r="B40">
+        <v>25646</v>
+      </c>
+      <c r="C40">
+        <v>-1831</v>
+      </c>
+      <c r="D40">
+        <v>3104</v>
+      </c>
+      <c r="E40">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-16456</v>
+      </c>
+      <c r="B41">
+        <v>25646</v>
+      </c>
+      <c r="C41">
+        <v>-1831</v>
+      </c>
+      <c r="D41">
+        <v>3104</v>
+      </c>
+      <c r="E41">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-16808</v>
+      </c>
+      <c r="B42">
+        <v>26183</v>
+      </c>
+      <c r="C42">
+        <v>-1791</v>
+      </c>
+      <c r="D42">
+        <v>2990</v>
+      </c>
+      <c r="E42">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-16808</v>
+      </c>
+      <c r="B43">
+        <v>26183</v>
+      </c>
+      <c r="C43">
+        <v>-1791</v>
+      </c>
+      <c r="D43">
+        <v>2990</v>
+      </c>
+      <c r="E43">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-17506</v>
+      </c>
+      <c r="B44">
+        <v>26720</v>
+      </c>
+      <c r="C44">
+        <v>-1742</v>
+      </c>
+      <c r="D44">
+        <v>2880</v>
+      </c>
+      <c r="E44">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-17506</v>
+      </c>
+      <c r="B45">
+        <v>26720</v>
+      </c>
+      <c r="C45">
+        <v>-1742</v>
+      </c>
+      <c r="D45">
+        <v>2880</v>
+      </c>
+      <c r="E45">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-17506</v>
+      </c>
+      <c r="B46">
+        <v>27239</v>
+      </c>
+      <c r="C46">
+        <v>-1716</v>
+      </c>
+      <c r="D46">
+        <v>2759</v>
+      </c>
+      <c r="E46">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-17822</v>
+      </c>
+      <c r="B47">
+        <v>27239</v>
+      </c>
+      <c r="C47">
+        <v>-1716</v>
+      </c>
+      <c r="D47">
+        <v>2759</v>
+      </c>
+      <c r="E47">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-17822</v>
+      </c>
+      <c r="B48">
+        <v>27239</v>
+      </c>
+      <c r="C48">
+        <v>-1716</v>
+      </c>
+      <c r="D48">
+        <v>2759</v>
+      </c>
+      <c r="E48">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-18107</v>
+      </c>
+      <c r="B49">
+        <v>27718</v>
+      </c>
+      <c r="C49">
+        <v>-1651</v>
+      </c>
+      <c r="D49">
+        <v>2635</v>
+      </c>
+      <c r="E49">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-18107</v>
+      </c>
+      <c r="B50">
+        <v>27718</v>
+      </c>
+      <c r="C50">
+        <v>-1651</v>
+      </c>
+      <c r="D50">
+        <v>2635</v>
+      </c>
+      <c r="E50">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-18375</v>
+      </c>
+      <c r="B51">
+        <v>28155</v>
+      </c>
+      <c r="C51">
+        <v>-1570</v>
+      </c>
+      <c r="D51">
+        <v>2511</v>
+      </c>
+      <c r="E51">
+        <v>0.49456691699999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-18375</v>
+      </c>
+      <c r="B52">
+        <v>28155</v>
+      </c>
+      <c r="C52">
+        <v>-1570</v>
+      </c>
+      <c r="D52">
+        <v>2511</v>
+      </c>
+      <c r="E52">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-18619</v>
+      </c>
+      <c r="B53">
+        <v>28551</v>
+      </c>
+      <c r="C53">
+        <v>-1462</v>
+      </c>
+      <c r="D53">
+        <v>2373</v>
+      </c>
+      <c r="E53">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-18619</v>
+      </c>
+      <c r="B54">
+        <v>28551</v>
+      </c>
+      <c r="C54">
+        <v>-1462</v>
+      </c>
+      <c r="D54">
+        <v>2373</v>
+      </c>
+      <c r="E54">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-18830</v>
+      </c>
+      <c r="B55">
+        <v>28904</v>
+      </c>
+      <c r="C55">
+        <v>-1328</v>
+      </c>
+      <c r="D55">
+        <v>2189</v>
+      </c>
+      <c r="E55">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-18830</v>
+      </c>
+      <c r="B56">
+        <v>28904</v>
+      </c>
+      <c r="C56">
+        <v>-1328</v>
+      </c>
+      <c r="D56">
+        <v>2189</v>
+      </c>
+      <c r="E56">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-19015</v>
+      </c>
+      <c r="B57">
+        <v>29212</v>
+      </c>
+      <c r="C57">
+        <v>-1197</v>
+      </c>
+      <c r="D57">
+        <v>1977</v>
+      </c>
+      <c r="E57">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-19015</v>
+      </c>
+      <c r="B58">
+        <v>29212</v>
+      </c>
+      <c r="C58">
+        <v>-1197</v>
+      </c>
+      <c r="D58">
+        <v>1977</v>
+      </c>
+      <c r="E58">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-19178</v>
+      </c>
+      <c r="B59">
+        <v>29468</v>
+      </c>
+      <c r="C59">
+        <v>-1075</v>
+      </c>
+      <c r="D59">
+        <v>1756</v>
+      </c>
+      <c r="E59">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-19178</v>
+      </c>
+      <c r="B60">
+        <v>29468</v>
+      </c>
+      <c r="C60">
+        <v>-1075</v>
+      </c>
+      <c r="D60">
+        <v>1756</v>
+      </c>
+      <c r="E60">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-19319</v>
+      </c>
+      <c r="B61">
+        <v>29676</v>
+      </c>
+      <c r="C61">
+        <v>-946</v>
+      </c>
+      <c r="D61">
+        <v>1528</v>
+      </c>
+      <c r="E61">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-19319</v>
+      </c>
+      <c r="B62">
+        <v>29676</v>
+      </c>
+      <c r="C62">
+        <v>-946</v>
+      </c>
+      <c r="D62">
+        <v>1528</v>
+      </c>
+      <c r="E62">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-19434</v>
+      </c>
+      <c r="B63">
+        <v>29847</v>
+      </c>
+      <c r="C63">
+        <v>-819</v>
+      </c>
+      <c r="D63">
+        <v>1302</v>
+      </c>
+      <c r="E63">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-19434</v>
+      </c>
+      <c r="B64">
+        <v>29847</v>
+      </c>
+      <c r="C64">
+        <v>-819</v>
+      </c>
+      <c r="D64">
+        <v>1302</v>
+      </c>
+      <c r="E64">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-19531</v>
+      </c>
+      <c r="B65">
+        <v>29984</v>
+      </c>
+      <c r="C65">
+        <v>-703</v>
+      </c>
+      <c r="D65">
+        <v>1085</v>
+      </c>
+      <c r="E65">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-19531</v>
+      </c>
+      <c r="B66">
+        <v>29984</v>
+      </c>
+      <c r="C66">
+        <v>-703</v>
+      </c>
+      <c r="D66">
+        <v>1085</v>
+      </c>
+      <c r="E66">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-19611</v>
+      </c>
+      <c r="B67">
+        <v>30079</v>
+      </c>
+      <c r="C67">
+        <v>-598</v>
+      </c>
+      <c r="D67">
+        <v>872</v>
+      </c>
+      <c r="E67">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-19611</v>
+      </c>
+      <c r="B68">
+        <v>30079</v>
+      </c>
+      <c r="C68">
+        <v>-598</v>
+      </c>
+      <c r="D68">
+        <v>872</v>
+      </c>
+      <c r="E68">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-19681</v>
+      </c>
+      <c r="B69">
+        <v>30145</v>
+      </c>
+      <c r="C69">
+        <v>-505</v>
+      </c>
+      <c r="D69">
+        <v>681</v>
+      </c>
+      <c r="E69">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-19681</v>
+      </c>
+      <c r="B70">
+        <v>30145</v>
+      </c>
+      <c r="C70">
+        <v>-505</v>
+      </c>
+      <c r="D70">
+        <v>681</v>
+      </c>
+      <c r="E70">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-19747</v>
+      </c>
+      <c r="B71">
+        <v>30147</v>
+      </c>
+      <c r="C71">
+        <v>-430</v>
+      </c>
+      <c r="D71">
+        <v>475</v>
+      </c>
+      <c r="E71">
+        <v>0.47017103399999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-19747</v>
+      </c>
+      <c r="B72">
+        <v>30147</v>
+      </c>
+      <c r="C72">
+        <v>-430</v>
+      </c>
+      <c r="D72">
+        <v>475</v>
+      </c>
+      <c r="E72">
+        <v>0.44475519699999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-19810</v>
+      </c>
+      <c r="B73">
+        <v>30115</v>
+      </c>
+      <c r="C73">
+        <v>-376</v>
+      </c>
+      <c r="D73">
+        <v>272</v>
+      </c>
+      <c r="E73">
+        <v>0.44475519699999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-19810</v>
+      </c>
+      <c r="B74">
+        <v>30115</v>
+      </c>
+      <c r="C74">
+        <v>-376</v>
+      </c>
+      <c r="D74">
+        <v>272</v>
+      </c>
+      <c r="E74">
+        <v>0.44475519699999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-19859</v>
+      </c>
+      <c r="B75">
+        <v>30098</v>
+      </c>
+      <c r="C75">
+        <v>-329</v>
+      </c>
+      <c r="D75">
+        <v>117</v>
+      </c>
+      <c r="E75">
+        <v>0.44475519699999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-19859</v>
+      </c>
+      <c r="B76">
+        <v>30098</v>
+      </c>
+      <c r="C76">
+        <v>-329</v>
+      </c>
+      <c r="D76">
+        <v>117</v>
+      </c>
+      <c r="E76">
+        <v>0.44475519699999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-19922</v>
+      </c>
+      <c r="B77">
+        <v>30088</v>
+      </c>
+      <c r="C77">
+        <v>-311</v>
+      </c>
+      <c r="D77">
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>0.44475519699999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B7D99D-F1DF-47C3-91B6-FDAE4C5C3FE7}">
+  <dimension ref="A1:E144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-5858</v>
+      </c>
+      <c r="B2">
+        <v>12118</v>
+      </c>
+      <c r="C2">
+        <v>-582</v>
+      </c>
+      <c r="D2">
+        <v>1107</v>
+      </c>
+      <c r="E2">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-5858</v>
+      </c>
+      <c r="B3">
+        <v>12118</v>
+      </c>
+      <c r="C3">
+        <v>-582</v>
+      </c>
+      <c r="D3">
+        <v>1107</v>
+      </c>
+      <c r="E3">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-6361</v>
+      </c>
+      <c r="B4">
+        <v>12377</v>
+      </c>
+      <c r="C4">
+        <v>-1081</v>
+      </c>
+      <c r="D4">
+        <v>1199</v>
+      </c>
+      <c r="E4">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-6361</v>
+      </c>
+      <c r="B5">
+        <v>12377</v>
+      </c>
+      <c r="C5">
+        <v>-1081</v>
+      </c>
+      <c r="D5">
+        <v>1199</v>
+      </c>
+      <c r="E5">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-6893</v>
+      </c>
+      <c r="B6">
+        <v>12691</v>
+      </c>
+      <c r="C6">
+        <v>-1608</v>
+      </c>
+      <c r="D6">
+        <v>1321</v>
+      </c>
+      <c r="E6">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-6893</v>
+      </c>
+      <c r="B7">
+        <v>12691</v>
+      </c>
+      <c r="C7">
+        <v>-1608</v>
+      </c>
+      <c r="D7">
+        <v>1321</v>
+      </c>
+      <c r="E7">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-7474</v>
+      </c>
+      <c r="B8">
+        <v>13097</v>
+      </c>
+      <c r="C8">
+        <v>-2175</v>
+      </c>
+      <c r="D8">
+        <v>1514</v>
+      </c>
+      <c r="E8">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-7474</v>
+      </c>
+      <c r="B9">
+        <v>13097</v>
+      </c>
+      <c r="C9">
+        <v>-2175</v>
+      </c>
+      <c r="D9">
+        <v>1514</v>
+      </c>
+      <c r="E9">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-8135</v>
+      </c>
+      <c r="B10">
+        <v>13577</v>
+      </c>
+      <c r="C10">
+        <v>-2672</v>
+      </c>
+      <c r="D10">
+        <v>1726</v>
+      </c>
+      <c r="E10">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-8135</v>
+      </c>
+      <c r="B11">
+        <v>13577</v>
+      </c>
+      <c r="C11">
+        <v>-2672</v>
+      </c>
+      <c r="D11">
+        <v>1726</v>
+      </c>
+      <c r="E11">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-8876</v>
+      </c>
+      <c r="B12">
+        <v>14103</v>
+      </c>
+      <c r="C12">
+        <v>-3015</v>
+      </c>
+      <c r="D12">
+        <v>1984</v>
+      </c>
+      <c r="E12">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-8876</v>
+      </c>
+      <c r="B13">
+        <v>14103</v>
+      </c>
+      <c r="C13">
+        <v>-3015</v>
+      </c>
+      <c r="D13">
+        <v>1984</v>
+      </c>
+      <c r="E13">
+        <v>0.54226744199999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-9714</v>
+      </c>
+      <c r="B14">
+        <v>15251</v>
+      </c>
+      <c r="C14">
+        <v>-3351</v>
+      </c>
+      <c r="D14">
+        <v>2559</v>
+      </c>
+      <c r="E14">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-9714</v>
+      </c>
+      <c r="B15">
+        <v>15251</v>
+      </c>
+      <c r="C15">
+        <v>-3351</v>
+      </c>
+      <c r="D15">
+        <v>2559</v>
+      </c>
+      <c r="E15">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-9714</v>
+      </c>
+      <c r="B16">
+        <v>15251</v>
+      </c>
+      <c r="C16">
+        <v>-3351</v>
+      </c>
+      <c r="D16">
+        <v>2559</v>
+      </c>
+      <c r="E16">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-11614</v>
+      </c>
+      <c r="B17">
+        <v>15896</v>
+      </c>
+      <c r="C17">
+        <v>-4137</v>
+      </c>
+      <c r="D17">
+        <v>2798</v>
+      </c>
+      <c r="E17">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-11614</v>
+      </c>
+      <c r="B18">
+        <v>15896</v>
+      </c>
+      <c r="C18">
+        <v>-4137</v>
+      </c>
+      <c r="D18">
+        <v>2798</v>
+      </c>
+      <c r="E18">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-12684</v>
+      </c>
+      <c r="B19">
+        <v>16598</v>
+      </c>
+      <c r="C19">
+        <v>-4546</v>
+      </c>
+      <c r="D19">
+        <v>3019</v>
+      </c>
+      <c r="E19">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-12684</v>
+      </c>
+      <c r="B20">
+        <v>16598</v>
+      </c>
+      <c r="C20">
+        <v>-4546</v>
+      </c>
+      <c r="D20">
+        <v>3019</v>
+      </c>
+      <c r="E20">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-13820</v>
+      </c>
+      <c r="B21">
+        <v>17348</v>
+      </c>
+      <c r="C21">
+        <v>-4943</v>
+      </c>
+      <c r="D21">
+        <v>3244</v>
+      </c>
+      <c r="E21">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-13820</v>
+      </c>
+      <c r="B22">
+        <v>17348</v>
+      </c>
+      <c r="C22">
+        <v>-4943</v>
+      </c>
+      <c r="D22">
+        <v>3244</v>
+      </c>
+      <c r="E22">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-14978</v>
+      </c>
+      <c r="B23">
+        <v>18162</v>
+      </c>
+      <c r="C23">
+        <v>-5261</v>
+      </c>
+      <c r="D23">
+        <v>3501</v>
+      </c>
+      <c r="E23">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-14978</v>
+      </c>
+      <c r="B24">
+        <v>18162</v>
+      </c>
+      <c r="C24">
+        <v>-5261</v>
+      </c>
+      <c r="D24">
+        <v>3501</v>
+      </c>
+      <c r="E24">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-14978</v>
+      </c>
+      <c r="B25">
+        <v>18162</v>
+      </c>
+      <c r="C25">
+        <v>-5261</v>
+      </c>
+      <c r="D25">
+        <v>3501</v>
+      </c>
+      <c r="E25">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-16192</v>
+      </c>
+      <c r="B26">
+        <v>19025</v>
+      </c>
+      <c r="C26">
+        <v>-5557</v>
+      </c>
+      <c r="D26">
+        <v>3773</v>
+      </c>
+      <c r="E26">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-16192</v>
+      </c>
+      <c r="B27">
+        <v>19025</v>
+      </c>
+      <c r="C27">
+        <v>-5557</v>
+      </c>
+      <c r="D27">
+        <v>3773</v>
+      </c>
+      <c r="E27">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-17505</v>
+      </c>
+      <c r="B28">
+        <v>19911</v>
+      </c>
+      <c r="C28">
+        <v>-5892</v>
+      </c>
+      <c r="D28">
+        <v>4014</v>
+      </c>
+      <c r="E28">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-17505</v>
+      </c>
+      <c r="B29">
+        <v>19911</v>
+      </c>
+      <c r="C29">
+        <v>-5892</v>
+      </c>
+      <c r="D29">
+        <v>4014</v>
+      </c>
+      <c r="E29">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-18881</v>
+      </c>
+      <c r="B30">
+        <v>20889</v>
+      </c>
+      <c r="C30">
+        <v>-6195</v>
+      </c>
+      <c r="D30">
+        <v>4288</v>
+      </c>
+      <c r="E30">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-18881</v>
+      </c>
+      <c r="B31">
+        <v>20889</v>
+      </c>
+      <c r="C31">
+        <v>-6195</v>
+      </c>
+      <c r="D31">
+        <v>4288</v>
+      </c>
+      <c r="E31">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-20279</v>
+      </c>
+      <c r="B32">
+        <v>21956</v>
+      </c>
+      <c r="C32">
+        <v>-6459</v>
+      </c>
+      <c r="D32">
+        <v>4606</v>
+      </c>
+      <c r="E32">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-20279</v>
+      </c>
+      <c r="B33">
+        <v>21956</v>
+      </c>
+      <c r="C33">
+        <v>-6459</v>
+      </c>
+      <c r="D33">
+        <v>4606</v>
+      </c>
+      <c r="E33">
+        <v>0.53161883399999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-21726</v>
+      </c>
+      <c r="B34">
+        <v>23074</v>
+      </c>
+      <c r="C34">
+        <v>-6747</v>
+      </c>
+      <c r="D34">
+        <v>4910</v>
+      </c>
+      <c r="E34">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-21726</v>
+      </c>
+      <c r="B35">
+        <v>23074</v>
+      </c>
+      <c r="C35">
+        <v>-6747</v>
+      </c>
+      <c r="D35">
+        <v>4910</v>
+      </c>
+      <c r="E35">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-23254</v>
+      </c>
+      <c r="B36">
+        <v>24253</v>
+      </c>
+      <c r="C36">
+        <v>-7062</v>
+      </c>
+      <c r="D36">
+        <v>5226</v>
+      </c>
+      <c r="E36">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-23254</v>
+      </c>
+      <c r="B37">
+        <v>24253</v>
+      </c>
+      <c r="C37">
+        <v>-7062</v>
+      </c>
+      <c r="D37">
+        <v>5226</v>
+      </c>
+      <c r="E37">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-24804</v>
+      </c>
+      <c r="B38">
+        <v>25512</v>
+      </c>
+      <c r="C38">
+        <v>-7293</v>
+      </c>
+      <c r="D38">
+        <v>5595</v>
+      </c>
+      <c r="E38">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-24804</v>
+      </c>
+      <c r="B39">
+        <v>25512</v>
+      </c>
+      <c r="C39">
+        <v>-7293</v>
+      </c>
+      <c r="D39">
+        <v>5595</v>
+      </c>
+      <c r="E39">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-26378</v>
+      </c>
+      <c r="B40">
+        <v>26807</v>
+      </c>
+      <c r="C40">
+        <v>-7500</v>
+      </c>
+      <c r="D40">
+        <v>5918</v>
+      </c>
+      <c r="E40">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-26378</v>
+      </c>
+      <c r="B41">
+        <v>26807</v>
+      </c>
+      <c r="C41">
+        <v>-7500</v>
+      </c>
+      <c r="D41">
+        <v>5918</v>
+      </c>
+      <c r="E41">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-27973</v>
+      </c>
+      <c r="B42">
+        <v>28174</v>
+      </c>
+      <c r="C42">
+        <v>-7690</v>
+      </c>
+      <c r="D42">
+        <v>6219</v>
+      </c>
+      <c r="E42">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-27973</v>
+      </c>
+      <c r="B43">
+        <v>28174</v>
+      </c>
+      <c r="C43">
+        <v>-7690</v>
+      </c>
+      <c r="D43">
+        <v>6219</v>
+      </c>
+      <c r="E43">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-29568</v>
+      </c>
+      <c r="B44">
+        <v>30998</v>
+      </c>
+      <c r="C44">
+        <v>-7845</v>
+      </c>
+      <c r="D44">
+        <v>6745</v>
+      </c>
+      <c r="E44">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-29568</v>
+      </c>
+      <c r="B45">
+        <v>30998</v>
+      </c>
+      <c r="C45">
+        <v>-7845</v>
+      </c>
+      <c r="D45">
+        <v>6745</v>
+      </c>
+      <c r="E45">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-29568</v>
+      </c>
+      <c r="B46">
+        <v>30998</v>
+      </c>
+      <c r="C46">
+        <v>-7845</v>
+      </c>
+      <c r="D46">
+        <v>6745</v>
+      </c>
+      <c r="E46">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-32853</v>
+      </c>
+      <c r="B47">
+        <v>32459</v>
+      </c>
+      <c r="C47">
+        <v>-8051</v>
+      </c>
+      <c r="D47">
+        <v>6950</v>
+      </c>
+      <c r="E47">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-32853</v>
+      </c>
+      <c r="B48">
+        <v>32459</v>
+      </c>
+      <c r="C48">
+        <v>-8051</v>
+      </c>
+      <c r="D48">
+        <v>6950</v>
+      </c>
+      <c r="E48">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-34472</v>
+      </c>
+      <c r="B49">
+        <v>33967</v>
+      </c>
+      <c r="C49">
+        <v>-8090</v>
+      </c>
+      <c r="D49">
+        <v>7156</v>
+      </c>
+      <c r="E49">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-34472</v>
+      </c>
+      <c r="B50">
+        <v>33967</v>
+      </c>
+      <c r="C50">
+        <v>-8090</v>
+      </c>
+      <c r="D50">
+        <v>7156</v>
+      </c>
+      <c r="E50">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-36044</v>
+      </c>
+      <c r="B51">
+        <v>35497</v>
+      </c>
+      <c r="C51">
+        <v>-8072</v>
+      </c>
+      <c r="D51">
+        <v>7316</v>
+      </c>
+      <c r="E51">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-36044</v>
+      </c>
+      <c r="B52">
+        <v>35497</v>
+      </c>
+      <c r="C52">
+        <v>-8072</v>
+      </c>
+      <c r="D52">
+        <v>7316</v>
+      </c>
+      <c r="E52">
+        <v>0.490609884</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-37625</v>
+      </c>
+      <c r="B53">
+        <v>37042</v>
+      </c>
+      <c r="C53">
+        <v>-8052</v>
+      </c>
+      <c r="D53">
+        <v>7476</v>
+      </c>
+      <c r="E53">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-37625</v>
+      </c>
+      <c r="B54">
+        <v>37042</v>
+      </c>
+      <c r="C54">
+        <v>-8052</v>
+      </c>
+      <c r="D54">
+        <v>7476</v>
+      </c>
+      <c r="E54">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-39211</v>
+      </c>
+      <c r="B55">
+        <v>38571</v>
+      </c>
+      <c r="C55">
+        <v>-8013</v>
+      </c>
+      <c r="D55">
+        <v>7574</v>
+      </c>
+      <c r="E55">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-39211</v>
+      </c>
+      <c r="B56">
+        <v>38571</v>
+      </c>
+      <c r="C56">
+        <v>-8013</v>
+      </c>
+      <c r="D56">
+        <v>7574</v>
+      </c>
+      <c r="E56">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-40823</v>
+      </c>
+      <c r="B57">
+        <v>40092</v>
+      </c>
+      <c r="C57">
+        <v>-7968</v>
+      </c>
+      <c r="D57">
+        <v>7631</v>
+      </c>
+      <c r="E57">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-40823</v>
+      </c>
+      <c r="B58">
+        <v>40092</v>
+      </c>
+      <c r="C58">
+        <v>-7968</v>
+      </c>
+      <c r="D58">
+        <v>7631</v>
+      </c>
+      <c r="E58">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-42427</v>
+      </c>
+      <c r="B59">
+        <v>41587</v>
+      </c>
+      <c r="C59">
+        <v>-7955</v>
+      </c>
+      <c r="D59">
+        <v>7623</v>
+      </c>
+      <c r="E59">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-44001</v>
+      </c>
+      <c r="B60">
+        <v>43079</v>
+      </c>
+      <c r="C60">
+        <v>-7957</v>
+      </c>
+      <c r="D60">
+        <v>7586</v>
+      </c>
+      <c r="E60">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-44001</v>
+      </c>
+      <c r="B61">
+        <v>43079</v>
+      </c>
+      <c r="C61">
+        <v>-7957</v>
+      </c>
+      <c r="D61">
+        <v>7586</v>
+      </c>
+      <c r="E61">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-44001</v>
+      </c>
+      <c r="B62">
+        <v>43079</v>
+      </c>
+      <c r="C62">
+        <v>-7957</v>
+      </c>
+      <c r="D62">
+        <v>7586</v>
+      </c>
+      <c r="E62">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-44001</v>
+      </c>
+      <c r="B63">
+        <v>43079</v>
+      </c>
+      <c r="C63">
+        <v>-7957</v>
+      </c>
+      <c r="D63">
+        <v>7586</v>
+      </c>
+      <c r="E63">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-45525</v>
+      </c>
+      <c r="B64">
+        <v>44556</v>
+      </c>
+      <c r="C64">
+        <v>-7899</v>
+      </c>
+      <c r="D64">
+        <v>7517</v>
+      </c>
+      <c r="E64">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-45525</v>
+      </c>
+      <c r="B65">
+        <v>44556</v>
+      </c>
+      <c r="C65">
+        <v>-7899</v>
+      </c>
+      <c r="D65">
+        <v>7517</v>
+      </c>
+      <c r="E65">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-47030</v>
+      </c>
+      <c r="B66">
+        <v>46045</v>
+      </c>
+      <c r="C66">
+        <v>-7818</v>
+      </c>
+      <c r="D66">
+        <v>7469</v>
+      </c>
+      <c r="E66">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-47030</v>
+      </c>
+      <c r="B67">
+        <v>46045</v>
+      </c>
+      <c r="C67">
+        <v>-7818</v>
+      </c>
+      <c r="D67">
+        <v>7469</v>
+      </c>
+      <c r="E67">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-48504</v>
+      </c>
+      <c r="B68">
+        <v>47507</v>
+      </c>
+      <c r="C68">
+        <v>-7684</v>
+      </c>
+      <c r="D68">
+        <v>7414</v>
+      </c>
+      <c r="E68">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-48504</v>
+      </c>
+      <c r="B69">
+        <v>47507</v>
+      </c>
+      <c r="C69">
+        <v>-7684</v>
+      </c>
+      <c r="D69">
+        <v>7414</v>
+      </c>
+      <c r="E69">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-49946</v>
+      </c>
+      <c r="B70">
+        <v>48960</v>
+      </c>
+      <c r="C70">
+        <v>-7521</v>
+      </c>
+      <c r="D70">
+        <v>7371</v>
+      </c>
+      <c r="E70">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-49946</v>
+      </c>
+      <c r="B71">
+        <v>48960</v>
+      </c>
+      <c r="C71">
+        <v>-7521</v>
+      </c>
+      <c r="D71">
+        <v>7371</v>
+      </c>
+      <c r="E71">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-51325</v>
+      </c>
+      <c r="B72">
+        <v>50407</v>
+      </c>
+      <c r="C72">
+        <v>-7324</v>
+      </c>
+      <c r="D72">
+        <v>7325</v>
+      </c>
+      <c r="E72">
+        <v>0.42629492299999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-51325</v>
+      </c>
+      <c r="B73">
+        <v>50407</v>
+      </c>
+      <c r="C73">
+        <v>-7324</v>
+      </c>
+      <c r="D73">
+        <v>7325</v>
+      </c>
+      <c r="E73">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-52643</v>
+      </c>
+      <c r="B74">
+        <v>51833</v>
+      </c>
+      <c r="C74">
+        <v>-7120</v>
+      </c>
+      <c r="D74">
+        <v>7272</v>
+      </c>
+      <c r="E74">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-52643</v>
+      </c>
+      <c r="B75">
+        <v>51833</v>
+      </c>
+      <c r="C75">
+        <v>-7120</v>
+      </c>
+      <c r="D75">
+        <v>7272</v>
+      </c>
+      <c r="E75">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-53899</v>
+      </c>
+      <c r="B76">
+        <v>53216</v>
+      </c>
+      <c r="C76">
+        <v>-6871</v>
+      </c>
+      <c r="D76">
+        <v>7175</v>
+      </c>
+      <c r="E76">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-53899</v>
+      </c>
+      <c r="B77">
+        <v>53216</v>
+      </c>
+      <c r="C77">
+        <v>-6871</v>
+      </c>
+      <c r="D77">
+        <v>7175</v>
+      </c>
+      <c r="E77">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-55082</v>
+      </c>
+      <c r="B78">
+        <v>54547</v>
+      </c>
+      <c r="C78">
+        <v>-6578</v>
+      </c>
+      <c r="D78">
+        <v>7041</v>
+      </c>
+      <c r="E78">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-55082</v>
+      </c>
+      <c r="B79">
+        <v>54547</v>
+      </c>
+      <c r="C79">
+        <v>-6578</v>
+      </c>
+      <c r="D79">
+        <v>7041</v>
+      </c>
+      <c r="E79">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-56188</v>
+      </c>
+      <c r="B80">
+        <v>55820</v>
+      </c>
+      <c r="C80">
+        <v>-6243</v>
+      </c>
+      <c r="D80">
+        <v>6863</v>
+      </c>
+      <c r="E80">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-56188</v>
+      </c>
+      <c r="B81">
+        <v>55820</v>
+      </c>
+      <c r="C81">
+        <v>-6243</v>
+      </c>
+      <c r="D81">
+        <v>6863</v>
+      </c>
+      <c r="E81">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-57213</v>
+      </c>
+      <c r="B82">
+        <v>57029</v>
+      </c>
+      <c r="C82">
+        <v>-5891</v>
+      </c>
+      <c r="D82">
+        <v>6627</v>
+      </c>
+      <c r="E82">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-57213</v>
+      </c>
+      <c r="B83">
+        <v>57029</v>
+      </c>
+      <c r="C83">
+        <v>-5891</v>
+      </c>
+      <c r="D83">
+        <v>6627</v>
+      </c>
+      <c r="E83">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-58166</v>
+      </c>
+      <c r="B84">
+        <v>58185</v>
+      </c>
+      <c r="C84">
+        <v>-5527</v>
+      </c>
+      <c r="D84">
+        <v>6357</v>
+      </c>
+      <c r="E84">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-58166</v>
+      </c>
+      <c r="B85">
+        <v>58185</v>
+      </c>
+      <c r="C85">
+        <v>-5527</v>
+      </c>
+      <c r="D85">
+        <v>6357</v>
+      </c>
+      <c r="E85">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-59031</v>
+      </c>
+      <c r="B86">
+        <v>58185</v>
+      </c>
+      <c r="C86">
+        <v>-5135</v>
+      </c>
+      <c r="D86">
+        <v>6357</v>
+      </c>
+      <c r="E86">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-59031</v>
+      </c>
+      <c r="B87">
+        <v>60324</v>
+      </c>
+      <c r="C87">
+        <v>-5135</v>
+      </c>
+      <c r="D87">
+        <v>5780</v>
+      </c>
+      <c r="E87">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>-59752</v>
+      </c>
+      <c r="B88">
+        <v>60324</v>
+      </c>
+      <c r="C88">
+        <v>-4674</v>
+      </c>
+      <c r="D88">
+        <v>5780</v>
+      </c>
+      <c r="E88">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-59752</v>
+      </c>
+      <c r="B89">
+        <v>61321</v>
+      </c>
+      <c r="C89">
+        <v>-4674</v>
+      </c>
+      <c r="D89">
+        <v>5501</v>
+      </c>
+      <c r="E89">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-60133</v>
+      </c>
+      <c r="B90">
+        <v>61321</v>
+      </c>
+      <c r="C90">
+        <v>-3950</v>
+      </c>
+      <c r="D90">
+        <v>5501</v>
+      </c>
+      <c r="E90">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-60133</v>
+      </c>
+      <c r="B91">
+        <v>62275</v>
+      </c>
+      <c r="C91">
+        <v>-3950</v>
+      </c>
+      <c r="D91">
+        <v>5248</v>
+      </c>
+      <c r="E91">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-60195</v>
+      </c>
+      <c r="B92">
+        <v>62275</v>
+      </c>
+      <c r="C92">
+        <v>-2989</v>
+      </c>
+      <c r="D92">
+        <v>5248</v>
+      </c>
+      <c r="E92">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-60195</v>
+      </c>
+      <c r="B93">
+        <v>63177</v>
+      </c>
+      <c r="C93">
+        <v>-2989</v>
+      </c>
+      <c r="D93">
+        <v>4992</v>
+      </c>
+      <c r="E93">
+        <v>0.34134239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-60137</v>
+      </c>
+      <c r="B94">
+        <v>63177</v>
+      </c>
+      <c r="C94">
+        <v>-1977</v>
+      </c>
+      <c r="D94">
+        <v>4992</v>
+      </c>
+      <c r="E94">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>-60137</v>
+      </c>
+      <c r="B95">
+        <v>64025</v>
+      </c>
+      <c r="C95">
+        <v>-1977</v>
+      </c>
+      <c r="D95">
+        <v>4746</v>
+      </c>
+      <c r="E95">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-60061</v>
+      </c>
+      <c r="B96">
+        <v>64025</v>
+      </c>
+      <c r="C96">
+        <v>-1036</v>
+      </c>
+      <c r="D96">
+        <v>4746</v>
+      </c>
+      <c r="E96">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-60061</v>
+      </c>
+      <c r="B97">
+        <v>64025</v>
+      </c>
+      <c r="C97">
+        <v>-1036</v>
+      </c>
+      <c r="D97">
+        <v>4746</v>
+      </c>
+      <c r="E97">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-59920</v>
+      </c>
+      <c r="B98">
+        <v>64812</v>
+      </c>
+      <c r="C98">
+        <v>-174</v>
+      </c>
+      <c r="D98">
+        <v>4490</v>
+      </c>
+      <c r="E98">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-59920</v>
+      </c>
+      <c r="B99">
+        <v>64812</v>
+      </c>
+      <c r="C99">
+        <v>-174</v>
+      </c>
+      <c r="D99">
+        <v>4490</v>
+      </c>
+      <c r="E99">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-59659</v>
+      </c>
+      <c r="B100">
+        <v>65540</v>
+      </c>
+      <c r="C100">
+        <v>470</v>
+      </c>
+      <c r="D100">
+        <v>4221</v>
+      </c>
+      <c r="E100">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-59659</v>
+      </c>
+      <c r="B101">
+        <v>65540</v>
+      </c>
+      <c r="C101">
+        <v>470</v>
+      </c>
+      <c r="D101">
+        <v>4221</v>
+      </c>
+      <c r="E101">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-59257</v>
+      </c>
+      <c r="B102">
+        <v>66211</v>
+      </c>
+      <c r="C102">
+        <v>937</v>
+      </c>
+      <c r="D102">
+        <v>3937</v>
+      </c>
+      <c r="E102">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>-59257</v>
+      </c>
+      <c r="B103">
+        <v>66211</v>
+      </c>
+      <c r="C103">
+        <v>937</v>
+      </c>
+      <c r="D103">
+        <v>3937</v>
+      </c>
+      <c r="E103">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>-58758</v>
+      </c>
+      <c r="B104">
+        <v>66824</v>
+      </c>
+      <c r="C104">
+        <v>1375</v>
+      </c>
+      <c r="D104">
+        <v>3650</v>
+      </c>
+      <c r="E104">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>-58758</v>
+      </c>
+      <c r="B105">
+        <v>66824</v>
+      </c>
+      <c r="C105">
+        <v>1375</v>
+      </c>
+      <c r="D105">
+        <v>3650</v>
+      </c>
+      <c r="E105">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>-58758</v>
+      </c>
+      <c r="B106">
+        <v>67365</v>
+      </c>
+      <c r="C106">
+        <v>1375</v>
+      </c>
+      <c r="D106">
+        <v>3341</v>
+      </c>
+      <c r="E106">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>-57738</v>
+      </c>
+      <c r="B107">
+        <v>67365</v>
+      </c>
+      <c r="C107">
+        <v>2180</v>
+      </c>
+      <c r="D107">
+        <v>3341</v>
+      </c>
+      <c r="E107">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>-57738</v>
+      </c>
+      <c r="B108">
+        <v>67973</v>
+      </c>
+      <c r="C108">
+        <v>2180</v>
+      </c>
+      <c r="D108">
+        <v>2437</v>
+      </c>
+      <c r="E108">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>-57207</v>
+      </c>
+      <c r="B109">
+        <v>67973</v>
+      </c>
+      <c r="C109">
+        <v>2451</v>
+      </c>
+      <c r="D109">
+        <v>2437</v>
+      </c>
+      <c r="E109">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>-57207</v>
+      </c>
+      <c r="B110">
+        <v>67973</v>
+      </c>
+      <c r="C110">
+        <v>2451</v>
+      </c>
+      <c r="D110">
+        <v>2437</v>
+      </c>
+      <c r="E110">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>-56577</v>
+      </c>
+      <c r="B111">
+        <v>68124</v>
+      </c>
+      <c r="C111">
+        <v>2678</v>
+      </c>
+      <c r="D111">
+        <v>1915</v>
+      </c>
+      <c r="E111">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>-56577</v>
+      </c>
+      <c r="B112">
+        <v>68124</v>
+      </c>
+      <c r="C112">
+        <v>2678</v>
+      </c>
+      <c r="D112">
+        <v>1915</v>
+      </c>
+      <c r="E112">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>-55882</v>
+      </c>
+      <c r="B113">
+        <v>68232</v>
+      </c>
+      <c r="C113">
+        <v>2876</v>
+      </c>
+      <c r="D113">
+        <v>1411</v>
+      </c>
+      <c r="E113">
+        <v>0.23206001500000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>-55882</v>
+      </c>
+      <c r="B114">
+        <v>68232</v>
+      </c>
+      <c r="C114">
+        <v>2876</v>
+      </c>
+      <c r="D114">
+        <v>1411</v>
+      </c>
+      <c r="E114">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-55189</v>
+      </c>
+      <c r="B115">
+        <v>68300</v>
+      </c>
+      <c r="C115">
+        <v>3057</v>
+      </c>
+      <c r="D115">
+        <v>938</v>
+      </c>
+      <c r="E115">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>-55189</v>
+      </c>
+      <c r="B116">
+        <v>68300</v>
+      </c>
+      <c r="C116">
+        <v>3057</v>
+      </c>
+      <c r="D116">
+        <v>938</v>
+      </c>
+      <c r="E116">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>-54540</v>
+      </c>
+      <c r="B117">
+        <v>68336</v>
+      </c>
+      <c r="C117">
+        <v>3198</v>
+      </c>
+      <c r="D117">
+        <v>587</v>
+      </c>
+      <c r="E117">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>-54540</v>
+      </c>
+      <c r="B118">
+        <v>68336</v>
+      </c>
+      <c r="C118">
+        <v>3198</v>
+      </c>
+      <c r="D118">
+        <v>587</v>
+      </c>
+      <c r="E118">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>-53941</v>
+      </c>
+      <c r="B119">
+        <v>68352</v>
+      </c>
+      <c r="C119">
+        <v>3266</v>
+      </c>
+      <c r="D119">
+        <v>380</v>
+      </c>
+      <c r="E119">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>-53941</v>
+      </c>
+      <c r="B120">
+        <v>68352</v>
+      </c>
+      <c r="C120">
+        <v>3266</v>
+      </c>
+      <c r="D120">
+        <v>380</v>
+      </c>
+      <c r="E120">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-53352</v>
+      </c>
+      <c r="B121">
+        <v>68337</v>
+      </c>
+      <c r="C121">
+        <v>3226</v>
+      </c>
+      <c r="D121">
+        <v>214</v>
+      </c>
+      <c r="E121">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>-53352</v>
+      </c>
+      <c r="B122">
+        <v>68337</v>
+      </c>
+      <c r="C122">
+        <v>3226</v>
+      </c>
+      <c r="D122">
+        <v>214</v>
+      </c>
+      <c r="E122">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>-52764</v>
+      </c>
+      <c r="B123">
+        <v>68326</v>
+      </c>
+      <c r="C123">
+        <v>3118</v>
+      </c>
+      <c r="D123">
+        <v>94</v>
+      </c>
+      <c r="E123">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-52764</v>
+      </c>
+      <c r="B124">
+        <v>68326</v>
+      </c>
+      <c r="C124">
+        <v>3118</v>
+      </c>
+      <c r="D124">
+        <v>94</v>
+      </c>
+      <c r="E124">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>-52209</v>
+      </c>
+      <c r="B125">
+        <v>68288</v>
+      </c>
+      <c r="C125">
+        <v>2982</v>
+      </c>
+      <c r="D125">
+        <v>-11</v>
+      </c>
+      <c r="E125">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>-52209</v>
+      </c>
+      <c r="B126">
+        <v>68288</v>
+      </c>
+      <c r="C126">
+        <v>2982</v>
+      </c>
+      <c r="D126">
+        <v>-11</v>
+      </c>
+      <c r="E126">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>-51695</v>
+      </c>
+      <c r="B127">
+        <v>68219</v>
+      </c>
+      <c r="C127">
+        <v>2845</v>
+      </c>
+      <c r="D127">
+        <v>-117</v>
+      </c>
+      <c r="E127">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>-51695</v>
+      </c>
+      <c r="B128">
+        <v>68219</v>
+      </c>
+      <c r="C128">
+        <v>2845</v>
+      </c>
+      <c r="D128">
+        <v>-117</v>
+      </c>
+      <c r="E128">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>-51235</v>
+      </c>
+      <c r="B129">
+        <v>68177</v>
+      </c>
+      <c r="C129">
+        <v>2706</v>
+      </c>
+      <c r="D129">
+        <v>-175</v>
+      </c>
+      <c r="E129">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>-51235</v>
+      </c>
+      <c r="B130">
+        <v>68177</v>
+      </c>
+      <c r="C130">
+        <v>2706</v>
+      </c>
+      <c r="D130">
+        <v>-175</v>
+      </c>
+      <c r="E130">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>-50820</v>
+      </c>
+      <c r="B131">
+        <v>68165</v>
+      </c>
+      <c r="C131">
+        <v>2533</v>
+      </c>
+      <c r="D131">
+        <v>-172</v>
+      </c>
+      <c r="E131">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>-50820</v>
+      </c>
+      <c r="B132">
+        <v>68165</v>
+      </c>
+      <c r="C132">
+        <v>2533</v>
+      </c>
+      <c r="D132">
+        <v>-172</v>
+      </c>
+      <c r="E132">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>-50458</v>
+      </c>
+      <c r="B133">
+        <v>68177</v>
+      </c>
+      <c r="C133">
+        <v>2308</v>
+      </c>
+      <c r="D133">
+        <v>-149</v>
+      </c>
+      <c r="E133">
+        <v>0.12491715</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>-50458</v>
+      </c>
+      <c r="B134">
+        <v>68177</v>
+      </c>
+      <c r="C134">
+        <v>2308</v>
+      </c>
+      <c r="D134">
+        <v>-149</v>
+      </c>
+      <c r="E134">
+        <v>8.5883616999999995E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>-50158</v>
+      </c>
+      <c r="B135">
+        <v>68168</v>
+      </c>
+      <c r="C135">
+        <v>2052</v>
+      </c>
+      <c r="D135">
+        <v>-120</v>
+      </c>
+      <c r="E135">
+        <v>8.5883616999999995E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>-50158</v>
+      </c>
+      <c r="B136">
+        <v>68168</v>
+      </c>
+      <c r="C136">
+        <v>2052</v>
+      </c>
+      <c r="D136">
+        <v>-120</v>
+      </c>
+      <c r="E136">
+        <v>8.5883616999999995E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>-49901</v>
+      </c>
+      <c r="B137">
+        <v>68158</v>
+      </c>
+      <c r="C137">
+        <v>1796</v>
+      </c>
+      <c r="D137">
+        <v>-61</v>
+      </c>
+      <c r="E137">
+        <v>8.5883616999999995E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>-49901</v>
+      </c>
+      <c r="B138">
+        <v>68158</v>
+      </c>
+      <c r="C138">
+        <v>1796</v>
+      </c>
+      <c r="D138">
+        <v>-61</v>
+      </c>
+      <c r="E138">
+        <v>8.5883616999999995E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>-49686</v>
+      </c>
+      <c r="B139">
+        <v>68137</v>
+      </c>
+      <c r="C139">
+        <v>1550</v>
+      </c>
+      <c r="D139">
+        <v>-40</v>
+      </c>
+      <c r="E139">
+        <v>8.5883616999999995E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>-49686</v>
+      </c>
+      <c r="B140">
+        <v>68137</v>
+      </c>
+      <c r="C140">
+        <v>1550</v>
+      </c>
+      <c r="D140">
+        <v>-40</v>
+      </c>
+      <c r="E140">
+        <v>8.5883616999999995E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>-49509</v>
+      </c>
+      <c r="B141">
+        <v>68093</v>
+      </c>
+      <c r="C141">
+        <v>1312</v>
+      </c>
+      <c r="D141">
+        <v>-71</v>
+      </c>
+      <c r="E141">
+        <v>8.5883616999999995E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>-49509</v>
+      </c>
+      <c r="B142">
+        <v>68093</v>
+      </c>
+      <c r="C142">
+        <v>1312</v>
+      </c>
+      <c r="D142">
+        <v>-71</v>
+      </c>
+      <c r="E142">
+        <v>8.5883616999999995E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>-49371</v>
+      </c>
+      <c r="B143">
+        <v>68059</v>
+      </c>
+      <c r="C143">
+        <v>1088</v>
+      </c>
+      <c r="D143">
+        <v>-117</v>
+      </c>
+      <c r="E143">
+        <v>8.5883616999999995E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>-49371</v>
+      </c>
+      <c r="B144">
+        <v>68059</v>
+      </c>
+      <c r="C144">
+        <v>1088</v>
+      </c>
+      <c r="D144">
+        <v>-117</v>
+      </c>
+      <c r="E144">
+        <v>8.5883616999999995E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3ECCBA-6D4F-466F-804D-502AE8BB8A06}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
+++ b/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SHARED\FRC2023\ROBOT_CODE\AlexanderGCowbell\src\main\java\frc\data\mp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9135927-24F2-4E9C-BEB8-173183E60D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C75046-1F1C-4B0A-9C7B-4C7D605BD916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="690" windowWidth="28350" windowHeight="8625" tabRatio="1000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2550" yWindow="2505" windowWidth="28350" windowHeight="11595" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreConeHigh" sheetId="3" r:id="rId1"/>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V340"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T100" sqref="T100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,6 +1036,10 @@
       <c r="Q1" t="s">
         <v>3</v>
       </c>
+      <c r="R1" t="str">
+        <f>E1</f>
+        <v xml:space="preserve"> wrist_pos</v>
+      </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1088,6 +1092,10 @@
         <f>K2</f>
         <v>-260</v>
       </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R65" si="1">E2</f>
+        <v>0.55413401100000004</v>
+      </c>
       <c r="U2" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>-6292</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:K3" si="1">AVERAGE(B2:B4)</f>
+        <f t="shared" ref="I3:K3" si="2">AVERAGE(B2:B4)</f>
         <v>10341.333333333334</v>
       </c>
       <c r="J3">
@@ -1124,27 +1132,31 @@
         <v>-13.333333333333334</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-506</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:O66" si="2">H3+U$9 +($M2*U$10)</f>
-        <v>-4358.3853211009173</v>
+        <f t="shared" ref="N3:O66" si="3">H3+U$9 +($M2*U$10)</f>
+        <v>-4257.4678899082573</v>
       </c>
       <c r="O3">
-        <f t="shared" si="2"/>
-        <v>10076.920489296637</v>
+        <f t="shared" si="3"/>
+        <v>10150.314984709481</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:Q66" si="3">J3</f>
+        <f t="shared" ref="P3:Q66" si="4">J3</f>
         <v>-13.333333333333334</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-506</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
       <c r="T3" t="s">
         <v>7</v>
@@ -1177,44 +1189,48 @@
         <v>-6292.2</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:K19" si="4">AVERAGE(B2:B6)</f>
+        <f t="shared" ref="I4:K19" si="5">AVERAGE(B2:B6)</f>
         <v>10096.799999999999</v>
       </c>
       <c r="J4">
+        <f t="shared" si="5"/>
+        <v>-14.2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>-748.8</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>-4127.1357798165136</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>10004.763302752293</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="4"/>
         <v>-14.2</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <f t="shared" si="4"/>
         <v>-748.8</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="2"/>
-        <v>-4328.9706422018344</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
-        <v>9857.9743119266041</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="3"/>
-        <v>-14.2</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="3"/>
-        <v>-748.8</v>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
       <c r="T4" t="s">
         <v>8</v>
       </c>
       <c r="U4" s="2">
-        <v>-48000</v>
+        <v>-37000</v>
       </c>
       <c r="V4" s="3">
-        <v>-53000</v>
+        <v>-45000</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1234,39 +1250,43 @@
         <v>0.55413401100000004</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:K20" si="5">AVERAGE(A3:A7)</f>
+        <f t="shared" ref="H5:K20" si="6">AVERAGE(A3:A7)</f>
         <v>-6292.4</v>
       </c>
       <c r="I5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9811</v>
       </c>
       <c r="J5">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>-1032.8</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>-3996.8036697247703</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>9817.9449541284412</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="4"/>
         <v>-15</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <f t="shared" si="4"/>
         <v>-1032.8</v>
       </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="2"/>
-        <v>-4299.5559633027515</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="2"/>
-        <v>9597.7614678899081</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="3"/>
-        <v>-15</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>-1032.8</v>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
       <c r="T5" t="s">
         <v>9</v>
@@ -1297,39 +1317,43 @@
         <v>0.55413401100000004</v>
       </c>
       <c r="H6">
+        <f t="shared" si="6"/>
+        <v>-6296.4</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="5"/>
-        <v>-6296.4</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
         <v>9599.7999999999993</v>
       </c>
       <c r="J6">
+        <f t="shared" si="5"/>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>-1243</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>-3870.2715596330272</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>9705.7266055045857</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="4"/>
         <v>-19.600000000000001</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <f t="shared" si="4"/>
         <v>-1243</v>
       </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
-        <v>-4273.9412844036697</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>9412.1486238532107</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="3"/>
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>-1243</v>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
       <c r="T6" t="s">
         <v>10</v>
@@ -1360,39 +1384,43 @@
         <v>0.55413401100000004</v>
       </c>
       <c r="H7">
+        <f t="shared" si="6"/>
+        <v>-6300.4</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="5"/>
-        <v>-6300.4</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
         <v>9388.6</v>
       </c>
       <c r="J7">
+        <f t="shared" si="5"/>
+        <v>-24</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>-1453.2</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>-3743.7394495412841</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>9593.5082568807338</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="4"/>
         <v>-24</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <f t="shared" si="4"/>
         <v>-1453.2</v>
       </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
-        <v>-4248.326605504587</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>9226.5357798165132</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
-        <v>-24</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>-1453.2</v>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
       <c r="T7" t="s">
         <v>11</v>
@@ -1423,39 +1451,43 @@
         <v>0.55413401100000004</v>
       </c>
       <c r="H8">
+        <f t="shared" si="6"/>
+        <v>-6304.4</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="5"/>
-        <v>-6304.4</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
         <v>9132.6</v>
       </c>
       <c r="J8">
+        <f t="shared" si="5"/>
+        <v>-28.4</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>-1696.8</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>-3617.207339449541</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>9436.4899082568809</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="4"/>
         <v>-28.4</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <f t="shared" si="4"/>
         <v>-1696.8</v>
       </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
-        <v>-4222.7119266055042</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>8996.1229357798165</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="3"/>
-        <v>-28.4</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>-1696.8</v>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1475,39 +1507,43 @@
         <v>0.55413401100000004</v>
       </c>
       <c r="H9">
+        <f t="shared" si="6"/>
+        <v>-6362.8</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="5"/>
-        <v>-6362.8</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
         <v>8876.6</v>
       </c>
       <c r="J9">
+        <f t="shared" si="5"/>
+        <v>-81.2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>-1940.4</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>-3545.0752293577984</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>9279.4715596330279</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="4"/>
         <v>-81.2</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <f t="shared" si="4"/>
         <v>-1940.4</v>
       </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
-        <v>-4251.4972477064221</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>8765.7100917431198</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
-        <v>-81.2</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>-1940.4</v>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
       <c r="T9" t="s">
         <v>12</v>
@@ -1538,50 +1574,54 @@
         <v>0.55413401100000004</v>
       </c>
       <c r="H10">
+        <f t="shared" si="6"/>
+        <v>-6421.2</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="5"/>
-        <v>-6421.2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
         <v>8539</v>
       </c>
       <c r="J10">
+        <f t="shared" si="5"/>
+        <v>-134</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>-2223.6</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>-3472.943119266055</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>9040.8532110091746</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="4"/>
         <v>-134</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <f t="shared" si="4"/>
         <v>-2223.6</v>
       </c>
-      <c r="M10">
-        <v>9</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
-        <v>-4280.282568807339</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>8453.6972477064228</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
-        <v>-134</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>-2223.6</v>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
       <c r="T10" t="s">
         <v>13</v>
       </c>
       <c r="U10">
         <f>(U4-U6-U9)/(U7-1)</f>
-        <v>29.61467889908257</v>
+        <v>130.53211009174311</v>
       </c>
       <c r="V10">
         <f>(V4-V6-V9)/(V7-1)</f>
-        <v>25.587155963302752</v>
+        <v>98.981651376146786</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1601,39 +1641,43 @@
         <v>0.55413401100000004</v>
       </c>
       <c r="H11">
+        <f t="shared" si="6"/>
+        <v>-6597</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="5"/>
-        <v>-6597</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
         <v>8201.4</v>
       </c>
       <c r="J11">
+        <f t="shared" si="5"/>
+        <v>-303</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>-2506.8000000000002</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>-3518.211009174312</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>8802.2348623853213</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="4"/>
         <v>-303</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <f t="shared" si="4"/>
         <v>-2506.8000000000002</v>
       </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>-4426.4678899082573</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>8141.6844036697248</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="3"/>
-        <v>-303</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>-2506.8000000000002</v>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1653,39 +1697,43 @@
         <v>0.55413401100000004</v>
       </c>
       <c r="H12">
+        <f t="shared" si="6"/>
+        <v>-6772.8</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="5"/>
-        <v>-6772.8</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
         <v>7605.2</v>
       </c>
       <c r="J12">
+        <f t="shared" si="5"/>
+        <v>-472</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>-2972.6</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>-3563.4788990825691</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>8305.0165137614676</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="4"/>
         <v>-472</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <f t="shared" si="4"/>
         <v>-2972.6</v>
       </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
-        <v>-4572.6532110091748</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>7571.0715596330274</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
-        <v>-472</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>-2972.6</v>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1705,39 +1753,43 @@
         <v>0.55413401100000004</v>
       </c>
       <c r="H13">
+        <f t="shared" si="6"/>
+        <v>-7081.8</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="5"/>
-        <v>-7081.8</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
         <v>7151.2</v>
       </c>
       <c r="J13">
+        <f t="shared" si="5"/>
+        <v>-774.4</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>-3308.2</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>-3741.946788990826</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>7949.9981651376147</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="4"/>
         <v>-774.4</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <f t="shared" si="4"/>
         <v>-3308.2</v>
       </c>
-      <c r="M13">
-        <v>12</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="2"/>
-        <v>-4852.0385321100921</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="2"/>
-        <v>7142.6587155963298</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
-        <v>-774.4</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>-3308.2</v>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1757,39 +1809,43 @@
         <v>0.55413401100000004</v>
       </c>
       <c r="H14">
+        <f t="shared" si="6"/>
+        <v>-7336.2</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="5"/>
-        <v>-7336.2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
         <v>6396.2</v>
       </c>
       <c r="J14">
+        <f t="shared" si="5"/>
+        <v>-1027.8</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>-3848</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>-3865.8146788990825</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>7293.9798165137618</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="4"/>
         <v>-1027.8</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <f t="shared" si="4"/>
         <v>-3848</v>
       </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
-        <v>-5076.823853211009</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="2"/>
-        <v>6413.2458715596331</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="3"/>
-        <v>-1027.8</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>-3848</v>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1809,39 +1865,43 @@
         <v>0.55413401100000004</v>
       </c>
       <c r="H15">
+        <f t="shared" si="6"/>
+        <v>-7712.6</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="5"/>
-        <v>-7712.6</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
         <v>5836.6</v>
       </c>
       <c r="J15">
+        <f t="shared" si="5"/>
+        <v>-1403.6</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>-4234.8</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>-4111.6825688073404</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>6833.3614678899085</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="4"/>
         <v>-1403.6</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <f t="shared" si="4"/>
         <v>-4234.8</v>
       </c>
-      <c r="M15">
-        <v>14</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="2"/>
-        <v>-5423.6091743119268</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="2"/>
-        <v>5879.233027522936</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="3"/>
-        <v>-1403.6</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="3"/>
-        <v>-4234.8</v>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0.55413401100000004</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1861,42 +1921,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H16">
+        <f t="shared" si="6"/>
+        <v>-7967.8</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="5"/>
-        <v>-7967.8</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
         <v>4946.8</v>
       </c>
       <c r="J16">
+        <f t="shared" si="5"/>
+        <v>-1659.4</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>-4838</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>-4236.3504587155967</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>6042.5431192660553</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="4"/>
         <v>-1659.4</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <f t="shared" si="4"/>
         <v>-4838</v>
       </c>
-      <c r="M16">
-        <v>15</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="2"/>
-        <v>-5649.1944954128439</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="2"/>
-        <v>5015.0201834862382</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="3"/>
-        <v>-1659.4</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="3"/>
-        <v>-4838</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-8467</v>
       </c>
@@ -1913,42 +1977,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H17">
+        <f t="shared" si="6"/>
+        <v>-8334.2000000000007</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="5"/>
-        <v>-8334.2000000000007</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
         <v>4315.6000000000004</v>
       </c>
       <c r="J17">
+        <f t="shared" si="5"/>
+        <v>-2023.2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>-5258.6</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>-4472.2183486238537</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>5510.3247706422026</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="4"/>
         <v>-2023.2</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <f t="shared" si="4"/>
         <v>-5258.6</v>
       </c>
-      <c r="M17">
-        <v>16</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="2"/>
-        <v>-5985.9798165137618</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="2"/>
-        <v>4409.4073394495417</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
-        <v>-2023.2</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="3"/>
-        <v>-5258.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-8467</v>
       </c>
@@ -1965,42 +2033,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H18">
+        <f t="shared" si="6"/>
+        <v>-8567.4</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="5"/>
-        <v>-8567.4</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="4"/>
         <v>3323.2</v>
       </c>
       <c r="J18">
+        <f t="shared" si="5"/>
+        <v>-2253.6</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>-5897</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>-4574.8862385321099</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>4616.9064220183482</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="4"/>
         <v>-2253.6</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <f t="shared" si="4"/>
         <v>-5897</v>
       </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="2"/>
-        <v>-6189.5651376146789</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="2"/>
-        <v>3442.594495412844</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="3"/>
-        <v>-2253.6</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="3"/>
-        <v>-5897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-9023</v>
       </c>
@@ -2017,42 +2089,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H19">
+        <f t="shared" si="6"/>
+        <v>-8900.7999999999993</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="5"/>
-        <v>-8900.7999999999993</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="4"/>
         <v>2631.8</v>
       </c>
       <c r="J19">
+        <f t="shared" si="5"/>
+        <v>-2531.6</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>-6331.2</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>-4777.7541284403669</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>4024.4880733944956</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="4"/>
         <v>-2531.6</v>
       </c>
-      <c r="K19">
+      <c r="Q19">
         <f t="shared" si="4"/>
         <v>-6331.2</v>
       </c>
-      <c r="M19">
-        <v>18</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="2"/>
-        <v>-6493.3504587155958</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="2"/>
-        <v>2776.7816513761468</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="3"/>
-        <v>-2531.6</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="3"/>
-        <v>-6331.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-9023</v>
       </c>
@@ -2069,42 +2145,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9112.2000000000007</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1540</v>
       </c>
       <c r="J20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2687.2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6971.4</v>
       </c>
       <c r="M20">
         <v>19</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
-        <v>-6675.1357798165145</v>
+        <f t="shared" si="3"/>
+        <v>-4858.6220183486248</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
-        <v>1710.5688073394494</v>
+        <f t="shared" si="3"/>
+        <v>3031.6697247706425</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2687.2</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6971.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-9524</v>
       </c>
@@ -2121,42 +2201,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:K36" si="6">AVERAGE(A19:A23)</f>
+        <f t="shared" ref="H21:K36" si="7">AVERAGE(A19:A23)</f>
         <v>-9411.4</v>
       </c>
       <c r="I21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>778.4</v>
       </c>
       <c r="J21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2810.8</v>
       </c>
       <c r="K21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7395.2</v>
       </c>
       <c r="M21">
         <v>20</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
-        <v>-6944.7211009174307</v>
+        <f t="shared" si="3"/>
+        <v>-5027.2899082568802</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
-        <v>974.55596330275228</v>
+        <f t="shared" si="3"/>
+        <v>2369.0513761467887</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2810.8</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7395.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-9524</v>
       </c>
@@ -2173,42 +2257,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-9599.4</v>
       </c>
       <c r="I22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-418.2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2826.4</v>
       </c>
       <c r="K22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7997.4</v>
       </c>
       <c r="M22">
         <v>21</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
-        <v>-7103.106422018348</v>
+        <f t="shared" si="3"/>
+        <v>-5084.7577981651375</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
-        <v>-196.45688073394501</v>
+        <f t="shared" si="3"/>
+        <v>1271.4330275229356</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2826.4</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7997.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-9963</v>
       </c>
@@ -2225,42 +2313,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-9861.7999999999993</v>
       </c>
       <c r="I23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1253.5999999999999</v>
       </c>
       <c r="J23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2783.8</v>
       </c>
       <c r="K23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8381.7999999999993</v>
       </c>
       <c r="M23">
         <v>22</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
-        <v>-7335.8917431192658</v>
+        <f t="shared" si="3"/>
+        <v>-5216.6256880733945</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
-        <v>-1006.2697247706421</v>
+        <f t="shared" si="3"/>
+        <v>535.01467889908281</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2783.8</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8381.7999999999993</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-9963</v>
       </c>
@@ -2277,42 +2369,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10024</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2543</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2693.6</v>
       </c>
       <c r="K24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8919.2000000000007</v>
       </c>
       <c r="M24">
         <v>23</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
-        <v>-7468.4770642201838</v>
+        <f t="shared" si="3"/>
+        <v>-5248.2935779816517</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
-        <v>-2270.0825688073396</v>
+        <f t="shared" si="3"/>
+        <v>-655.40366972477068</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2693.6</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8919.2000000000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-10335</v>
       </c>
@@ -2329,42 +2425,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10243.200000000001</v>
       </c>
       <c r="I25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3432</v>
       </c>
       <c r="J25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2538.1999999999998</v>
       </c>
       <c r="K25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-9250.6</v>
       </c>
       <c r="M25">
         <v>24</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
-        <v>-7658.0623853211018</v>
+        <f t="shared" si="3"/>
+        <v>-5336.9614678899088</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
-        <v>-3133.4954128440368</v>
+        <f t="shared" si="3"/>
+        <v>-1445.4220183486241</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2538.1999999999998</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9250.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-10335</v>
       </c>
@@ -2381,42 +2481,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10374.6</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4321</v>
       </c>
       <c r="J26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2414.8000000000002</v>
       </c>
       <c r="K26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-9582</v>
       </c>
       <c r="M26">
         <v>25</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
-        <v>-7759.8477064220187</v>
+        <f t="shared" si="3"/>
+        <v>-5337.8293577981658</v>
       </c>
       <c r="O26">
-        <f t="shared" si="2"/>
-        <v>-3996.9082568807339</v>
+        <f t="shared" si="3"/>
+        <v>-2235.440366972477</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2414.8000000000002</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9582</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-10620</v>
       </c>
@@ -2433,42 +2537,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10549.8</v>
       </c>
       <c r="I27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5693.4</v>
       </c>
       <c r="J27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2224.1999999999998</v>
       </c>
       <c r="K27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-9963</v>
       </c>
       <c r="M27">
         <v>26</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
-        <v>-7905.4330275229349</v>
+        <f t="shared" si="3"/>
+        <v>-5382.4972477064221</v>
       </c>
       <c r="O27">
-        <f t="shared" si="2"/>
-        <v>-5343.7211009174307</v>
+        <f t="shared" si="3"/>
+        <v>-3508.8587155963301</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2224.1999999999998</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9963</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-10620</v>
       </c>
@@ -2485,42 +2593,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10650.6</v>
       </c>
       <c r="I28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7065.8</v>
       </c>
       <c r="J28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2091.8000000000002</v>
       </c>
       <c r="K28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10344</v>
       </c>
       <c r="M28">
         <v>27</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
-        <v>-7976.6183486238533</v>
+        <f t="shared" si="3"/>
+        <v>-5352.7651376146796</v>
       </c>
       <c r="O28">
-        <f t="shared" si="2"/>
-        <v>-6690.5339449541289</v>
+        <f t="shared" si="3"/>
+        <v>-4782.2770642201831</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2091.8000000000002</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10344</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-10839</v>
       </c>
@@ -2537,42 +2649,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10785.2</v>
       </c>
       <c r="I29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8435.7999999999993</v>
       </c>
       <c r="J29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1893</v>
       </c>
       <c r="K29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10624.2</v>
       </c>
       <c r="M29">
         <v>28</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
-        <v>-8081.603669724771</v>
+        <f t="shared" si="3"/>
+        <v>-5356.8330275229364</v>
       </c>
       <c r="O29">
-        <f t="shared" si="2"/>
-        <v>-8034.9467889908246</v>
+        <f t="shared" si="3"/>
+        <v>-6053.295412844036</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1893</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10624.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-10839</v>
       </c>
@@ -2589,42 +2705,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10862.8</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-9805.7999999999993</v>
       </c>
       <c r="J30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1759.4</v>
       </c>
       <c r="K30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10904.4</v>
       </c>
       <c r="M30">
         <v>29</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
-        <v>-8129.5889908256877</v>
+        <f t="shared" si="3"/>
+        <v>-5303.9009174311923</v>
       </c>
       <c r="O30">
-        <f t="shared" si="2"/>
-        <v>-9379.3596330275213</v>
+        <f t="shared" si="3"/>
+        <v>-7324.313761467889</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1759.4</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10904.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-11008</v>
       </c>
@@ -2641,42 +2761,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10964.8</v>
       </c>
       <c r="I31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11617.8</v>
       </c>
       <c r="J31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1561.8</v>
       </c>
       <c r="K31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11192.4</v>
       </c>
       <c r="M31">
         <v>30</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
-        <v>-8201.9743119266041</v>
+        <f t="shared" si="3"/>
+        <v>-5275.3688073394496</v>
       </c>
       <c r="O31">
-        <f t="shared" si="2"/>
-        <v>-11165.77247706422</v>
+        <f t="shared" si="3"/>
+        <v>-9037.3321100917419</v>
       </c>
       <c r="P31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1561.8</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11192.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-11008</v>
       </c>
@@ -2693,42 +2817,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11023</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-12511.4</v>
       </c>
       <c r="J32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1431.4</v>
       </c>
       <c r="K32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11252.4</v>
       </c>
       <c r="M32">
         <v>31</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
-        <v>-8230.5596330275221</v>
+        <f t="shared" si="3"/>
+        <v>-5203.0366972477068</v>
       </c>
       <c r="O32">
-        <f t="shared" si="2"/>
-        <v>-12033.785321100917</v>
+        <f t="shared" si="3"/>
+        <v>-9831.9504587155971</v>
       </c>
       <c r="P32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1431.4</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11252.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-11130</v>
       </c>
@@ -2745,42 +2873,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11099.4</v>
       </c>
       <c r="I33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-13835.6</v>
       </c>
       <c r="J33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1244.5999999999999</v>
       </c>
       <c r="K33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11289.4</v>
       </c>
       <c r="M33">
         <v>32</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
-        <v>-8277.3449541284408</v>
+        <f t="shared" si="3"/>
+        <v>-5148.9045871559629</v>
       </c>
       <c r="O33">
-        <f t="shared" si="2"/>
-        <v>-13332.398165137614</v>
+        <f t="shared" si="3"/>
+        <v>-11057.168807339451</v>
       </c>
       <c r="P33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1244.5999999999999</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11289.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-11130</v>
       </c>
@@ -2797,42 +2929,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11142</v>
       </c>
       <c r="I34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-14708.2</v>
       </c>
       <c r="J34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1124.2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11274.2</v>
       </c>
       <c r="M34">
         <v>33</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
-        <v>-8290.3302752293584</v>
+        <f t="shared" si="3"/>
+        <v>-5060.9724770642206</v>
       </c>
       <c r="O34">
-        <f t="shared" si="2"/>
-        <v>-14179.411009174313</v>
+        <f t="shared" si="3"/>
+        <v>-11830.787155963304</v>
       </c>
       <c r="P34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1124.2</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11274.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-11221</v>
       </c>
@@ -2849,42 +2985,46 @@
         <v>0.55119502499999995</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11248.6</v>
       </c>
       <c r="I35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-16022</v>
       </c>
       <c r="J35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1008.2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11239.8</v>
       </c>
       <c r="M35">
         <v>34</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
-        <v>-8367.3155963302761</v>
+        <f t="shared" si="3"/>
+        <v>-5037.0403669724783</v>
       </c>
       <c r="O35">
-        <f t="shared" si="2"/>
-        <v>-15467.623853211009</v>
+        <f t="shared" si="3"/>
+        <v>-13045.605504587156</v>
       </c>
       <c r="P35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1008.2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11239.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>0.55119502499999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-11221</v>
       </c>
@@ -2901,42 +3041,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11330.8</v>
       </c>
       <c r="I36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-16893.8</v>
       </c>
       <c r="J36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-956.2</v>
       </c>
       <c r="K36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11197.6</v>
       </c>
       <c r="M36">
         <v>35</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
-        <v>-8419.9009174311923</v>
+        <f t="shared" si="3"/>
+        <v>-4988.7082568807336</v>
       </c>
       <c r="O36">
-        <f t="shared" si="2"/>
-        <v>-16313.836697247705</v>
+        <f t="shared" si="3"/>
+        <v>-13818.423853211008</v>
       </c>
       <c r="P36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-956.2</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11197.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-11541</v>
       </c>
@@ -2953,42 +3097,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:K52" si="7">AVERAGE(A35:A39)</f>
+        <f t="shared" ref="H37:K52" si="8">AVERAGE(A35:A39)</f>
         <v>-11557.4</v>
       </c>
       <c r="I37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-18212.8</v>
       </c>
       <c r="J37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1003</v>
       </c>
       <c r="K37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-11146.2</v>
       </c>
       <c r="M37">
         <v>36</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
-        <v>-8616.8862385321099</v>
+        <f t="shared" si="3"/>
+        <v>-5084.7761467889904</v>
       </c>
       <c r="O37">
-        <f t="shared" si="2"/>
-        <v>-17607.249541284404</v>
+        <f t="shared" si="3"/>
+        <v>-15038.442201834861</v>
       </c>
       <c r="P37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1003</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11146.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-11541</v>
       </c>
@@ -3005,42 +3153,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-11765.8</v>
       </c>
       <c r="I38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-19101.2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1106.2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-11117.8</v>
       </c>
       <c r="M38">
         <v>37</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
-        <v>-8795.6715596330268</v>
+        <f t="shared" si="3"/>
+        <v>-5162.6440366972474</v>
       </c>
       <c r="O38">
-        <f t="shared" si="2"/>
-        <v>-18470.0623853211</v>
+        <f t="shared" si="3"/>
+        <v>-15827.860550458716</v>
       </c>
       <c r="P38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1106.2</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11117.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-12263</v>
       </c>
@@ -3057,42 +3209,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-12161.8</v>
       </c>
       <c r="I39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-20422.8</v>
       </c>
       <c r="J39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1362.6</v>
       </c>
       <c r="K39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-11070.8</v>
       </c>
       <c r="M39">
         <v>38</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
-        <v>-9162.0568807339441</v>
+        <f t="shared" si="3"/>
+        <v>-5428.1119266055048</v>
       </c>
       <c r="O39">
-        <f t="shared" si="2"/>
-        <v>-19766.075229357797</v>
+        <f t="shared" si="3"/>
+        <v>-17050.478899082569</v>
       </c>
       <c r="P39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1362.6</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11070.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-12263</v>
       </c>
@@ -3109,42 +3265,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-12493.8</v>
       </c>
       <c r="I40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-21303.200000000001</v>
       </c>
       <c r="J40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1614.6</v>
       </c>
       <c r="K40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-11043</v>
       </c>
       <c r="M40">
         <v>39</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
-        <v>-9464.4422018348614</v>
+        <f t="shared" si="3"/>
+        <v>-5629.5798165137612</v>
       </c>
       <c r="O40">
-        <f t="shared" si="2"/>
-        <v>-20620.888073394497</v>
+        <f t="shared" si="3"/>
+        <v>-17831.897247706424</v>
       </c>
       <c r="P40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1614.6</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11043</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-13201</v>
       </c>
@@ -3161,42 +3321,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-13017</v>
       </c>
       <c r="I41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-22598.400000000001</v>
       </c>
       <c r="J41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2033.2</v>
       </c>
       <c r="K41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10988</v>
       </c>
       <c r="M41">
         <v>40</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
-        <v>-9958.0275229357794</v>
+        <f t="shared" si="3"/>
+        <v>-6022.2477064220184</v>
       </c>
       <c r="O41">
-        <f t="shared" si="2"/>
-        <v>-21890.500917431193</v>
+        <f t="shared" si="3"/>
+        <v>-19028.115596330277</v>
       </c>
       <c r="P41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2033.2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10988</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-13201</v>
       </c>
@@ -3213,42 +3377,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-13395.8</v>
       </c>
       <c r="I42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-23446.400000000001</v>
       </c>
       <c r="J42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2353</v>
       </c>
       <c r="K42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10942.2</v>
       </c>
       <c r="M42">
         <v>41</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
-        <v>-10307.212844036696</v>
+        <f t="shared" si="3"/>
+        <v>-6270.515596330275</v>
       </c>
       <c r="O42">
-        <f t="shared" si="2"/>
-        <v>-22712.913761467891</v>
+        <f t="shared" si="3"/>
+        <v>-19777.13394495413</v>
       </c>
       <c r="P42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2353</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10942.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-14157</v>
       </c>
@@ -3265,42 +3433,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-13968.4</v>
       </c>
       <c r="I43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-24693.200000000001</v>
       </c>
       <c r="J43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2848.2</v>
       </c>
       <c r="K43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10864.2</v>
       </c>
       <c r="M43">
         <v>42</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
-        <v>-10850.198165137614</v>
+        <f t="shared" si="3"/>
+        <v>-6712.5834862385327</v>
       </c>
       <c r="O43">
-        <f t="shared" si="2"/>
-        <v>-23934.126605504589</v>
+        <f t="shared" si="3"/>
+        <v>-20924.952293577982</v>
       </c>
       <c r="P43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2848.2</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10864.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-14157</v>
       </c>
@@ -3317,42 +3489,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-14353.4</v>
       </c>
       <c r="I44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-25506.799999999999</v>
       </c>
       <c r="J44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3190.2</v>
       </c>
       <c r="K44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10804.8</v>
       </c>
       <c r="M44">
         <v>43</v>
       </c>
       <c r="N44">
-        <f t="shared" si="2"/>
-        <v>-11205.583486238531</v>
+        <f t="shared" si="3"/>
+        <v>-6967.0513761467892</v>
       </c>
       <c r="O44">
-        <f t="shared" si="2"/>
-        <v>-24722.139449541282</v>
+        <f t="shared" si="3"/>
+        <v>-21639.570642201834</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3190.2</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10804.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-15126</v>
       </c>
@@ -3369,42 +3545,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-14955.2</v>
       </c>
       <c r="I45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-26701.200000000001</v>
       </c>
       <c r="J45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3686.4</v>
       </c>
       <c r="K45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10686.6</v>
       </c>
       <c r="M45">
         <v>44</v>
       </c>
       <c r="N45">
-        <f t="shared" si="2"/>
-        <v>-11777.768807339449</v>
+        <f t="shared" si="3"/>
+        <v>-7438.3192660550467</v>
       </c>
       <c r="O45">
-        <f t="shared" si="2"/>
-        <v>-25890.952293577982</v>
+        <f t="shared" si="3"/>
+        <v>-22734.988990825688</v>
       </c>
       <c r="P45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3686.4</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10686.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-15126</v>
       </c>
@@ -3421,42 +3601,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-15365.8</v>
       </c>
       <c r="I46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-27480.799999999999</v>
       </c>
       <c r="J46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4016</v>
       </c>
       <c r="K46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10595.6</v>
       </c>
       <c r="M46">
         <v>45</v>
       </c>
       <c r="N46">
-        <f t="shared" si="2"/>
-        <v>-12158.754128440367</v>
+        <f t="shared" si="3"/>
+        <v>-7718.3871559633026</v>
       </c>
       <c r="O46">
-        <f t="shared" si="2"/>
-        <v>-26644.965137614679</v>
+        <f t="shared" si="3"/>
+        <v>-23415.60733944954</v>
       </c>
       <c r="P46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4016</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10595.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-16210</v>
       </c>
@@ -3473,42 +3657,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-16018.6</v>
       </c>
       <c r="I47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-28625.8</v>
       </c>
       <c r="J47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4444.2</v>
       </c>
       <c r="K47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10421.200000000001</v>
       </c>
       <c r="M47">
         <v>46</v>
       </c>
       <c r="N47">
-        <f t="shared" si="2"/>
-        <v>-12781.939449541285</v>
+        <f t="shared" si="3"/>
+        <v>-8240.655045871561</v>
       </c>
       <c r="O47">
-        <f t="shared" si="2"/>
-        <v>-27764.377981651374</v>
+        <f t="shared" si="3"/>
+        <v>-24461.625688073393</v>
       </c>
       <c r="P47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4444.2</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10421.200000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-16210</v>
       </c>
@@ -3525,42 +3713,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-16477.599999999999</v>
       </c>
       <c r="I48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-29372</v>
       </c>
       <c r="J48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4697</v>
       </c>
       <c r="K48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10279</v>
       </c>
       <c r="M48">
         <v>47</v>
       </c>
       <c r="N48">
-        <f t="shared" si="2"/>
-        <v>-13211.324770642201</v>
+        <f t="shared" si="3"/>
+        <v>-8569.1229357798147</v>
       </c>
       <c r="O48">
-        <f t="shared" si="2"/>
-        <v>-28484.990825688074</v>
+        <f t="shared" si="3"/>
+        <v>-25108.84403669725</v>
       </c>
       <c r="P48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4697</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10279</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-17421</v>
       </c>
@@ -3577,42 +3769,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-17197</v>
       </c>
       <c r="I49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-30466.6</v>
       </c>
       <c r="J49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5022.6000000000004</v>
       </c>
       <c r="K49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10052.6</v>
       </c>
       <c r="M49">
         <v>48</v>
       </c>
       <c r="N49">
-        <f t="shared" si="2"/>
-        <v>-13901.110091743119</v>
+        <f t="shared" si="3"/>
+        <v>-9157.9908256880735</v>
       </c>
       <c r="O49">
-        <f t="shared" si="2"/>
-        <v>-29554.003669724771</v>
+        <f t="shared" si="3"/>
+        <v>-26104.462385321101</v>
       </c>
       <c r="P49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5022.6000000000004</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10052.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-17421</v>
       </c>
@@ -3629,42 +3825,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-17699.599999999999</v>
       </c>
       <c r="I50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-31180.400000000001</v>
       </c>
       <c r="J50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5194</v>
       </c>
       <c r="K50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-9885</v>
       </c>
       <c r="M50">
         <v>49</v>
       </c>
       <c r="N50">
-        <f t="shared" si="2"/>
-        <v>-14374.095412844035</v>
+        <f t="shared" si="3"/>
+        <v>-9530.0587155963294</v>
       </c>
       <c r="O50">
-        <f t="shared" si="2"/>
-        <v>-30242.216513761468</v>
+        <f t="shared" si="3"/>
+        <v>-26719.280733944957</v>
       </c>
       <c r="P50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5194</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9885</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-18723</v>
       </c>
@@ -3681,42 +3881,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-18202.2</v>
       </c>
       <c r="I51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-31894.2</v>
       </c>
       <c r="J51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5365.4</v>
       </c>
       <c r="K51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-9717.4</v>
       </c>
       <c r="M51">
         <v>50</v>
       </c>
       <c r="N51">
-        <f t="shared" si="2"/>
-        <v>-14847.080733944955</v>
+        <f t="shared" si="3"/>
+        <v>-9902.126605504589</v>
       </c>
       <c r="O51">
-        <f t="shared" si="2"/>
-        <v>-30930.429357798166</v>
+        <f t="shared" si="3"/>
+        <v>-27334.09908256881</v>
       </c>
       <c r="P51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5365.4</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9717.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-18723</v>
       </c>
@@ -3733,42 +3937,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-19017.400000000001</v>
       </c>
       <c r="I52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-32575.4</v>
       </c>
       <c r="J52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5607.6</v>
       </c>
       <c r="K52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-9551.7999999999993</v>
       </c>
       <c r="M52">
         <v>51</v>
       </c>
       <c r="N52">
-        <f t="shared" si="2"/>
-        <v>-15632.666055045873</v>
+        <f t="shared" si="3"/>
+        <v>-10586.794495412847</v>
       </c>
       <c r="O52">
-        <f t="shared" si="2"/>
-        <v>-31586.042201834865</v>
+        <f t="shared" si="3"/>
+        <v>-27916.317431192663</v>
       </c>
       <c r="P52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5607.6</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9551.7999999999993</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-18723</v>
       </c>
@@ -3785,42 +3993,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H53">
-        <f t="shared" ref="H53:K68" si="8">AVERAGE(A51:A55)</f>
+        <f t="shared" ref="H53:K68" si="9">AVERAGE(A51:A55)</f>
         <v>-19832.599999999999</v>
       </c>
       <c r="I53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-33256.6</v>
       </c>
       <c r="J53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-5849.8</v>
       </c>
       <c r="K53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9386.2000000000007</v>
       </c>
       <c r="M53">
         <v>52</v>
       </c>
       <c r="N53">
-        <f t="shared" si="2"/>
-        <v>-16418.251376146789</v>
+        <f t="shared" si="3"/>
+        <v>-11271.4623853211</v>
       </c>
       <c r="O53">
-        <f t="shared" si="2"/>
-        <v>-32241.655045871557</v>
+        <f t="shared" si="3"/>
+        <v>-28498.535779816513</v>
       </c>
       <c r="P53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5849.8</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9386.2000000000007</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-21497</v>
       </c>
@@ -3837,42 +4049,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-20696.2</v>
       </c>
       <c r="I54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-33918.400000000001</v>
       </c>
       <c r="J54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6111.6</v>
       </c>
       <c r="K54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9234.2000000000007</v>
       </c>
       <c r="M54">
         <v>53</v>
       </c>
       <c r="N54">
-        <f t="shared" si="2"/>
-        <v>-17252.236697247707</v>
+        <f t="shared" si="3"/>
+        <v>-12004.530275229359</v>
       </c>
       <c r="O54">
-        <f t="shared" si="2"/>
-        <v>-32877.867889908259</v>
+        <f t="shared" si="3"/>
+        <v>-29061.354128440369</v>
       </c>
       <c r="P54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6111.6</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9234.2000000000007</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-21497</v>
       </c>
@@ -3889,42 +4105,46 @@
         <v>0.52089393100000003</v>
       </c>
       <c r="H55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-21559.8</v>
       </c>
       <c r="I55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-34580.199999999997</v>
       </c>
       <c r="J55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6373.4</v>
       </c>
       <c r="K55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9082.2000000000007</v>
       </c>
       <c r="M55">
         <v>54</v>
       </c>
       <c r="N55">
-        <f t="shared" si="2"/>
-        <v>-18086.222018348624</v>
+        <f t="shared" si="3"/>
+        <v>-12737.598165137615</v>
       </c>
       <c r="O55">
-        <f t="shared" si="2"/>
-        <v>-33514.080733944953</v>
+        <f t="shared" si="3"/>
+        <v>-29624.172477064218</v>
       </c>
       <c r="P55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6373.4</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9082.2000000000007</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>0.52089393100000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-23041</v>
       </c>
@@ -3941,42 +4161,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-22746.6</v>
       </c>
       <c r="I56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-35572.800000000003</v>
       </c>
       <c r="J56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6716.2</v>
       </c>
       <c r="K56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8879.6</v>
       </c>
       <c r="M56">
         <v>55</v>
       </c>
       <c r="N56">
-        <f t="shared" si="2"/>
-        <v>-19243.407339449539</v>
+        <f t="shared" si="3"/>
+        <v>-13793.86605504587</v>
       </c>
       <c r="O56">
-        <f t="shared" si="2"/>
-        <v>-34481.093577981657</v>
+        <f t="shared" si="3"/>
+        <v>-30517.790825688076</v>
       </c>
       <c r="P56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6716.2</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8879.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-23041</v>
       </c>
@@ -3993,42 +4217,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-23378.6</v>
       </c>
       <c r="I57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-36232.6</v>
       </c>
       <c r="J57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6889.6</v>
       </c>
       <c r="K57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8758.4</v>
       </c>
       <c r="M57">
         <v>56</v>
       </c>
       <c r="N57">
-        <f t="shared" si="2"/>
-        <v>-19845.792660550458</v>
+        <f t="shared" si="3"/>
+        <v>-14295.333944954127</v>
       </c>
       <c r="O57">
-        <f t="shared" si="2"/>
-        <v>-35115.306422018344</v>
+        <f t="shared" si="3"/>
+        <v>-31078.609174311925</v>
       </c>
       <c r="P57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6889.6</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8758.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-24657</v>
       </c>
@@ -4045,42 +4273,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-24328.6</v>
       </c>
       <c r="I58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-37228.400000000001</v>
       </c>
       <c r="J58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7121.6</v>
       </c>
       <c r="K58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8608.2000000000007</v>
       </c>
       <c r="M58">
         <v>57</v>
       </c>
       <c r="N58">
-        <f t="shared" si="2"/>
-        <v>-20766.177981651374</v>
+        <f t="shared" si="3"/>
+        <v>-15114.801834862385</v>
       </c>
       <c r="O58">
-        <f t="shared" si="2"/>
-        <v>-36085.519266055046</v>
+        <f t="shared" si="3"/>
+        <v>-31975.427522935781</v>
       </c>
       <c r="P58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7121.6</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8608.2000000000007</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-24657</v>
       </c>
@@ -4097,42 +4329,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-24969.8</v>
       </c>
       <c r="I59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-37895.199999999997</v>
       </c>
       <c r="J59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7261.2</v>
       </c>
       <c r="K59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8528.6</v>
       </c>
       <c r="M59">
         <v>58</v>
       </c>
       <c r="N59">
-        <f t="shared" si="2"/>
-        <v>-21377.763302752293</v>
+        <f t="shared" si="3"/>
+        <v>-15625.469724770643</v>
       </c>
       <c r="O59">
-        <f t="shared" si="2"/>
-        <v>-36726.73211009174</v>
+        <f t="shared" si="3"/>
+        <v>-32543.245871559629</v>
       </c>
       <c r="P59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7261.2</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8528.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-26247</v>
       </c>
@@ -4149,42 +4385,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-25936.2</v>
       </c>
       <c r="I60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-38895</v>
       </c>
       <c r="J60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7455.8</v>
       </c>
       <c r="K60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8432</v>
       </c>
       <c r="M60">
         <v>59</v>
       </c>
       <c r="N60">
-        <f t="shared" si="2"/>
-        <v>-22314.54862385321</v>
+        <f t="shared" si="3"/>
+        <v>-16461.337614678901</v>
       </c>
       <c r="O60">
-        <f t="shared" si="2"/>
-        <v>-37700.944954128441</v>
+        <f t="shared" si="3"/>
+        <v>-33444.064220183485</v>
       </c>
       <c r="P60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7455.8</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8432</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-26247</v>
       </c>
@@ -4201,42 +4441,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-26579.4</v>
       </c>
       <c r="I61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-39564</v>
       </c>
       <c r="J61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7569.4</v>
       </c>
       <c r="K61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8386</v>
       </c>
       <c r="M61">
         <v>60</v>
       </c>
       <c r="N61">
-        <f t="shared" si="2"/>
-        <v>-22928.13394495413</v>
+        <f t="shared" si="3"/>
+        <v>-16974.005504587156</v>
       </c>
       <c r="O61">
-        <f t="shared" si="2"/>
-        <v>-38344.35779816514</v>
+        <f t="shared" si="3"/>
+        <v>-34014.082568807338</v>
       </c>
       <c r="P61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7569.4</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8386</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-27873</v>
       </c>
@@ -4253,42 +4497,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-27559</v>
       </c>
       <c r="I62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-40556.199999999997</v>
       </c>
       <c r="J62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7735.2</v>
       </c>
       <c r="K62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8330.6</v>
       </c>
       <c r="M62">
         <v>61</v>
       </c>
       <c r="N62">
-        <f t="shared" si="2"/>
-        <v>-23878.119266055044</v>
+        <f t="shared" si="3"/>
+        <v>-17823.073394495412</v>
       </c>
       <c r="O62">
-        <f t="shared" si="2"/>
-        <v>-39310.970642201835</v>
+        <f t="shared" si="3"/>
+        <v>-34907.300917431188</v>
       </c>
       <c r="P62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7735.2</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8330.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-27873</v>
       </c>
@@ -4305,42 +4553,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-28220.6</v>
       </c>
       <c r="I63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-41212.400000000001</v>
       </c>
       <c r="J63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7842.4</v>
       </c>
       <c r="K63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8304.2000000000007</v>
       </c>
       <c r="M63">
         <v>62</v>
       </c>
       <c r="N63">
-        <f t="shared" si="2"/>
-        <v>-24510.104587155962</v>
+        <f t="shared" si="3"/>
+        <v>-18354.141284403668</v>
       </c>
       <c r="O63">
-        <f t="shared" si="2"/>
-        <v>-39941.583486238531</v>
+        <f t="shared" si="3"/>
+        <v>-35464.519266055046</v>
       </c>
       <c r="P63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7842.4</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8304.2000000000007</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-29555</v>
       </c>
@@ -4357,42 +4609,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-29221.599999999999</v>
       </c>
       <c r="I64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-42181.8</v>
       </c>
       <c r="J64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7980.6</v>
       </c>
       <c r="K64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8262.6</v>
       </c>
       <c r="M64">
         <v>63</v>
       </c>
       <c r="N64">
-        <f t="shared" si="2"/>
-        <v>-25481.489908256881</v>
+        <f t="shared" si="3"/>
+        <v>-19224.609174311925</v>
       </c>
       <c r="O64">
-        <f t="shared" si="2"/>
-        <v>-40885.396330275231</v>
+        <f t="shared" si="3"/>
+        <v>-36334.9376146789</v>
       </c>
       <c r="P64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7980.6</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8262.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-29555</v>
       </c>
@@ -4409,42 +4665,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-29897.4</v>
       </c>
       <c r="I65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-42818.2</v>
       </c>
       <c r="J65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8063.8</v>
       </c>
       <c r="K65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8238</v>
       </c>
       <c r="M65">
         <v>64</v>
       </c>
       <c r="N65">
-        <f t="shared" si="2"/>
-        <v>-26127.675229357799</v>
+        <f t="shared" si="3"/>
+        <v>-19769.877064220185</v>
       </c>
       <c r="O65">
-        <f t="shared" si="2"/>
-        <v>-41496.209174311924</v>
+        <f t="shared" si="3"/>
+        <v>-36872.355963302747</v>
       </c>
       <c r="P65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8063.8</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8238</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-31252</v>
       </c>
@@ -4461,42 +4721,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-30917.599999999999</v>
       </c>
       <c r="I66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-43753.599999999999</v>
       </c>
       <c r="J66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8167.6</v>
       </c>
       <c r="K66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8181.8</v>
       </c>
       <c r="M66">
         <v>65</v>
       </c>
       <c r="N66">
-        <f t="shared" si="2"/>
-        <v>-27118.260550458715</v>
+        <f t="shared" si="3"/>
+        <v>-20659.54495412844</v>
       </c>
       <c r="O66">
-        <f t="shared" si="2"/>
-        <v>-42406.022018348624</v>
+        <f t="shared" si="3"/>
+        <v>-37708.774311926602</v>
       </c>
       <c r="P66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8167.6</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8181.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <f t="shared" ref="R66:R111" si="10">E66</f>
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-31252</v>
       </c>
@@ -4513,42 +4777,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31601.4</v>
       </c>
       <c r="I67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-44365.8</v>
       </c>
       <c r="J67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8219.2000000000007</v>
       </c>
       <c r="K67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8135</v>
       </c>
       <c r="M67">
         <v>66</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:O111" si="9">H67+U$9 +($M66*U$10)</f>
-        <v>-27772.445871559634</v>
+        <f t="shared" ref="N67:O111" si="11">H67+U$9 +($M66*U$10)</f>
+        <v>-21212.8128440367</v>
       </c>
       <c r="O67">
-        <f t="shared" si="9"/>
-        <v>-42992.634862385326</v>
+        <f t="shared" si="11"/>
+        <v>-38221.992660550459</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:Q111" si="10">J67</f>
+        <f t="shared" ref="P67:Q111" si="12">J67</f>
         <v>-8219.2000000000007</v>
       </c>
       <c r="Q67">
+        <f t="shared" si="12"/>
+        <v>-8135</v>
+      </c>
+      <c r="R67">
         <f t="shared" si="10"/>
-        <v>-8135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-32974</v>
       </c>
@@ -4565,42 +4833,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-32631</v>
       </c>
       <c r="I68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-45261.8</v>
       </c>
       <c r="J68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8299.4</v>
       </c>
       <c r="K68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8036.6</v>
       </c>
       <c r="M68">
         <v>67</v>
       </c>
       <c r="N68">
-        <f t="shared" si="9"/>
-        <v>-28772.431192660551</v>
+        <f t="shared" si="11"/>
+        <v>-22111.880733944956</v>
       </c>
       <c r="O68">
-        <f t="shared" si="9"/>
-        <v>-43863.047706422018</v>
+        <f t="shared" si="11"/>
+        <v>-39019.011009174312</v>
       </c>
       <c r="P68">
+        <f t="shared" si="12"/>
+        <v>-8299.4</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="12"/>
+        <v>-8036.6</v>
+      </c>
+      <c r="R68">
         <f t="shared" si="10"/>
-        <v>-8299.4</v>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="10"/>
-        <v>-8036.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-32974</v>
       </c>
@@ -4617,42 +4889,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H69">
-        <f t="shared" ref="H69:K84" si="11">AVERAGE(A67:A71)</f>
+        <f t="shared" ref="H69:K84" si="13">AVERAGE(A67:A71)</f>
         <v>-33321.199999999997</v>
       </c>
       <c r="I69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-45844.6</v>
       </c>
       <c r="J69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8348.6</v>
       </c>
       <c r="K69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-7953.4</v>
       </c>
       <c r="M69">
         <v>68</v>
       </c>
       <c r="N69">
-        <f t="shared" si="9"/>
-        <v>-29433.016513761464</v>
+        <f t="shared" si="11"/>
+        <v>-22671.54862385321</v>
       </c>
       <c r="O69">
-        <f t="shared" si="9"/>
-        <v>-44420.260550458712</v>
+        <f t="shared" si="11"/>
+        <v>-39502.829357798168</v>
       </c>
       <c r="P69">
+        <f t="shared" si="12"/>
+        <v>-8348.6</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="12"/>
+        <v>-7953.4</v>
+      </c>
+      <c r="R69">
         <f t="shared" si="10"/>
-        <v>-8348.6</v>
-      </c>
-      <c r="Q69">
-        <f t="shared" si="10"/>
-        <v>-7953.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-34703</v>
       </c>
@@ -4669,42 +4945,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-34352</v>
       </c>
       <c r="I70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-46696.4</v>
       </c>
       <c r="J70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8413.4</v>
       </c>
       <c r="K70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-7807.2</v>
       </c>
       <c r="M70">
         <v>69</v>
       </c>
       <c r="N70">
-        <f t="shared" si="9"/>
-        <v>-30434.201834862386</v>
+        <f t="shared" si="11"/>
+        <v>-23571.816513761471</v>
       </c>
       <c r="O70">
-        <f t="shared" si="9"/>
-        <v>-45246.473394495413</v>
+        <f t="shared" si="11"/>
+        <v>-40255.647706422023</v>
       </c>
       <c r="P70">
+        <f t="shared" si="12"/>
+        <v>-8413.4</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="12"/>
+        <v>-7807.2</v>
+      </c>
+      <c r="R70">
         <f t="shared" si="10"/>
-        <v>-8413.4</v>
-      </c>
-      <c r="Q70">
-        <f t="shared" si="10"/>
-        <v>-7807.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-34703</v>
       </c>
@@ -4721,42 +5001,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-35038.400000000001</v>
       </c>
       <c r="I71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-47249.2</v>
       </c>
       <c r="J71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8457.6</v>
       </c>
       <c r="K71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-7692.6</v>
       </c>
       <c r="M71">
         <v>70</v>
       </c>
       <c r="N71">
-        <f t="shared" si="9"/>
-        <v>-31090.987155963303</v>
+        <f t="shared" si="11"/>
+        <v>-24127.684403669729</v>
       </c>
       <c r="O71">
-        <f t="shared" si="9"/>
-        <v>-45773.686238532107</v>
+        <f t="shared" si="11"/>
+        <v>-40709.466055045865</v>
       </c>
       <c r="P71">
+        <f t="shared" si="12"/>
+        <v>-8457.6</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="12"/>
+        <v>-7692.6</v>
+      </c>
+      <c r="R71">
         <f t="shared" si="10"/>
-        <v>-8457.6</v>
-      </c>
-      <c r="Q71">
-        <f t="shared" si="10"/>
-        <v>-7692.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-36406</v>
       </c>
@@ -4773,42 +5057,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-35724.800000000003</v>
       </c>
       <c r="I72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-47802</v>
       </c>
       <c r="J72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8501.7999999999993</v>
       </c>
       <c r="K72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-7578</v>
       </c>
       <c r="M72">
         <v>71</v>
       </c>
       <c r="N72">
-        <f t="shared" si="9"/>
-        <v>-31747.772477064223</v>
+        <f t="shared" si="11"/>
+        <v>-24683.552293577985</v>
       </c>
       <c r="O72">
-        <f t="shared" si="9"/>
-        <v>-46300.899082568809</v>
+        <f t="shared" si="11"/>
+        <v>-41163.284403669728</v>
       </c>
       <c r="P72">
+        <f t="shared" si="12"/>
+        <v>-8501.7999999999993</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="12"/>
+        <v>-7578</v>
+      </c>
+      <c r="R72">
         <f t="shared" si="10"/>
-        <v>-8501.7999999999993</v>
-      </c>
-      <c r="Q72">
-        <f t="shared" si="10"/>
-        <v>-7578</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-36406</v>
       </c>
@@ -4825,42 +5113,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-36393.599999999999</v>
       </c>
       <c r="I73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-48563.6</v>
       </c>
       <c r="J73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8509.6</v>
       </c>
       <c r="K73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-7371.2</v>
       </c>
       <c r="M73">
         <v>72</v>
       </c>
       <c r="N73">
-        <f t="shared" si="9"/>
-        <v>-32386.957798165135</v>
+        <f t="shared" si="11"/>
+        <v>-25221.820183486238</v>
       </c>
       <c r="O73">
-        <f t="shared" si="9"/>
-        <v>-47036.911926605506</v>
+        <f t="shared" si="11"/>
+        <v>-41825.902752293579</v>
       </c>
       <c r="P73">
+        <f t="shared" si="12"/>
+        <v>-8509.6</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="12"/>
+        <v>-7371.2</v>
+      </c>
+      <c r="R73">
         <f t="shared" si="10"/>
-        <v>-8509.6</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" si="10"/>
-        <v>-7371.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-36406</v>
       </c>
@@ -4877,42 +5169,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-37062.400000000001</v>
       </c>
       <c r="I74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-49325.2</v>
       </c>
       <c r="J74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8517.4</v>
       </c>
       <c r="K74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-7164.4</v>
       </c>
       <c r="M74">
         <v>73</v>
       </c>
       <c r="N74">
-        <f t="shared" si="9"/>
-        <v>-33026.143119266053</v>
+        <f t="shared" si="11"/>
+        <v>-25760.088073394498</v>
       </c>
       <c r="O74">
-        <f t="shared" si="9"/>
-        <v>-47772.924770642196</v>
+        <f t="shared" si="11"/>
+        <v>-42488.521100917431</v>
       </c>
       <c r="P74">
+        <f t="shared" si="12"/>
+        <v>-8517.4</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="12"/>
+        <v>-7164.4</v>
+      </c>
+      <c r="R74">
         <f t="shared" si="10"/>
-        <v>-8517.4</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" si="10"/>
-        <v>-7164.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-38047</v>
       </c>
@@ -4929,42 +5225,46 @@
         <v>0.50139403299999996</v>
       </c>
       <c r="H75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-37707.800000000003</v>
       </c>
       <c r="I75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-50020.6</v>
       </c>
       <c r="J75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8487</v>
       </c>
       <c r="K75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-6925.4</v>
       </c>
       <c r="M75">
         <v>74</v>
       </c>
       <c r="N75">
-        <f t="shared" si="9"/>
-        <v>-33641.928440366974</v>
+        <f t="shared" si="11"/>
+        <v>-26274.955963302757</v>
       </c>
       <c r="O75">
-        <f t="shared" si="9"/>
-        <v>-48442.737614678896</v>
+        <f t="shared" si="11"/>
+        <v>-43084.939449541285</v>
       </c>
       <c r="P75">
+        <f t="shared" si="12"/>
+        <v>-8487</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="12"/>
+        <v>-6925.4</v>
+      </c>
+      <c r="R75">
         <f t="shared" si="10"/>
-        <v>-8487</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="10"/>
-        <v>-6925.4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.50139403299999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-38047</v>
       </c>
@@ -4981,42 +5281,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-38353.199999999997</v>
       </c>
       <c r="I76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-50716</v>
       </c>
       <c r="J76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8456.6</v>
       </c>
       <c r="K76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-6686.4</v>
       </c>
       <c r="M76">
         <v>75</v>
       </c>
       <c r="N76">
-        <f t="shared" si="9"/>
-        <v>-34257.713761467887</v>
+        <f t="shared" si="11"/>
+        <v>-26789.823853211008</v>
       </c>
       <c r="O76">
-        <f t="shared" si="9"/>
-        <v>-49112.550458715596</v>
+        <f t="shared" si="11"/>
+        <v>-43681.35779816514</v>
       </c>
       <c r="P76">
+        <f t="shared" si="12"/>
+        <v>-8456.6</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="12"/>
+        <v>-6686.4</v>
+      </c>
+      <c r="R76">
         <f t="shared" si="10"/>
-        <v>-8456.6</v>
-      </c>
-      <c r="Q76">
-        <f t="shared" si="10"/>
-        <v>-6686.4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-39633</v>
       </c>
@@ -5033,42 +5337,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-39303.4</v>
       </c>
       <c r="I77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-51564.2</v>
       </c>
       <c r="J77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8388.6</v>
       </c>
       <c r="K77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-6317.2</v>
       </c>
       <c r="M77">
         <v>76</v>
       </c>
       <c r="N77">
-        <f t="shared" si="9"/>
-        <v>-35178.29908256881</v>
+        <f t="shared" si="11"/>
+        <v>-27609.491743119266</v>
       </c>
       <c r="O77">
-        <f t="shared" si="9"/>
-        <v>-49935.163302752291</v>
+        <f t="shared" si="11"/>
+        <v>-44430.57614678899</v>
       </c>
       <c r="P77">
+        <f t="shared" si="12"/>
+        <v>-8388.6</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="12"/>
+        <v>-6317.2</v>
+      </c>
+      <c r="R77">
         <f t="shared" si="10"/>
-        <v>-8388.6</v>
-      </c>
-      <c r="Q77">
-        <f t="shared" si="10"/>
-        <v>-6317.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-39633</v>
       </c>
@@ -5085,42 +5393,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-39925.4</v>
       </c>
       <c r="I78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-51919.8</v>
       </c>
       <c r="J78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8328.4</v>
       </c>
       <c r="K78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-6091.8</v>
       </c>
       <c r="M78">
         <v>77</v>
       </c>
       <c r="N78">
-        <f t="shared" si="9"/>
-        <v>-35770.684403669729</v>
+        <f t="shared" si="11"/>
+        <v>-28100.959633027524</v>
       </c>
       <c r="O78">
-        <f t="shared" si="9"/>
-        <v>-50265.176146788996</v>
+        <f t="shared" si="11"/>
+        <v>-44687.194495412848</v>
       </c>
       <c r="P78">
+        <f t="shared" si="12"/>
+        <v>-8328.4</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="12"/>
+        <v>-6091.8</v>
+      </c>
+      <c r="R78">
         <f t="shared" si="10"/>
-        <v>-8328.4</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" si="10"/>
-        <v>-6091.8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-41157</v>
       </c>
@@ -5137,42 +5449,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-40849.4</v>
       </c>
       <c r="I79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-52396.4</v>
       </c>
       <c r="J79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8222.7999999999993</v>
       </c>
       <c r="K79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-5718.8</v>
       </c>
       <c r="M79">
         <v>78</v>
       </c>
       <c r="N79">
-        <f t="shared" si="9"/>
-        <v>-36665.069724770641</v>
+        <f t="shared" si="11"/>
+        <v>-28894.427522935781</v>
       </c>
       <c r="O79">
-        <f t="shared" si="9"/>
-        <v>-50716.188990825693</v>
+        <f t="shared" si="11"/>
+        <v>-45064.8128440367</v>
       </c>
       <c r="P79">
+        <f t="shared" si="12"/>
+        <v>-8222.7999999999993</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="12"/>
+        <v>-5718.8</v>
+      </c>
+      <c r="R79">
         <f t="shared" si="10"/>
-        <v>-8222.7999999999993</v>
-      </c>
-      <c r="Q79">
-        <f t="shared" si="10"/>
-        <v>-5718.8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-41157</v>
       </c>
@@ -5189,42 +5505,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-41456.199999999997</v>
       </c>
       <c r="I80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-52670.2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8139.8</v>
       </c>
       <c r="K80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-5441</v>
       </c>
       <c r="M80">
         <v>79</v>
       </c>
       <c r="N80">
-        <f t="shared" si="9"/>
-        <v>-37242.255045871556</v>
+        <f t="shared" si="11"/>
+        <v>-29370.695412844034</v>
       </c>
       <c r="O80">
-        <f t="shared" si="9"/>
-        <v>-50964.401834862379</v>
+        <f t="shared" si="11"/>
+        <v>-45239.631192660549</v>
       </c>
       <c r="P80">
+        <f t="shared" si="12"/>
+        <v>-8139.8</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="12"/>
+        <v>-5441</v>
+      </c>
+      <c r="R80">
         <f t="shared" si="10"/>
-        <v>-8139.8</v>
-      </c>
-      <c r="Q80">
-        <f t="shared" si="10"/>
-        <v>-5441</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-42667</v>
       </c>
@@ -5241,42 +5561,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-42357.2</v>
       </c>
       <c r="I81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-53049.8</v>
       </c>
       <c r="J81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-8012</v>
       </c>
       <c r="K81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-5013.8</v>
       </c>
       <c r="M81">
         <v>80</v>
       </c>
       <c r="N81">
-        <f t="shared" si="9"/>
-        <v>-38113.640366972475</v>
+        <f t="shared" si="11"/>
+        <v>-30141.163302752291</v>
       </c>
       <c r="O81">
-        <f t="shared" si="9"/>
-        <v>-51318.414678899084</v>
+        <f t="shared" si="11"/>
+        <v>-45520.249541284407</v>
       </c>
       <c r="P81">
+        <f t="shared" si="12"/>
+        <v>-8012</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="12"/>
+        <v>-5013.8</v>
+      </c>
+      <c r="R81">
         <f t="shared" si="10"/>
-        <v>-8012</v>
-      </c>
-      <c r="Q81">
-        <f t="shared" si="10"/>
-        <v>-5013.8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-42667</v>
       </c>
@@ -5293,42 +5617,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-42953.4</v>
       </c>
       <c r="I82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-53276.6</v>
       </c>
       <c r="J82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-7921.8</v>
       </c>
       <c r="K82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-4716.8</v>
       </c>
       <c r="M82">
         <v>81</v>
       </c>
       <c r="N82">
-        <f t="shared" si="9"/>
-        <v>-38680.225688073398</v>
+        <f t="shared" si="11"/>
+        <v>-30606.831192660553</v>
       </c>
       <c r="O82">
-        <f t="shared" si="9"/>
-        <v>-51519.627522935778</v>
+        <f t="shared" si="11"/>
+        <v>-45648.067889908256</v>
       </c>
       <c r="P82">
+        <f t="shared" si="12"/>
+        <v>-7921.8</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="12"/>
+        <v>-4716.8</v>
+      </c>
+      <c r="R82">
         <f t="shared" si="10"/>
-        <v>-7921.8</v>
-      </c>
-      <c r="Q82">
-        <f t="shared" si="10"/>
-        <v>-4716.8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-44138</v>
       </c>
@@ -5345,42 +5673,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-43828.4</v>
       </c>
       <c r="I83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-53597.2</v>
       </c>
       <c r="J83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-7781.4</v>
       </c>
       <c r="K83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-4275.3999999999996</v>
       </c>
       <c r="M83">
         <v>82</v>
       </c>
       <c r="N83">
-        <f t="shared" si="9"/>
-        <v>-39525.61100917431</v>
+        <f t="shared" si="11"/>
+        <v>-31351.29908256881</v>
       </c>
       <c r="O83">
-        <f t="shared" si="9"/>
-        <v>-51814.640366972475</v>
+        <f t="shared" si="11"/>
+        <v>-45869.686238532107</v>
       </c>
       <c r="P83">
+        <f t="shared" si="12"/>
+        <v>-7781.4</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="12"/>
+        <v>-4275.3999999999996</v>
+      </c>
+      <c r="R83">
         <f t="shared" si="10"/>
-        <v>-7781.4</v>
-      </c>
-      <c r="Q83">
-        <f t="shared" si="10"/>
-        <v>-4275.3999999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-44138</v>
       </c>
@@ -5397,42 +5729,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-44401.4</v>
       </c>
       <c r="I84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-53796.800000000003</v>
       </c>
       <c r="J84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-7686.4</v>
       </c>
       <c r="K84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3981.6</v>
       </c>
       <c r="M84">
         <v>83</v>
       </c>
       <c r="N84">
-        <f t="shared" si="9"/>
-        <v>-40068.996330275229</v>
+        <f t="shared" si="11"/>
+        <v>-31793.766972477068</v>
       </c>
       <c r="O84">
-        <f t="shared" si="9"/>
-        <v>-51988.653211009179</v>
+        <f t="shared" si="11"/>
+        <v>-45970.304587155966</v>
       </c>
       <c r="P84">
+        <f t="shared" si="12"/>
+        <v>-7686.4</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="12"/>
+        <v>-3981.6</v>
+      </c>
+      <c r="R84">
         <f t="shared" si="10"/>
-        <v>-7686.4</v>
-      </c>
-      <c r="Q84">
-        <f t="shared" si="10"/>
-        <v>-3981.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-45532</v>
       </c>
@@ -5449,42 +5785,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="H85:K100" si="12">AVERAGE(A83:A87)</f>
+        <f t="shared" ref="H85:K100" si="14">AVERAGE(A83:A87)</f>
         <v>-45237.2</v>
       </c>
       <c r="I85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-53996.4</v>
       </c>
       <c r="J85">
+        <f t="shared" si="14"/>
+        <v>-7537.6</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="14"/>
+        <v>-3687.8</v>
+      </c>
+      <c r="M85">
+        <v>84</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="11"/>
+        <v>-32499.034862385321</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="11"/>
+        <v>-46070.922935779818</v>
+      </c>
+      <c r="P85">
         <f t="shared" si="12"/>
         <v>-7537.6</v>
       </c>
-      <c r="K85">
+      <c r="Q85">
         <f t="shared" si="12"/>
         <v>-3687.8</v>
       </c>
-      <c r="M85">
-        <v>84</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="9"/>
-        <v>-40875.181651376144</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="9"/>
-        <v>-52162.666055045876</v>
-      </c>
-      <c r="P85">
+      <c r="R85">
         <f t="shared" si="10"/>
-        <v>-7537.6</v>
-      </c>
-      <c r="Q85">
-        <f t="shared" si="10"/>
-        <v>-3687.8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-45532</v>
       </c>
@@ -5501,42 +5841,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-45778.8</v>
       </c>
       <c r="I86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-54166.400000000001</v>
       </c>
       <c r="J86">
+        <f t="shared" si="14"/>
+        <v>-7433.6</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="14"/>
+        <v>-3416.2</v>
+      </c>
+      <c r="M86">
+        <v>85</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="11"/>
+        <v>-32910.102752293584</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="11"/>
+        <v>-46141.941284403671</v>
+      </c>
+      <c r="P86">
         <f t="shared" si="12"/>
         <v>-7433.6</v>
       </c>
-      <c r="K86">
+      <c r="Q86">
         <f t="shared" si="12"/>
         <v>-3416.2</v>
       </c>
-      <c r="M86">
-        <v>85</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="9"/>
-        <v>-41387.166972477069</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="9"/>
-        <v>-52307.078899082568</v>
-      </c>
-      <c r="P86">
+      <c r="R86">
         <f t="shared" si="10"/>
-        <v>-7433.6</v>
-      </c>
-      <c r="Q86">
-        <f t="shared" si="10"/>
-        <v>-3416.2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-46846</v>
       </c>
@@ -5553,42 +5897,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-46567.6</v>
       </c>
       <c r="I87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-54336.4</v>
       </c>
       <c r="J87">
+        <f t="shared" si="14"/>
+        <v>-7271.2</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="14"/>
+        <v>-3144.6</v>
+      </c>
+      <c r="M87">
+        <v>86</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="11"/>
+        <v>-33568.370642201837</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="11"/>
+        <v>-46212.959633027524</v>
+      </c>
+      <c r="P87">
         <f t="shared" si="12"/>
         <v>-7271.2</v>
       </c>
-      <c r="K87">
+      <c r="Q87">
         <f t="shared" si="12"/>
         <v>-3144.6</v>
       </c>
-      <c r="M87">
-        <v>86</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="9"/>
-        <v>-42146.352293577977</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="9"/>
-        <v>-52451.491743119266</v>
-      </c>
-      <c r="P87">
+      <c r="R87">
         <f t="shared" si="10"/>
-        <v>-7271.2</v>
-      </c>
-      <c r="Q87">
-        <f t="shared" si="10"/>
-        <v>-3144.6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-46846</v>
       </c>
@@ -5605,42 +5953,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-47077.599999999999</v>
       </c>
       <c r="I88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-54467.199999999997</v>
       </c>
       <c r="J88">
+        <f t="shared" si="14"/>
+        <v>-7159</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="14"/>
+        <v>-2918.2</v>
+      </c>
+      <c r="M88">
+        <v>87</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="11"/>
+        <v>-33947.838532110094</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="11"/>
+        <v>-46244.777981651372</v>
+      </c>
+      <c r="P88">
         <f t="shared" si="12"/>
         <v>-7159</v>
       </c>
-      <c r="K88">
+      <c r="Q88">
         <f t="shared" si="12"/>
         <v>-2918.2</v>
       </c>
-      <c r="M88">
-        <v>87</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="9"/>
-        <v>-42626.737614678896</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="9"/>
-        <v>-52556.70458715596</v>
-      </c>
-      <c r="P88">
+      <c r="R88">
         <f t="shared" si="10"/>
-        <v>-7159</v>
-      </c>
-      <c r="Q88">
-        <f t="shared" si="10"/>
-        <v>-2918.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-48082</v>
       </c>
@@ -5657,42 +6009,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-47817.8</v>
       </c>
       <c r="I89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-54598</v>
       </c>
       <c r="J89">
+        <f t="shared" si="14"/>
+        <v>-6976</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="14"/>
+        <v>-2691.8</v>
+      </c>
+      <c r="M89">
+        <v>88</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="11"/>
+        <v>-34557.506422018356</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="11"/>
+        <v>-46276.596330275228</v>
+      </c>
+      <c r="P89">
         <f t="shared" si="12"/>
         <v>-6976</v>
       </c>
-      <c r="K89">
+      <c r="Q89">
         <f t="shared" si="12"/>
         <v>-2691.8</v>
       </c>
-      <c r="M89">
-        <v>88</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="9"/>
-        <v>-43337.322935779819</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="9"/>
-        <v>-52661.917431192662</v>
-      </c>
-      <c r="P89">
+      <c r="R89">
         <f t="shared" si="10"/>
-        <v>-6976</v>
-      </c>
-      <c r="Q89">
-        <f t="shared" si="10"/>
-        <v>-2691.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-48082</v>
       </c>
@@ -5709,42 +6065,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-48295.199999999997</v>
       </c>
       <c r="I90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-54768</v>
       </c>
       <c r="J90">
+        <f t="shared" si="14"/>
+        <v>-6846.8</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="14"/>
+        <v>-2383.4</v>
+      </c>
+      <c r="M90">
+        <v>89</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="11"/>
+        <v>-34904.3743119266</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="11"/>
+        <v>-46347.614678899081</v>
+      </c>
+      <c r="P90">
         <f t="shared" si="12"/>
         <v>-6846.8</v>
       </c>
-      <c r="K90">
+      <c r="Q90">
         <f t="shared" si="12"/>
         <v>-2383.4</v>
       </c>
-      <c r="M90">
-        <v>89</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="9"/>
-        <v>-43785.108256880732</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="9"/>
-        <v>-52806.33027522936</v>
-      </c>
-      <c r="P90">
+      <c r="R90">
         <f t="shared" si="10"/>
-        <v>-6846.8</v>
-      </c>
-      <c r="Q90">
-        <f t="shared" si="10"/>
-        <v>-2383.4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-49233</v>
       </c>
@@ -5761,42 +6121,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-48977</v>
       </c>
       <c r="I91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-54861.8</v>
       </c>
       <c r="J91">
+        <f t="shared" si="14"/>
+        <v>-6627.6</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="14"/>
+        <v>-2202.1999999999998</v>
+      </c>
+      <c r="M91">
+        <v>90</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="11"/>
+        <v>-35455.642201834868</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="11"/>
+        <v>-46342.433027522937</v>
+      </c>
+      <c r="P91">
         <f t="shared" si="12"/>
         <v>-6627.6</v>
       </c>
-      <c r="K91">
+      <c r="Q91">
         <f t="shared" si="12"/>
         <v>-2202.1999999999998</v>
       </c>
-      <c r="M91">
-        <v>90</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="9"/>
-        <v>-44437.293577981654</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="9"/>
-        <v>-52874.543119266062</v>
-      </c>
-      <c r="P91">
+      <c r="R91">
         <f t="shared" si="10"/>
-        <v>-6627.6</v>
-      </c>
-      <c r="Q91">
-        <f t="shared" si="10"/>
-        <v>-2202.1999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-49233</v>
       </c>
@@ -5813,42 +6177,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-49411.6</v>
       </c>
       <c r="I92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-54986</v>
       </c>
       <c r="J92">
+        <f t="shared" si="14"/>
+        <v>-6466.8</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="14"/>
+        <v>-1945.8</v>
+      </c>
+      <c r="M92">
+        <v>91</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="11"/>
+        <v>-35759.710091743123</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="11"/>
+        <v>-46367.651376146787</v>
+      </c>
+      <c r="P92">
         <f t="shared" si="12"/>
         <v>-6466.8</v>
       </c>
-      <c r="K92">
+      <c r="Q92">
         <f t="shared" si="12"/>
         <v>-1945.8</v>
       </c>
-      <c r="M92">
-        <v>91</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="9"/>
-        <v>-44842.278899082565</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="9"/>
-        <v>-52973.15596330275</v>
-      </c>
-      <c r="P92">
+      <c r="R92">
         <f t="shared" si="10"/>
-        <v>-6466.8</v>
-      </c>
-      <c r="Q92">
-        <f t="shared" si="10"/>
-        <v>-1945.8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-50255</v>
       </c>
@@ -5865,42 +6233,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-50016.800000000003</v>
       </c>
       <c r="I93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-55055.6</v>
       </c>
       <c r="J93">
+        <f t="shared" si="14"/>
+        <v>-6198.8</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="14"/>
+        <v>-1788.6</v>
+      </c>
+      <c r="M93">
+        <v>92</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="11"/>
+        <v>-36234.377981651378</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="11"/>
+        <v>-46338.269724770638</v>
+      </c>
+      <c r="P93">
         <f t="shared" si="12"/>
         <v>-6198.8</v>
       </c>
-      <c r="K93">
+      <c r="Q93">
         <f t="shared" si="12"/>
         <v>-1788.6</v>
       </c>
-      <c r="M93">
-        <v>92</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="9"/>
-        <v>-45417.864220183488</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="9"/>
-        <v>-53017.168807339447</v>
-      </c>
-      <c r="P93">
+      <c r="R93">
         <f t="shared" si="10"/>
-        <v>-6198.8</v>
-      </c>
-      <c r="Q93">
-        <f t="shared" si="10"/>
-        <v>-1788.6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-50255</v>
       </c>
@@ -5917,42 +6289,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-50391.8</v>
       </c>
       <c r="I94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-55149.4</v>
       </c>
       <c r="J94">
+        <f t="shared" si="14"/>
+        <v>-6001.6</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="14"/>
+        <v>-1561.6</v>
+      </c>
+      <c r="M94">
+        <v>93</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="11"/>
+        <v>-36478.845871559635</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="11"/>
+        <v>-46333.088073394494</v>
+      </c>
+      <c r="P94">
         <f t="shared" si="12"/>
         <v>-6001.6</v>
       </c>
-      <c r="K94">
+      <c r="Q94">
         <f t="shared" si="12"/>
         <v>-1561.6</v>
       </c>
-      <c r="M94">
-        <v>93</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="9"/>
-        <v>-45763.249541284407</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="9"/>
-        <v>-53085.381651376149</v>
-      </c>
-      <c r="P94">
+      <c r="R94">
         <f t="shared" si="10"/>
-        <v>-6001.6</v>
-      </c>
-      <c r="Q94">
-        <f t="shared" si="10"/>
-        <v>-1561.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-51108</v>
       </c>
@@ -5969,42 +6345,46 @@
         <v>0.46820867100000002</v>
       </c>
       <c r="H95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-50891</v>
       </c>
       <c r="I95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-55204</v>
       </c>
       <c r="J95">
+        <f t="shared" si="14"/>
+        <v>-5667</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="14"/>
+        <v>-1416.6</v>
+      </c>
+      <c r="M95">
+        <v>94</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="11"/>
+        <v>-36847.51376146789</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="11"/>
+        <v>-46288.706422018353</v>
+      </c>
+      <c r="P95">
         <f t="shared" si="12"/>
         <v>-5667</v>
       </c>
-      <c r="K95">
+      <c r="Q95">
         <f t="shared" si="12"/>
         <v>-1416.6</v>
       </c>
-      <c r="M95">
-        <v>94</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="9"/>
-        <v>-46232.834862385324</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="9"/>
-        <v>-53114.394495412846</v>
-      </c>
-      <c r="P95">
+      <c r="R95">
         <f t="shared" si="10"/>
-        <v>-5667</v>
-      </c>
-      <c r="Q95">
-        <f t="shared" si="10"/>
-        <v>-1416.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.46820867100000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>-51108</v>
       </c>
@@ -6021,42 +6401,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-51185.8</v>
       </c>
       <c r="I96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-55276.6</v>
       </c>
       <c r="J96">
+        <f t="shared" si="14"/>
+        <v>-5422.4</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="14"/>
+        <v>-1212.8</v>
+      </c>
+      <c r="M96">
+        <v>95</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="11"/>
+        <v>-37011.78165137615</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="11"/>
+        <v>-46262.324770642197</v>
+      </c>
+      <c r="P96">
         <f t="shared" si="12"/>
         <v>-5422.4</v>
       </c>
-      <c r="K96">
+      <c r="Q96">
         <f t="shared" si="12"/>
         <v>-1212.8</v>
       </c>
-      <c r="M96">
-        <v>95</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="9"/>
-        <v>-46498.020183486238</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="9"/>
-        <v>-53161.407339449543</v>
-      </c>
-      <c r="P96">
+      <c r="R96">
         <f t="shared" si="10"/>
-        <v>-5422.4</v>
-      </c>
-      <c r="Q96">
-        <f t="shared" si="10"/>
-        <v>-1212.8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-51729</v>
       </c>
@@ -6073,42 +6457,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-51570.6</v>
       </c>
       <c r="I97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-55318.8</v>
       </c>
       <c r="J97">
+        <f t="shared" si="14"/>
+        <v>-5021.2</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="14"/>
+        <v>-1084.2</v>
+      </c>
+      <c r="M97">
+        <v>96</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="11"/>
+        <v>-37266.049541284403</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="11"/>
+        <v>-46205.543119266062</v>
+      </c>
+      <c r="P97">
         <f t="shared" si="12"/>
         <v>-5021.2</v>
       </c>
-      <c r="K97">
+      <c r="Q97">
         <f t="shared" si="12"/>
         <v>-1084.2</v>
       </c>
-      <c r="M97">
-        <v>96</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="9"/>
-        <v>-46853.205504587153</v>
-      </c>
-      <c r="O97">
-        <f t="shared" si="9"/>
-        <v>-53178.020183486238</v>
-      </c>
-      <c r="P97">
+      <c r="R97">
         <f t="shared" si="10"/>
-        <v>-5021.2</v>
-      </c>
-      <c r="Q97">
-        <f t="shared" si="10"/>
-        <v>-1084.2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-51729</v>
       </c>
@@ -6125,42 +6513,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-51784.800000000003</v>
       </c>
       <c r="I98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-55372.2</v>
       </c>
       <c r="J98">
+        <f t="shared" si="14"/>
+        <v>-4727.2</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="14"/>
+        <v>-912</v>
+      </c>
+      <c r="M98">
+        <v>97</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="11"/>
+        <v>-37349.717431192665</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="11"/>
+        <v>-46159.961467889909</v>
+      </c>
+      <c r="P98">
         <f t="shared" si="12"/>
         <v>-4727.2</v>
       </c>
-      <c r="K98">
+      <c r="Q98">
         <f t="shared" si="12"/>
         <v>-912</v>
       </c>
-      <c r="M98">
-        <v>97</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="9"/>
-        <v>-47037.790825688076</v>
-      </c>
-      <c r="O98">
-        <f t="shared" si="9"/>
-        <v>-53205.833027522931</v>
-      </c>
-      <c r="P98">
+      <c r="R98">
         <f t="shared" si="10"/>
-        <v>-4727.2</v>
-      </c>
-      <c r="Q98">
-        <f t="shared" si="10"/>
-        <v>-912</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-52179</v>
       </c>
@@ -6177,42 +6569,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-52070.400000000001</v>
       </c>
       <c r="I99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-55401.4</v>
       </c>
       <c r="J99">
+        <f t="shared" si="14"/>
+        <v>-4274.2</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="14"/>
+        <v>-809.6</v>
+      </c>
+      <c r="M99">
+        <v>98</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="11"/>
+        <v>-37504.785321100921</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="11"/>
+        <v>-46090.179816513759</v>
+      </c>
+      <c r="P99">
         <f t="shared" si="12"/>
         <v>-4274.2</v>
       </c>
-      <c r="K99">
+      <c r="Q99">
         <f t="shared" si="12"/>
         <v>-809.6</v>
       </c>
-      <c r="M99">
-        <v>98</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="9"/>
-        <v>-47293.776146788994</v>
-      </c>
-      <c r="O99">
-        <f t="shared" si="9"/>
-        <v>-53209.445871559634</v>
-      </c>
-      <c r="P99">
+      <c r="R99">
         <f t="shared" si="10"/>
-        <v>-4274.2</v>
-      </c>
-      <c r="Q99">
-        <f t="shared" si="10"/>
-        <v>-809.6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>-52179</v>
       </c>
@@ -6229,42 +6625,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-52231.8</v>
       </c>
       <c r="I100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-55437.599999999999</v>
       </c>
       <c r="J100">
+        <f t="shared" si="14"/>
+        <v>-3958.6</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="14"/>
+        <v>-675</v>
+      </c>
+      <c r="M100">
+        <v>99</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="11"/>
+        <v>-37535.653211009179</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="11"/>
+        <v>-46027.398165137616</v>
+      </c>
+      <c r="P100">
         <f t="shared" si="12"/>
         <v>-3958.6</v>
       </c>
-      <c r="K100">
+      <c r="Q100">
         <f t="shared" si="12"/>
         <v>-675</v>
       </c>
-      <c r="M100">
-        <v>99</v>
-      </c>
-      <c r="N100">
-        <f t="shared" si="9"/>
-        <v>-47425.561467889915</v>
-      </c>
-      <c r="O100">
-        <f t="shared" si="9"/>
-        <v>-53220.058715596329</v>
-      </c>
-      <c r="P100">
+      <c r="R100">
         <f t="shared" si="10"/>
-        <v>-3958.6</v>
-      </c>
-      <c r="Q100">
-        <f t="shared" si="10"/>
-        <v>-675</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-52536</v>
       </c>
@@ -6281,42 +6681,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H101">
-        <f t="shared" ref="H101:K109" si="13">AVERAGE(A99:A103)</f>
+        <f t="shared" ref="H101:K109" si="15">AVERAGE(A99:A103)</f>
         <v>-52452</v>
       </c>
       <c r="I101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-55455.8</v>
       </c>
       <c r="J101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-3497</v>
       </c>
       <c r="K101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-599.20000000000005</v>
       </c>
       <c r="M101">
         <v>100</v>
       </c>
       <c r="N101">
-        <f t="shared" si="9"/>
-        <v>-47616.146788990824</v>
+        <f t="shared" si="11"/>
+        <v>-37625.321100917434</v>
       </c>
       <c r="O101">
-        <f t="shared" si="9"/>
-        <v>-53212.671559633032</v>
+        <f t="shared" si="11"/>
+        <v>-45946.616513761473</v>
       </c>
       <c r="P101">
+        <f t="shared" si="12"/>
+        <v>-3497</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="12"/>
+        <v>-599.20000000000005</v>
+      </c>
+      <c r="R101">
         <f t="shared" si="10"/>
-        <v>-3497</v>
-      </c>
-      <c r="Q101">
-        <f t="shared" si="10"/>
-        <v>-599.20000000000005</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>-52536</v>
       </c>
@@ -6333,42 +6737,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-52582.2</v>
       </c>
       <c r="I102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-55476.2</v>
       </c>
       <c r="J102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-3192</v>
       </c>
       <c r="K102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-494.8</v>
       </c>
       <c r="M102">
         <v>101</v>
       </c>
       <c r="N102">
-        <f t="shared" si="9"/>
-        <v>-47716.73211009174</v>
+        <f t="shared" si="11"/>
+        <v>-37624.988990825688</v>
       </c>
       <c r="O102">
-        <f t="shared" si="9"/>
-        <v>-53207.484403669725</v>
+        <f t="shared" si="11"/>
+        <v>-45868.034862385321</v>
       </c>
       <c r="P102">
+        <f t="shared" si="12"/>
+        <v>-3192</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="12"/>
+        <v>-494.8</v>
+      </c>
+      <c r="R102">
         <f t="shared" si="10"/>
-        <v>-3192</v>
-      </c>
-      <c r="Q102">
-        <f t="shared" si="10"/>
-        <v>-494.8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-52830</v>
       </c>
@@ -6385,42 +6793,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-52751.8</v>
       </c>
       <c r="I103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-55485.4</v>
       </c>
       <c r="J103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2755</v>
       </c>
       <c r="K103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-434</v>
       </c>
       <c r="M103">
         <v>102</v>
       </c>
       <c r="N103">
-        <f t="shared" si="9"/>
-        <v>-47856.717431192665</v>
+        <f t="shared" si="11"/>
+        <v>-37664.056880733951</v>
       </c>
       <c r="O103">
-        <f t="shared" si="9"/>
-        <v>-53191.097247706421</v>
+        <f t="shared" si="11"/>
+        <v>-45778.253211009178</v>
       </c>
       <c r="P103">
+        <f t="shared" si="12"/>
+        <v>-2755</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="12"/>
+        <v>-434</v>
+      </c>
+      <c r="R103">
         <f t="shared" si="10"/>
-        <v>-2755</v>
-      </c>
-      <c r="Q103">
-        <f t="shared" si="10"/>
-        <v>-434</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-52830</v>
       </c>
@@ -6437,42 +6849,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-52850</v>
       </c>
       <c r="I104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-55494.6</v>
       </c>
       <c r="J104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2477</v>
       </c>
       <c r="K104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-347.6</v>
       </c>
       <c r="M104">
         <v>103</v>
       </c>
       <c r="N104">
-        <f t="shared" si="9"/>
-        <v>-47925.302752293581</v>
+        <f t="shared" si="11"/>
+        <v>-37631.724770642206</v>
       </c>
       <c r="O104">
-        <f t="shared" si="9"/>
-        <v>-53174.710091743116</v>
+        <f t="shared" si="11"/>
+        <v>-45688.471559633028</v>
       </c>
       <c r="P104">
+        <f t="shared" si="12"/>
+        <v>-2477</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="12"/>
+        <v>-347.6</v>
+      </c>
+      <c r="R104">
         <f t="shared" si="10"/>
-        <v>-2477</v>
-      </c>
-      <c r="Q104">
-        <f t="shared" si="10"/>
-        <v>-347.6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>-53027</v>
       </c>
@@ -6489,42 +6905,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-52965.8</v>
       </c>
       <c r="I105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-55496.800000000003</v>
       </c>
       <c r="J105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2091.4</v>
       </c>
       <c r="K105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-293.39999999999998</v>
       </c>
       <c r="M105">
         <v>104</v>
       </c>
       <c r="N105">
-        <f t="shared" si="9"/>
-        <v>-48011.488073394496</v>
+        <f t="shared" si="11"/>
+        <v>-37616.992660550459</v>
       </c>
       <c r="O105">
-        <f t="shared" si="9"/>
-        <v>-53151.322935779819</v>
+        <f t="shared" si="11"/>
+        <v>-45591.689908256885</v>
       </c>
       <c r="P105">
+        <f t="shared" si="12"/>
+        <v>-2091.4</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="12"/>
+        <v>-293.39999999999998</v>
+      </c>
+      <c r="R105">
         <f t="shared" si="10"/>
-        <v>-2091.4</v>
-      </c>
-      <c r="Q105">
-        <f t="shared" si="10"/>
-        <v>-293.39999999999998</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>-53027</v>
       </c>
@@ -6541,42 +6961,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-53022.8</v>
       </c>
       <c r="I106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-55499</v>
       </c>
       <c r="J106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1851.8</v>
       </c>
       <c r="K106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-239.2</v>
       </c>
       <c r="M106">
         <v>105</v>
       </c>
       <c r="N106">
-        <f t="shared" si="9"/>
-        <v>-48038.873394495415</v>
+        <f t="shared" si="11"/>
+        <v>-37543.460550458723</v>
       </c>
       <c r="O106">
-        <f t="shared" si="9"/>
-        <v>-53127.935779816515</v>
+        <f t="shared" si="11"/>
+        <v>-45494.908256880735</v>
       </c>
       <c r="P106">
+        <f t="shared" si="12"/>
+        <v>-1851.8</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="12"/>
+        <v>-239.2</v>
+      </c>
+      <c r="R106">
         <f t="shared" si="10"/>
-        <v>-1851.8</v>
-      </c>
-      <c r="Q106">
-        <f t="shared" si="10"/>
-        <v>-239.2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>-53115</v>
       </c>
@@ -6593,42 +7017,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-53083.199999999997</v>
       </c>
       <c r="I107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-55499</v>
       </c>
       <c r="J107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1525.4</v>
       </c>
       <c r="K107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-179</v>
       </c>
       <c r="M107">
         <v>106</v>
       </c>
       <c r="N107">
-        <f t="shared" si="9"/>
-        <v>-48069.658715596328</v>
+        <f t="shared" si="11"/>
+        <v>-37473.328440366968</v>
       </c>
       <c r="O107">
-        <f t="shared" si="9"/>
-        <v>-53102.348623853213</v>
+        <f t="shared" si="11"/>
+        <v>-45395.926605504588</v>
       </c>
       <c r="P107">
+        <f t="shared" si="12"/>
+        <v>-1525.4</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="12"/>
+        <v>-179</v>
+      </c>
+      <c r="R107">
         <f t="shared" si="10"/>
-        <v>-1525.4</v>
-      </c>
-      <c r="Q107">
-        <f t="shared" si="10"/>
-        <v>-179</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>-53115</v>
       </c>
@@ -6645,42 +7073,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-53104.2</v>
       </c>
       <c r="I108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-55499</v>
       </c>
       <c r="J108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1331</v>
       </c>
       <c r="K108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-118.8</v>
       </c>
       <c r="M108">
         <v>107</v>
       </c>
       <c r="N108">
-        <f t="shared" si="9"/>
-        <v>-48061.044036697247</v>
+        <f t="shared" si="11"/>
+        <v>-37363.796330275232</v>
       </c>
       <c r="O108">
-        <f t="shared" si="9"/>
-        <v>-53076.761467889912</v>
+        <f t="shared" si="11"/>
+        <v>-45296.944954128441</v>
       </c>
       <c r="P108">
+        <f t="shared" si="12"/>
+        <v>-1331</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="12"/>
+        <v>-118.8</v>
+      </c>
+      <c r="R108">
         <f t="shared" si="10"/>
-        <v>-1331</v>
-      </c>
-      <c r="Q108">
-        <f t="shared" si="10"/>
-        <v>-118.8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>-53132</v>
       </c>
@@ -6697,42 +7129,46 @@
         <v>0.43797737399999997</v>
       </c>
       <c r="H109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-53125.2</v>
       </c>
       <c r="I109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-55499</v>
       </c>
       <c r="J109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1060.2</v>
       </c>
       <c r="K109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-60.4</v>
       </c>
       <c r="M109">
         <v>108</v>
       </c>
       <c r="N109">
-        <f t="shared" si="9"/>
-        <v>-48052.429357798159</v>
+        <f t="shared" si="11"/>
+        <v>-37254.264220183482</v>
       </c>
       <c r="O109">
-        <f t="shared" si="9"/>
-        <v>-53051.174311926603</v>
+        <f t="shared" si="11"/>
+        <v>-45197.963302752294</v>
       </c>
       <c r="P109">
+        <f t="shared" si="12"/>
+        <v>-1060.2</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="12"/>
+        <v>-60.4</v>
+      </c>
+      <c r="R109">
         <f t="shared" si="10"/>
-        <v>-1060.2</v>
-      </c>
-      <c r="Q109">
-        <f t="shared" si="10"/>
-        <v>-60.4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>-53132</v>
       </c>
@@ -6753,38 +7189,42 @@
         <v>-53132</v>
       </c>
       <c r="I110">
-        <f t="shared" ref="I110:K110" si="14">AVERAGE(B109:B111)</f>
+        <f t="shared" ref="I110:K110" si="16">AVERAGE(B109:B111)</f>
         <v>-55499</v>
       </c>
       <c r="J110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-835.66666666666663</v>
       </c>
       <c r="K110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>24.666666666666668</v>
       </c>
       <c r="M110">
         <v>109</v>
       </c>
       <c r="N110">
-        <f t="shared" si="9"/>
-        <v>-48029.614678899081</v>
+        <f t="shared" si="11"/>
+        <v>-37130.532110091743</v>
       </c>
       <c r="O110">
-        <f t="shared" si="9"/>
-        <v>-53025.587155963301</v>
+        <f t="shared" si="11"/>
+        <v>-45098.981651376147</v>
       </c>
       <c r="P110">
+        <f t="shared" si="12"/>
+        <v>-835.66666666666663</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="12"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="R110">
         <f t="shared" si="10"/>
-        <v>-835.66666666666663</v>
-      </c>
-      <c r="Q110">
-        <f t="shared" si="10"/>
-        <v>24.666666666666668</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>-53132</v>
       </c>
@@ -6805,38 +7245,42 @@
         <v>-53132</v>
       </c>
       <c r="I111">
-        <f t="shared" ref="I111:K111" si="15">B111</f>
+        <f t="shared" ref="I111:K111" si="17">B111</f>
         <v>-55499</v>
       </c>
       <c r="J111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-581</v>
       </c>
       <c r="K111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="M111">
         <v>110</v>
       </c>
       <c r="N111">
-        <f t="shared" si="9"/>
-        <v>-48000</v>
+        <f t="shared" si="11"/>
+        <v>-37000</v>
       </c>
       <c r="O111">
-        <f t="shared" si="9"/>
-        <v>-53000</v>
+        <f t="shared" si="11"/>
+        <v>-45000</v>
       </c>
       <c r="P111">
+        <f t="shared" si="12"/>
+        <v>-581</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="12"/>
+        <v>104</v>
+      </c>
+      <c r="R111">
         <f t="shared" si="10"/>
-        <v>-581</v>
-      </c>
-      <c r="Q111">
-        <f t="shared" si="10"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43797737399999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M112">
         <v>111</v>
       </c>
@@ -10825,7 +11269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754E4EB7-BFB9-4631-9C27-652F106B88A8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>

--- a/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
+++ b/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SHARED\FRC2023\ROBOT_CODE\AlexanderGCowbell\src\main\java\frc\data\mp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FCEF30-70C7-4106-AAC2-3FB0454FCA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF0DB51-A410-4A1F-8ADE-F8186774BF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="0" windowWidth="18900" windowHeight="14895" tabRatio="1000" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreConeHigh" sheetId="3" r:id="rId1"/>
@@ -8468,8 +8468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752DA2FE-56D1-4F82-A910-2BE20092F8F9}">
   <dimension ref="A1:V280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="G39" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8626,11 +8626,11 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:O18" si="3">H3+U$9 +($M2*U$10)</f>
-        <v>-4558.5476190476193</v>
+        <v>-4418.7083333333339</v>
       </c>
       <c r="O3">
         <f t="shared" si="3"/>
-        <v>10355.101190476191</v>
+        <v>10355.29761904762</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:Q58" si="4">J3</f>
@@ -8691,11 +8691,11 @@
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>-4640.0285714285719</v>
+        <v>-4360.3500000000004</v>
       </c>
       <c r="O4">
         <f t="shared" si="3"/>
-        <v>10372.335714285713</v>
+        <v>10372.72857142857</v>
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
@@ -8713,10 +8713,10 @@
         <v>8</v>
       </c>
       <c r="U4" s="2">
-        <v>-8000</v>
+        <v>-169</v>
       </c>
       <c r="V4" s="3">
-        <v>20000</v>
+        <v>20011</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -8756,11 +8756,11 @@
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>-4742.6428571428569</v>
+        <v>-4323.125</v>
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>10438.503571428571</v>
+        <v>10439.092857142858</v>
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
@@ -8823,11 +8823,11 @@
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>-4811.8571428571431</v>
+        <v>-4252.5</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>10490.471428571429</v>
+        <v>10491.257142857143</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
@@ -8890,11 +8890,11 @@
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>-4889.0714285714284</v>
+        <v>-4189.875</v>
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>10614.839285714286</v>
+        <v>10615.821428571429</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
@@ -8957,11 +8957,11 @@
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>-4966.2857142857147</v>
+        <v>-4127.25</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>10739.207142857143</v>
+        <v>10740.385714285714</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
@@ -9013,11 +9013,11 @@
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>-5043.5</v>
+        <v>-4064.625</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>10863.575000000001</v>
+        <v>10864.95</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
@@ -9080,11 +9080,11 @@
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>-5112.3142857142857</v>
+        <v>-3993.6000000000004</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>11029.342857142858</v>
+        <v>11030.914285714287</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
@@ -9103,11 +9103,11 @@
       </c>
       <c r="U10">
         <f>(U4-U6-U9)/(U7-1)</f>
-        <v>-59.214285714285715</v>
+        <v>80.625</v>
       </c>
       <c r="V10">
         <f>(V4-V6-V9)/(V7-1)</f>
-        <v>7.7678571428571432</v>
+        <v>7.9642857142857144</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -9147,11 +9147,11 @@
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>-5181.1285714285723</v>
+        <v>-3922.5750000000007</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>11195.110714285714</v>
+        <v>11196.878571428571</v>
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
@@ -9203,11 +9203,11 @@
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>-5241.9428571428562</v>
+        <v>-3843.5499999999993</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>11378.878571428571</v>
+        <v>11380.842857142858</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
@@ -9259,11 +9259,11 @@
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>-5299.3571428571431</v>
+        <v>-3761.125</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>11562.64642857143</v>
+        <v>11564.807142857144</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
@@ -9315,11 +9315,11 @@
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>-5357.3714285714277</v>
+        <v>-3679.2999999999993</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>11842.814285714287</v>
+        <v>11845.17142857143</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
@@ -9371,11 +9371,11 @@
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>-5413.7857142857147</v>
+        <v>-3595.875</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>12037.382142857143</v>
+        <v>12039.935714285713</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
@@ -9427,11 +9427,11 @@
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>-5470.2000000000007</v>
+        <v>-3512.4500000000007</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>12337.35</v>
+        <v>12340.1</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
@@ -9483,11 +9483,11 @@
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>-5526.6142857142859</v>
+        <v>-3429.0249999999996</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>12546.917857142857</v>
+        <v>12549.864285714286</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
@@ -9539,11 +9539,11 @@
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>-5586.4285714285716</v>
+        <v>-3349</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>12756.485714285714</v>
+        <v>12759.628571428571</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
@@ -9595,11 +9595,11 @@
       </c>
       <c r="N19">
         <f t="shared" ref="N19:O34" si="7">H19+U$9 +($M18*U$10)</f>
-        <v>-5645.6428571428569</v>
+        <v>-3268.375</v>
       </c>
       <c r="O19">
         <f t="shared" si="7"/>
-        <v>12985.053571428571</v>
+        <v>12988.392857142857</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
@@ -9651,11 +9651,11 @@
       </c>
       <c r="N20">
         <f t="shared" si="7"/>
-        <v>-5704.8571428571431</v>
+        <v>-3187.75</v>
       </c>
       <c r="O20">
         <f t="shared" si="7"/>
-        <v>13213.621428571429</v>
+        <v>13217.157142857142</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
@@ -9707,11 +9707,11 @@
       </c>
       <c r="N21">
         <f t="shared" si="7"/>
-        <v>-5764.0714285714284</v>
+        <v>-3107.125</v>
       </c>
       <c r="O21">
         <f t="shared" si="7"/>
-        <v>13452.789285714287</v>
+        <v>13456.52142857143</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
@@ -9763,11 +9763,11 @@
       </c>
       <c r="N22">
         <f t="shared" si="7"/>
-        <v>-5823.2857142857138</v>
+        <v>-3026.5</v>
       </c>
       <c r="O22">
         <f t="shared" si="7"/>
-        <v>13691.957142857143</v>
+        <v>13695.885714285714</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
@@ -9819,11 +9819,11 @@
       </c>
       <c r="N23">
         <f t="shared" si="7"/>
-        <v>-5883.2999999999993</v>
+        <v>-2946.6749999999993</v>
       </c>
       <c r="O23">
         <f t="shared" si="7"/>
-        <v>14042.125</v>
+        <v>14046.25</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
@@ -9875,11 +9875,11 @@
       </c>
       <c r="N24">
         <f t="shared" si="7"/>
-        <v>-5943.3142857142866</v>
+        <v>-2866.8500000000004</v>
       </c>
       <c r="O24">
         <f t="shared" si="7"/>
-        <v>14276.892857142857</v>
+        <v>14281.214285714286</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
@@ -9931,11 +9931,11 @@
       </c>
       <c r="N25">
         <f t="shared" si="7"/>
-        <v>-6007.1285714285723</v>
+        <v>-2790.8250000000007</v>
       </c>
       <c r="O25">
         <f t="shared" si="7"/>
-        <v>14616.460714285713</v>
+        <v>14620.97857142857</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
@@ -9987,11 +9987,11 @@
       </c>
       <c r="N26">
         <f t="shared" si="7"/>
-        <v>-6070.9428571428562</v>
+        <v>-2714.7999999999993</v>
       </c>
       <c r="O26">
         <f t="shared" si="7"/>
-        <v>14840.028571428569</v>
+        <v>14844.742857142855</v>
       </c>
       <c r="P26">
         <f t="shared" si="4"/>
@@ -10043,11 +10043,11 @@
       </c>
       <c r="N27">
         <f t="shared" si="7"/>
-        <v>-6139.5571428571438</v>
+        <v>-2643.5750000000007</v>
       </c>
       <c r="O27">
         <f t="shared" si="7"/>
-        <v>15160.996428571429</v>
+        <v>15165.907142857142</v>
       </c>
       <c r="P27">
         <f t="shared" si="4"/>
@@ -10099,11 +10099,11 @@
       </c>
       <c r="N28">
         <f t="shared" si="7"/>
-        <v>-6207.3714285714277</v>
+        <v>-2571.5499999999993</v>
       </c>
       <c r="O28">
         <f t="shared" si="7"/>
-        <v>15370.964285714286</v>
+        <v>15376.071428571429</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
@@ -10155,11 +10155,11 @@
       </c>
       <c r="N29">
         <f t="shared" si="7"/>
-        <v>-6275.1857142857134</v>
+        <v>-2499.5249999999996</v>
       </c>
       <c r="O29">
         <f t="shared" si="7"/>
-        <v>15671.932142857144</v>
+        <v>15677.235714285714</v>
       </c>
       <c r="P29">
         <f t="shared" si="4"/>
@@ -10211,11 +10211,11 @@
       </c>
       <c r="N30">
         <f t="shared" si="7"/>
-        <v>-6339.2000000000007</v>
+        <v>-2423.7000000000007</v>
       </c>
       <c r="O30">
         <f t="shared" si="7"/>
-        <v>15868.099999999999</v>
+        <v>15873.599999999999</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
@@ -10267,11 +10267,11 @@
       </c>
       <c r="N31">
         <f t="shared" si="7"/>
-        <v>-6403.0142857142855</v>
+        <v>-2347.6749999999993</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>16235.067857142856</v>
+        <v>16240.764285714286</v>
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
@@ -10323,11 +10323,11 @@
       </c>
       <c r="N32">
         <f t="shared" si="7"/>
-        <v>-6462.0285714285719</v>
+        <v>-2266.8500000000004</v>
       </c>
       <c r="O32">
         <f t="shared" si="7"/>
-        <v>16504.635714285712</v>
+        <v>16510.528571428571</v>
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
@@ -10379,11 +10379,11 @@
       </c>
       <c r="N33">
         <f t="shared" si="7"/>
-        <v>-6520.8428571428576</v>
+        <v>-2185.8250000000007</v>
       </c>
       <c r="O33">
         <f t="shared" si="7"/>
-        <v>16859.803571428572</v>
+        <v>16865.892857142859</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
@@ -10435,11 +10435,11 @@
       </c>
       <c r="N34">
         <f t="shared" si="7"/>
-        <v>-6579.6571428571424</v>
+        <v>-2104.7999999999993</v>
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
-        <v>17123.971428571429</v>
+        <v>17130.257142857143</v>
       </c>
       <c r="P34">
         <f t="shared" si="4"/>
@@ -10491,11 +10491,11 @@
       </c>
       <c r="N35">
         <f t="shared" ref="N35:O50" si="9">H35+U$9 +($M34*U$10)</f>
-        <v>-6638.4714285714281</v>
+        <v>-2023.7749999999996</v>
       </c>
       <c r="O35">
         <f t="shared" si="9"/>
-        <v>17388.139285714286</v>
+        <v>17394.621428571427</v>
       </c>
       <c r="P35">
         <f t="shared" si="4"/>
@@ -10547,11 +10547,11 @@
       </c>
       <c r="N36">
         <f t="shared" si="9"/>
-        <v>-6697.4857142857145</v>
+        <v>-1942.9500000000007</v>
       </c>
       <c r="O36">
         <f t="shared" si="9"/>
-        <v>17563.70714285714</v>
+        <v>17570.385714285712</v>
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
@@ -10603,11 +10603,11 @@
       </c>
       <c r="N37">
         <f t="shared" si="9"/>
-        <v>-6756.5</v>
+        <v>-1862.125</v>
       </c>
       <c r="O37">
         <f t="shared" si="9"/>
-        <v>17739.275000000001</v>
+        <v>17746.150000000001</v>
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
@@ -10659,11 +10659,11 @@
       </c>
       <c r="N38">
         <f t="shared" si="9"/>
-        <v>-6815.7142857142862</v>
+        <v>-1781.5</v>
       </c>
       <c r="O38">
         <f t="shared" si="9"/>
-        <v>17904.242857142857</v>
+        <v>17911.314285714285</v>
       </c>
       <c r="P38">
         <f t="shared" si="4"/>
@@ -10715,11 +10715,11 @@
       </c>
       <c r="N39">
         <f t="shared" si="9"/>
-        <v>-6874.9285714285716</v>
+        <v>-1700.875</v>
       </c>
       <c r="O39">
         <f t="shared" si="9"/>
-        <v>18069.210714285713</v>
+        <v>18076.478571428572</v>
       </c>
       <c r="P39">
         <f t="shared" si="4"/>
@@ -10771,11 +10771,11 @@
       </c>
       <c r="N40">
         <f t="shared" si="9"/>
-        <v>-6934.1428571428569</v>
+        <v>-1620.25</v>
       </c>
       <c r="O40">
         <f t="shared" si="9"/>
-        <v>18301.778571428571</v>
+        <v>18309.242857142857</v>
       </c>
       <c r="P40">
         <f t="shared" si="4"/>
@@ -10827,11 +10827,11 @@
       </c>
       <c r="N41">
         <f t="shared" si="9"/>
-        <v>-6993.3571428571431</v>
+        <v>-1539.625</v>
       </c>
       <c r="O41">
         <f t="shared" si="9"/>
-        <v>18452.146428571428</v>
+        <v>18459.807142857142</v>
       </c>
       <c r="P41">
         <f t="shared" si="4"/>
@@ -10883,11 +10883,11 @@
       </c>
       <c r="N42">
         <f t="shared" si="9"/>
-        <v>-7052.5714285714284</v>
+        <v>-1459</v>
       </c>
       <c r="O42">
         <f t="shared" si="9"/>
-        <v>18661.314285714285</v>
+        <v>18669.171428571426</v>
       </c>
       <c r="P42">
         <f t="shared" si="4"/>
@@ -10939,11 +10939,11 @@
       </c>
       <c r="N43">
         <f t="shared" si="9"/>
-        <v>-7111.7857142857138</v>
+        <v>-1378.375</v>
       </c>
       <c r="O43">
         <f t="shared" si="9"/>
-        <v>18795.482142857141</v>
+        <v>18803.535714285714</v>
       </c>
       <c r="P43">
         <f t="shared" si="4"/>
@@ -10995,11 +10995,11 @@
       </c>
       <c r="N44">
         <f t="shared" si="9"/>
-        <v>-7171</v>
+        <v>-1297.75</v>
       </c>
       <c r="O44">
         <f t="shared" si="9"/>
-        <v>18978.45</v>
+        <v>18986.7</v>
       </c>
       <c r="P44">
         <f t="shared" si="4"/>
@@ -11051,11 +11051,11 @@
       </c>
       <c r="N45">
         <f t="shared" si="9"/>
-        <v>-7230.2142857142862</v>
+        <v>-1217.125</v>
       </c>
       <c r="O45">
         <f t="shared" si="9"/>
-        <v>19093.817857142858</v>
+        <v>19102.264285714286</v>
       </c>
       <c r="P45">
         <f t="shared" si="4"/>
@@ -11107,11 +11107,11 @@
       </c>
       <c r="N46">
         <f t="shared" si="9"/>
-        <v>-7289.4285714285716</v>
+        <v>-1136.5</v>
       </c>
       <c r="O46">
         <f t="shared" si="9"/>
-        <v>19249.185714285715</v>
+        <v>19257.828571428574</v>
       </c>
       <c r="P46">
         <f t="shared" si="4"/>
@@ -11163,11 +11163,11 @@
       </c>
       <c r="N47">
         <f t="shared" si="9"/>
-        <v>-7348.6428571428569</v>
+        <v>-1055.875</v>
       </c>
       <c r="O47">
         <f t="shared" si="9"/>
-        <v>19345.753571428573</v>
+        <v>19354.592857142859</v>
       </c>
       <c r="P47">
         <f t="shared" si="4"/>
@@ -11219,11 +11219,11 @@
       </c>
       <c r="N48">
         <f t="shared" si="9"/>
-        <v>-7407.8571428571431</v>
+        <v>-975.25</v>
       </c>
       <c r="O48">
         <f t="shared" si="9"/>
-        <v>19474.121428571427</v>
+        <v>19483.157142857141</v>
       </c>
       <c r="P48">
         <f t="shared" si="4"/>
@@ -11275,11 +11275,11 @@
       </c>
       <c r="N49">
         <f t="shared" si="9"/>
-        <v>-7467.0714285714284</v>
+        <v>-894.625</v>
       </c>
       <c r="O49">
         <f t="shared" si="9"/>
-        <v>19553.689285714285</v>
+        <v>19562.921428571426</v>
       </c>
       <c r="P49">
         <f t="shared" si="4"/>
@@ -11331,11 +11331,11 @@
       </c>
       <c r="N50">
         <f t="shared" si="9"/>
-        <v>-7526.2857142857138</v>
+        <v>-814</v>
       </c>
       <c r="O50">
         <f t="shared" si="9"/>
-        <v>19657.657142857141</v>
+        <v>19667.085714285713</v>
       </c>
       <c r="P50">
         <f t="shared" si="4"/>
@@ -11387,11 +11387,11 @@
       </c>
       <c r="N51">
         <f t="shared" ref="N51:O58" si="11">H51+U$9 +($M50*U$10)</f>
-        <v>-7585.5</v>
+        <v>-733.375</v>
       </c>
       <c r="O51">
         <f t="shared" si="11"/>
-        <v>19721.625</v>
+        <v>19731.25</v>
       </c>
       <c r="P51">
         <f t="shared" si="4"/>
@@ -11443,11 +11443,11 @@
       </c>
       <c r="N52">
         <f t="shared" si="11"/>
-        <v>-7644.7142857142862</v>
+        <v>-652.75</v>
       </c>
       <c r="O52">
         <f t="shared" si="11"/>
-        <v>19802.79285714286</v>
+        <v>19812.614285714288</v>
       </c>
       <c r="P52">
         <f t="shared" si="4"/>
@@ -11499,11 +11499,11 @@
       </c>
       <c r="N53">
         <f t="shared" si="11"/>
-        <v>-7703.9285714285716</v>
+        <v>-572.125</v>
       </c>
       <c r="O53">
         <f t="shared" si="11"/>
-        <v>19852.160714285714</v>
+        <v>19862.178571428572</v>
       </c>
       <c r="P53">
         <f t="shared" si="4"/>
@@ -11555,11 +11555,11 @@
       </c>
       <c r="N54">
         <f t="shared" si="11"/>
-        <v>-7763.1428571428569</v>
+        <v>-491.5</v>
       </c>
       <c r="O54">
         <f t="shared" si="11"/>
-        <v>19909.128571428573</v>
+        <v>19919.342857142859</v>
       </c>
       <c r="P54">
         <f t="shared" si="4"/>
@@ -11611,11 +11611,11 @@
       </c>
       <c r="N55">
         <f t="shared" si="11"/>
-        <v>-7822.3571428571431</v>
+        <v>-410.875</v>
       </c>
       <c r="O55">
         <f t="shared" si="11"/>
-        <v>19941.696428571428</v>
+        <v>19952.107142857141</v>
       </c>
       <c r="P55">
         <f t="shared" si="4"/>
@@ -11667,11 +11667,11 @@
       </c>
       <c r="N56">
         <f t="shared" si="11"/>
-        <v>-7881.5714285714284</v>
+        <v>-330.25</v>
       </c>
       <c r="O56">
         <f t="shared" si="11"/>
-        <v>19973.264285714286</v>
+        <v>19983.871428571427</v>
       </c>
       <c r="P56">
         <f t="shared" si="4"/>
@@ -11723,11 +11723,11 @@
       </c>
       <c r="N57">
         <f t="shared" si="11"/>
-        <v>-7940.7857142857138</v>
+        <v>-249.625</v>
       </c>
       <c r="O57">
         <f t="shared" si="11"/>
-        <v>19995.565476190473</v>
+        <v>20006.369047619046</v>
       </c>
       <c r="P57">
         <f t="shared" si="4"/>
@@ -11779,11 +11779,11 @@
       </c>
       <c r="N58">
         <f t="shared" si="11"/>
-        <v>-8000</v>
+        <v>-169</v>
       </c>
       <c r="O58">
         <f t="shared" si="11"/>
-        <v>20000</v>
+        <v>20011</v>
       </c>
       <c r="P58">
         <f t="shared" si="4"/>
@@ -27604,7 +27604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3ECCBA-6D4F-466F-804D-502AE8BB8A06}">
   <dimension ref="A1:V331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1:R1048576"/>
     </sheetView>
   </sheetViews>
@@ -33303,7 +33303,7 @@
         <v>0.114246308803558</v>
       </c>
       <c r="H101">
-        <f t="shared" ref="H101:K105" si="20">AVERAGE(A99:A103)</f>
+        <f t="shared" ref="H101:K104" si="20">AVERAGE(A99:A103)</f>
         <v>-27226.400000000001</v>
       </c>
       <c r="I101">

--- a/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
+++ b/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SHARED\FRC2023\ROBOT_CODE\AlexanderGCowbell\src\main\java\frc\data\mp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D913ACA-A7FD-4BAB-BB05-2FEAD1727CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E6256F-D1F1-4868-B2A3-FE79EA9C0FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreConeHigh" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="17">
   <si>
     <t>proximal_pos</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Pic</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>proximal</t>
   </si>
 </sst>
 </file>
@@ -12916,9 +12922,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8F3C61-007F-4AD8-A4FD-90C2D7D20C99}">
-  <dimension ref="A1:V340"/>
+  <dimension ref="A1:Y340"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:R1048576"/>
     </sheetView>
   </sheetViews>
@@ -12929,7 +12935,7 @@
     <col min="22" max="22" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12977,7 +12983,7 @@
         <v xml:space="preserve"> wrist_pos</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-9022</v>
       </c>
@@ -13038,8 +13044,11 @@
       <c r="V2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-9022</v>
       </c>
@@ -13076,7 +13085,7 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:O18" si="3">H3+U$9 +($M2*U$10)</f>
-        <v>-4462.2181818181816</v>
+        <v>-4498.5818181818186</v>
       </c>
       <c r="O3">
         <f t="shared" si="3"/>
@@ -13103,8 +13112,11 @@
       <c r="V3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-9022</v>
       </c>
@@ -13141,7 +13153,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>-4587.8363636363629</v>
+        <v>-4660.5636363636359</v>
       </c>
       <c r="O4">
         <f t="shared" si="3"/>
@@ -13163,13 +13175,16 @@
         <v>8</v>
       </c>
       <c r="U4" s="2">
-        <v>-45000</v>
+        <v>-49000</v>
       </c>
       <c r="V4" s="3">
         <v>-50000</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-9022</v>
       </c>
@@ -13206,7 +13221,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>-4713.454545454545</v>
+        <v>-4822.545454545454</v>
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
@@ -13236,7 +13251,7 @@
         <v>7122</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-9279</v>
       </c>
@@ -13273,7 +13288,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>-4904.4727272727278</v>
+        <v>-5049.9272727272728</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
@@ -13303,7 +13318,7 @@
         <v>-53408</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-9279</v>
       </c>
@@ -13340,7 +13355,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>-5095.4909090909086</v>
+        <v>-5277.3090909090906</v>
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
@@ -13370,7 +13385,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-9606</v>
       </c>
@@ -13407,7 +13422,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>-5348.5090909090914</v>
+        <v>-5566.6909090909103</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
@@ -13426,7 +13441,7 @@
         <v>0.50346809625625599</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-9606</v>
       </c>
@@ -13463,7 +13478,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>-5550.1272727272735</v>
+        <v>-5804.6727272727276</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
@@ -13493,7 +13508,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-9916</v>
       </c>
@@ -13530,7 +13545,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>-5805.9454545454555</v>
+        <v>-6096.8545454545465</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
@@ -13553,14 +13568,14 @@
       </c>
       <c r="U10">
         <f>(U4-U6-U9)/(U7-1)</f>
-        <v>-74.218181818181819</v>
+        <v>-110.58181818181818</v>
       </c>
       <c r="V10">
         <f>(V4-V6-V9)/(V7-1)</f>
         <v>2.0909090909090908</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-9916</v>
       </c>
@@ -13597,7 +13612,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>-5996.363636363636</v>
+        <v>-6323.6363636363631</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
@@ -13616,7 +13631,7 @@
         <v>0.50346809625625599</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-10187</v>
       </c>
@@ -13653,7 +13668,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>-6237.9818181818173</v>
+        <v>-6601.6181818181813</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
@@ -13672,7 +13687,7 @@
         <v>0.50346809625625599</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-10187</v>
       </c>
@@ -13709,7 +13724,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>-6417.6</v>
+        <v>-6817.6</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
@@ -13728,7 +13743,7 @@
         <v>0.50346809625625599</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-10443</v>
       </c>
@@ -13765,7 +13780,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>-6651.2181818181825</v>
+        <v>-7087.5818181818186</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
@@ -13784,7 +13799,7 @@
         <v>0.50346809625625599</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-10443</v>
       </c>
@@ -13821,7 +13836,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>-6830.6363636363631</v>
+        <v>-7303.363636363636</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
@@ -13840,7 +13855,7 @@
         <v>0.50346809625625599</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-10713</v>
       </c>
@@ -13877,7 +13892,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>-7059.8545454545447</v>
+        <v>-7568.9454545454537</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
@@ -13933,7 +13948,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>-7237.8727272727274</v>
+        <v>-7783.3272727272733</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
@@ -13989,7 +14004,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>-7454.6909090909103</v>
+        <v>-8036.5090909090914</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
@@ -14045,7 +14060,7 @@
       </c>
       <c r="N19">
         <f t="shared" ref="N19:O34" si="7">H19+U$9 +($M18*U$10)</f>
-        <v>-7617.5090909090904</v>
+        <v>-8235.6909090909085</v>
       </c>
       <c r="O19">
         <f t="shared" si="7"/>
@@ -14101,7 +14116,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="7"/>
-        <v>-7808.3272727272724</v>
+        <v>-8462.8727272727265</v>
       </c>
       <c r="O20">
         <f t="shared" si="7"/>
@@ -14157,7 +14172,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="7"/>
-        <v>-7949.3454545454551</v>
+        <v>-8640.254545454547</v>
       </c>
       <c r="O21">
         <f t="shared" si="7"/>
@@ -14213,7 +14228,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="7"/>
-        <v>-8108.9636363636364</v>
+        <v>-8836.2363636363643</v>
       </c>
       <c r="O22">
         <f t="shared" si="7"/>
@@ -14269,7 +14284,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="7"/>
-        <v>-8229.7818181818184</v>
+        <v>-8993.4181818181823</v>
       </c>
       <c r="O23">
         <f t="shared" si="7"/>
@@ -14325,7 +14340,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="7"/>
-        <v>-8363</v>
+        <v>-9163</v>
       </c>
       <c r="O24">
         <f t="shared" si="7"/>
@@ -14381,7 +14396,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="7"/>
-        <v>-8468.2181818181816</v>
+        <v>-9304.5818181818195</v>
       </c>
       <c r="O25">
         <f t="shared" si="7"/>
@@ -14437,7 +14452,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="7"/>
-        <v>-8572.8363636363647</v>
+        <v>-9445.5636363636368</v>
       </c>
       <c r="O26">
         <f t="shared" si="7"/>
@@ -14493,7 +14508,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="7"/>
-        <v>-8658.8545454545456</v>
+        <v>-9567.9454545454537</v>
       </c>
       <c r="O27">
         <f t="shared" si="7"/>
@@ -14549,7 +14564,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="7"/>
-        <v>-8739.4727272727268</v>
+        <v>-9684.9272727272728</v>
       </c>
       <c r="O28">
         <f t="shared" si="7"/>
@@ -14605,7 +14620,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="7"/>
-        <v>-8807.6909090909085</v>
+        <v>-9789.5090909090904</v>
       </c>
       <c r="O29">
         <f t="shared" si="7"/>
@@ -14661,7 +14676,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="7"/>
-        <v>-8872.1090909090908</v>
+        <v>-9890.2909090909088</v>
       </c>
       <c r="O30">
         <f t="shared" si="7"/>
@@ -14717,7 +14732,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="7"/>
-        <v>-8937.1272727272717</v>
+        <v>-9991.6727272727258</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
@@ -14773,7 +14788,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="7"/>
-        <v>-9004.9454545454537</v>
+        <v>-10095.854545454546</v>
       </c>
       <c r="O32">
         <f t="shared" si="7"/>
@@ -14829,7 +14844,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="7"/>
-        <v>-9078.1636363636353</v>
+        <v>-10205.436363636363</v>
       </c>
       <c r="O33">
         <f t="shared" si="7"/>
@@ -14885,7 +14900,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="7"/>
-        <v>-9151.3818181818169</v>
+        <v>-10315.018181818181</v>
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
@@ -14941,7 +14956,7 @@
       </c>
       <c r="N35">
         <f t="shared" ref="N35:O50" si="9">H35+U$9 +($M34*U$10)</f>
-        <v>-9228.4000000000015</v>
+        <v>-10428.400000000001</v>
       </c>
       <c r="O35">
         <f t="shared" si="9"/>
@@ -14997,7 +15012,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="9"/>
-        <v>-9305.4181818181823</v>
+        <v>-10541.781818181818</v>
       </c>
       <c r="O36">
         <f t="shared" si="9"/>
@@ -15053,7 +15068,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="9"/>
-        <v>-9379.4363636363632</v>
+        <v>-10652.163636363635</v>
       </c>
       <c r="O37">
         <f t="shared" si="9"/>
@@ -15109,7 +15124,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="9"/>
-        <v>-9453.454545454546</v>
+        <v>-10762.545454545456</v>
       </c>
       <c r="O38">
         <f t="shared" si="9"/>
@@ -15165,7 +15180,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="9"/>
-        <v>-9527.4727272727268</v>
+        <v>-10872.927272727273</v>
       </c>
       <c r="O39">
         <f t="shared" si="9"/>
@@ -15221,7 +15236,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="9"/>
-        <v>-9601.4909090909096</v>
+        <v>-10983.309090909092</v>
       </c>
       <c r="O40">
         <f t="shared" si="9"/>
@@ -15277,7 +15292,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="9"/>
-        <v>-9678.7090909090912</v>
+        <v>-11096.890909090911</v>
       </c>
       <c r="O41">
         <f t="shared" si="9"/>
@@ -15333,7 +15348,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="9"/>
-        <v>-9756.1272727272735</v>
+        <v>-11210.672727272726</v>
       </c>
       <c r="O42">
         <f t="shared" si="9"/>
@@ -15389,7 +15404,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="9"/>
-        <v>-9870.745454545453</v>
+        <v>-11361.654545454545</v>
       </c>
       <c r="O43">
         <f t="shared" si="9"/>
@@ -15445,7 +15460,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="9"/>
-        <v>-9985.363636363636</v>
+        <v>-11512.636363636364</v>
       </c>
       <c r="O44">
         <f t="shared" si="9"/>
@@ -15501,7 +15516,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="9"/>
-        <v>-10221.581818181819</v>
+        <v>-11785.218181818182</v>
       </c>
       <c r="O45">
         <f t="shared" si="9"/>
@@ -15557,7 +15572,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="9"/>
-        <v>-10454.6</v>
+        <v>-12054.599999999999</v>
       </c>
       <c r="O46">
         <f t="shared" si="9"/>
@@ -15613,7 +15628,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="9"/>
-        <v>-10875.418181818182</v>
+        <v>-12511.781818181818</v>
       </c>
       <c r="O47">
         <f t="shared" si="9"/>
@@ -15669,7 +15684,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="9"/>
-        <v>-11486.636363636364</v>
+        <v>-13159.363636363636</v>
       </c>
       <c r="O48">
         <f t="shared" si="9"/>
@@ -15725,7 +15740,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="9"/>
-        <v>-12097.854545454546</v>
+        <v>-13806.945454545454</v>
       </c>
       <c r="O49">
         <f t="shared" si="9"/>
@@ -15781,7 +15796,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="9"/>
-        <v>-12587.472727272727</v>
+        <v>-14332.927272727273</v>
       </c>
       <c r="O50">
         <f t="shared" si="9"/>
@@ -15837,7 +15852,7 @@
       </c>
       <c r="N51">
         <f t="shared" ref="N51:O66" si="11">H51+U$9 +($M50*U$10)</f>
-        <v>-13077.090909090908</v>
+        <v>-14858.90909090909</v>
       </c>
       <c r="O51">
         <f t="shared" si="11"/>
@@ -15893,7 +15908,7 @@
       </c>
       <c r="N52">
         <f t="shared" si="11"/>
-        <v>-13621.909090909092</v>
+        <v>-15440.090909090908</v>
       </c>
       <c r="O52">
         <f t="shared" si="11"/>
@@ -15949,7 +15964,7 @@
       </c>
       <c r="N53">
         <f t="shared" si="11"/>
-        <v>-13939.127272727274</v>
+        <v>-15793.672727272726</v>
       </c>
       <c r="O53">
         <f t="shared" si="11"/>
@@ -16005,7 +16020,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="11"/>
-        <v>-14486.745454545455</v>
+        <v>-16377.654545454545</v>
       </c>
       <c r="O54">
         <f t="shared" si="11"/>
@@ -16061,7 +16076,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="11"/>
-        <v>-15034.363636363636</v>
+        <v>-16961.636363636364</v>
       </c>
       <c r="O55">
         <f t="shared" si="11"/>
@@ -16117,7 +16132,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="11"/>
-        <v>-15804.981818181819</v>
+        <v>-17768.618181818183</v>
       </c>
       <c r="O56">
         <f t="shared" si="11"/>
@@ -16173,7 +16188,7 @@
       </c>
       <c r="N57">
         <f t="shared" si="11"/>
-        <v>-16332.599999999999</v>
+        <v>-18332.599999999999</v>
       </c>
       <c r="O57">
         <f t="shared" si="11"/>
@@ -16229,7 +16244,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="11"/>
-        <v>-17093.81818181818</v>
+        <v>-19130.181818181816</v>
       </c>
       <c r="O58">
         <f t="shared" si="11"/>
@@ -16285,7 +16300,7 @@
       </c>
       <c r="N59">
         <f t="shared" si="11"/>
-        <v>-17624.636363636364</v>
+        <v>-19697.363636363636</v>
       </c>
       <c r="O59">
         <f t="shared" si="11"/>
@@ -16341,7 +16356,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="11"/>
-        <v>-18392.854545454546</v>
+        <v>-20501.945454545457</v>
       </c>
       <c r="O60">
         <f t="shared" si="11"/>
@@ -16397,7 +16412,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="11"/>
-        <v>-18938.072727272727</v>
+        <v>-21083.527272727275</v>
       </c>
       <c r="O61">
         <f t="shared" si="11"/>
@@ -16453,7 +16468,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="11"/>
-        <v>-19712.890909090907</v>
+        <v>-21894.709090909091</v>
       </c>
       <c r="O62">
         <f t="shared" si="11"/>
@@ -16509,7 +16524,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="11"/>
-        <v>-20254.109090909089</v>
+        <v>-22472.290909090909</v>
       </c>
       <c r="O63">
         <f t="shared" si="11"/>
@@ -16565,7 +16580,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="11"/>
-        <v>-21019.527272727275</v>
+        <v>-23274.072727272727</v>
       </c>
       <c r="O64">
         <f t="shared" si="11"/>
@@ -16621,7 +16636,7 @@
       </c>
       <c r="N65">
         <f t="shared" si="11"/>
-        <v>-21547.545454545456</v>
+        <v>-23838.454545454544</v>
       </c>
       <c r="O65">
         <f t="shared" si="11"/>
@@ -16677,7 +16692,7 @@
       </c>
       <c r="N66">
         <f t="shared" si="11"/>
-        <v>-22304.563636363637</v>
+        <v>-24631.836363636361</v>
       </c>
       <c r="O66">
         <f t="shared" si="11"/>
@@ -16692,7 +16707,7 @@
         <v>-5470.2</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R111" si="13">E66</f>
+        <f t="shared" ref="R66:R109" si="13">E66</f>
         <v>0.44008195400237998</v>
       </c>
     </row>
@@ -16733,14 +16748,14 @@
       </c>
       <c r="N67">
         <f t="shared" ref="N67:O82" si="14">H67+U$9 +($M66*U$10)</f>
-        <v>-22831.981818181819</v>
+        <v>-25195.618181818179</v>
       </c>
       <c r="O67">
         <f t="shared" si="14"/>
         <v>-43548.69090909091</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:Q108" si="15">J67</f>
+        <f t="shared" ref="P67:Q106" si="15">J67</f>
         <v>-5758.2</v>
       </c>
       <c r="Q67">
@@ -16789,7 +16804,7 @@
       </c>
       <c r="N68">
         <f t="shared" si="14"/>
-        <v>-23589</v>
+        <v>-25989</v>
       </c>
       <c r="O68">
         <f t="shared" si="14"/>
@@ -16845,7 +16860,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="14"/>
-        <v>-24121.818181818184</v>
+        <v>-26558.18181818182</v>
       </c>
       <c r="O69">
         <f t="shared" si="14"/>
@@ -16901,7 +16916,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="14"/>
-        <v>-24875.036363636365</v>
+        <v>-27347.763636363637</v>
       </c>
       <c r="O70">
         <f t="shared" si="14"/>
@@ -16957,7 +16972,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="14"/>
-        <v>-25399.254545454547</v>
+        <v>-27908.345454545455</v>
       </c>
       <c r="O71">
         <f t="shared" si="14"/>
@@ -17013,7 +17028,7 @@
       </c>
       <c r="N72">
         <f t="shared" si="14"/>
-        <v>-26132.872727272726</v>
+        <v>-28678.327272727271</v>
       </c>
       <c r="O72">
         <f t="shared" si="14"/>
@@ -17069,7 +17084,7 @@
       </c>
       <c r="N73">
         <f t="shared" si="14"/>
-        <v>-26636.890909090911</v>
+        <v>-29218.709090909091</v>
       </c>
       <c r="O73">
         <f t="shared" si="14"/>
@@ -17125,7 +17140,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="14"/>
-        <v>-27348.909090909092</v>
+        <v>-29967.090909090912</v>
       </c>
       <c r="O74">
         <f t="shared" si="14"/>
@@ -17181,7 +17196,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="14"/>
-        <v>-27840.527272727271</v>
+        <v>-30495.072727272724</v>
       </c>
       <c r="O75">
         <f t="shared" si="14"/>
@@ -17237,7 +17252,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="14"/>
-        <v>-28541.945454545454</v>
+        <v>-31232.854545454546</v>
       </c>
       <c r="O76">
         <f t="shared" si="14"/>
@@ -17293,7 +17308,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="14"/>
-        <v>-29033.963636363635</v>
+        <v>-31761.236363636363</v>
       </c>
       <c r="O77">
         <f t="shared" si="14"/>
@@ -17349,7 +17364,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="14"/>
-        <v>-29736.181818181816</v>
+        <v>-32499.81818181818</v>
       </c>
       <c r="O78">
         <f t="shared" si="14"/>
@@ -17405,7 +17420,7 @@
       </c>
       <c r="N79">
         <f t="shared" si="14"/>
-        <v>-30230.399999999998</v>
+        <v>-33030.399999999994</v>
       </c>
       <c r="O79">
         <f t="shared" si="14"/>
@@ -17461,7 +17476,7 @@
       </c>
       <c r="N80">
         <f t="shared" si="14"/>
-        <v>-30934.018181818181</v>
+        <v>-33770.381818181821</v>
       </c>
       <c r="O80">
         <f t="shared" si="14"/>
@@ -17517,7 +17532,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="14"/>
-        <v>-31427.836363636361</v>
+        <v>-34300.563636363637</v>
       </c>
       <c r="O81">
         <f t="shared" si="14"/>
@@ -17573,7 +17588,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="14"/>
-        <v>-32121.854545454546</v>
+        <v>-35030.945454545457</v>
       </c>
       <c r="O82">
         <f t="shared" si="14"/>
@@ -17629,7 +17644,7 @@
       </c>
       <c r="N83">
         <f t="shared" ref="N83:O98" si="17">H83+U$9 +($M82*U$10)</f>
-        <v>-32605.672727272729</v>
+        <v>-35551.127272727274</v>
       </c>
       <c r="O83">
         <f t="shared" si="17"/>
@@ -17685,7 +17700,7 @@
       </c>
       <c r="N84">
         <f t="shared" si="17"/>
-        <v>-33089.490909090906</v>
+        <v>-36071.30909090909</v>
       </c>
       <c r="O84">
         <f t="shared" si="17"/>
@@ -17741,7 +17756,7 @@
       </c>
       <c r="N85">
         <f t="shared" si="17"/>
-        <v>-33732.109090909093</v>
+        <v>-36750.290909090909</v>
       </c>
       <c r="O85">
         <f t="shared" si="17"/>
@@ -17797,7 +17812,7 @@
       </c>
       <c r="N86">
         <f t="shared" si="17"/>
-        <v>-34374.727272727272</v>
+        <v>-37429.272727272728</v>
       </c>
       <c r="O86">
         <f t="shared" si="17"/>
@@ -17853,7 +17868,7 @@
       </c>
       <c r="N87">
         <f t="shared" si="17"/>
-        <v>-34983.945454545457</v>
+        <v>-38074.854545454546</v>
       </c>
       <c r="O87">
         <f t="shared" si="17"/>
@@ -17909,7 +17924,7 @@
       </c>
       <c r="N88">
         <f t="shared" si="17"/>
-        <v>-35593.163636363635</v>
+        <v>-38720.436363636363</v>
       </c>
       <c r="O88">
         <f t="shared" si="17"/>
@@ -17965,7 +17980,7 @@
       </c>
       <c r="N89">
         <f t="shared" si="17"/>
-        <v>-36357.581818181818</v>
+        <v>-39521.218181818178</v>
       </c>
       <c r="O89">
         <f t="shared" si="17"/>
@@ -18021,7 +18036,7 @@
       </c>
       <c r="N90">
         <f t="shared" si="17"/>
-        <v>-36753.799999999996</v>
+        <v>-39953.799999999996</v>
       </c>
       <c r="O90">
         <f t="shared" si="17"/>
@@ -18077,7 +18092,7 @@
       </c>
       <c r="N91">
         <f t="shared" si="17"/>
-        <v>-37298.018181818181</v>
+        <v>-40534.381818181821</v>
       </c>
       <c r="O91">
         <f t="shared" si="17"/>
@@ -18133,7 +18148,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="17"/>
-        <v>-37675.436363636371</v>
+        <v>-40948.163636363635</v>
       </c>
       <c r="O92">
         <f t="shared" si="17"/>
@@ -18189,7 +18204,7 @@
       </c>
       <c r="N93">
         <f t="shared" si="17"/>
-        <v>-38052.854545454546</v>
+        <v>-41361.94545454545</v>
       </c>
       <c r="O93">
         <f t="shared" si="17"/>
@@ -18245,7 +18260,7 @@
       </c>
       <c r="N94">
         <f t="shared" si="17"/>
-        <v>-38422.472727272732</v>
+        <v>-41767.927272727276</v>
       </c>
       <c r="O94">
         <f t="shared" si="17"/>
@@ -18301,7 +18316,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="17"/>
-        <v>-38792.090909090912</v>
+        <v>-42173.909090909096</v>
       </c>
       <c r="O95">
         <f t="shared" si="17"/>
@@ -18357,7 +18372,7 @@
       </c>
       <c r="N96">
         <f t="shared" si="17"/>
-        <v>-39154.909090909096</v>
+        <v>-42573.090909090912</v>
       </c>
       <c r="O96">
         <f t="shared" si="17"/>
@@ -18413,7 +18428,7 @@
       </c>
       <c r="N97">
         <f t="shared" si="17"/>
-        <v>-39517.727272727272</v>
+        <v>-42972.272727272728</v>
       </c>
       <c r="O97">
         <f t="shared" si="17"/>
@@ -18469,7 +18484,7 @@
       </c>
       <c r="N98">
         <f t="shared" si="17"/>
-        <v>-40012.145454545454</v>
+        <v>-43503.054545454543</v>
       </c>
       <c r="O98">
         <f t="shared" si="17"/>
@@ -18524,8 +18539,8 @@
         <v>98</v>
       </c>
       <c r="N99">
-        <f t="shared" ref="N99:O108" si="19">H99+U$9 +($M98*U$10)</f>
-        <v>-40359.163636363635</v>
+        <f t="shared" ref="N99:O106" si="19">H99+U$9 +($M98*U$10)</f>
+        <v>-43886.436363636363</v>
       </c>
       <c r="O99">
         <f t="shared" si="19"/>
@@ -18581,7 +18596,7 @@
       </c>
       <c r="N100">
         <f t="shared" si="19"/>
-        <v>-40833.781818181822</v>
+        <v>-44397.418181818182</v>
       </c>
       <c r="O100">
         <f t="shared" si="19"/>
@@ -18637,7 +18652,7 @@
       </c>
       <c r="N101">
         <f t="shared" si="19"/>
-        <v>-41167.199999999997</v>
+        <v>-44767.199999999997</v>
       </c>
       <c r="O101">
         <f t="shared" si="19"/>
@@ -18693,7 +18708,7 @@
       </c>
       <c r="N102">
         <f t="shared" si="19"/>
-        <v>-41629.218181818185</v>
+        <v>-45265.581818181818</v>
       </c>
       <c r="O102">
         <f t="shared" si="19"/>
@@ -18749,7 +18764,7 @@
       </c>
       <c r="N103">
         <f t="shared" si="19"/>
-        <v>-41959.63636363636</v>
+        <v>-45632.363636363632</v>
       </c>
       <c r="O103">
         <f t="shared" si="19"/>
@@ -18805,7 +18820,7 @@
       </c>
       <c r="N104">
         <f t="shared" si="19"/>
-        <v>-42421.05454545455</v>
+        <v>-46130.145454545454</v>
       </c>
       <c r="O104">
         <f t="shared" si="19"/>
@@ -18861,7 +18876,7 @@
       </c>
       <c r="N105">
         <f>H105+U$9 +($M104*U$10)</f>
-        <v>-42754.872727272726</v>
+        <v>-46500.327272727271</v>
       </c>
       <c r="O105">
         <f t="shared" si="19"/>
@@ -18917,7 +18932,7 @@
       </c>
       <c r="N106">
         <f>H106+U$9 +($M105*U$10)</f>
-        <v>-43214.890909090907</v>
+        <v>-46996.709090909091</v>
       </c>
       <c r="O106">
         <f t="shared" si="19"/>
@@ -18973,7 +18988,7 @@
       </c>
       <c r="N107">
         <f t="shared" ref="N107:N112" si="21">H107+U$9 +($M106*U$10)</f>
-        <v>-43546.30909090909</v>
+        <v>-47364.490909090906</v>
       </c>
       <c r="O107">
         <f t="shared" ref="O107:O112" si="22">I107+V$9 +($M106*V$10)</f>
@@ -19029,7 +19044,7 @@
       </c>
       <c r="N108">
         <f t="shared" si="21"/>
-        <v>-43992.327272727271</v>
+        <v>-47846.872727272726</v>
       </c>
       <c r="O108">
         <f t="shared" si="22"/>
@@ -19085,7 +19100,7 @@
       </c>
       <c r="N109">
         <f t="shared" si="21"/>
-        <v>-44307.345454545452</v>
+        <v>-48198.254545454547</v>
       </c>
       <c r="O109">
         <f t="shared" si="22"/>
@@ -19141,7 +19156,7 @@
       </c>
       <c r="N110">
         <f t="shared" si="21"/>
-        <v>-44381.563636363637</v>
+        <v>-48308.836363636365</v>
       </c>
       <c r="O110">
         <f t="shared" si="22"/>
@@ -19185,7 +19200,7 @@
         <v>-53398.666666666664</v>
       </c>
       <c r="J111">
-        <f t="shared" ref="I111:K111" si="30">AVERAGE(C109:C111)</f>
+        <f t="shared" ref="J111:K111" si="30">AVERAGE(C109:C111)</f>
         <v>-3169.6666666666665</v>
       </c>
       <c r="K111">
@@ -19197,7 +19212,7 @@
       </c>
       <c r="N111">
         <f t="shared" si="21"/>
-        <v>-44734.781818181815</v>
+        <v>-48698.418181818182</v>
       </c>
       <c r="O111">
         <f t="shared" si="22"/>
@@ -19253,7 +19268,7 @@
       </c>
       <c r="N112">
         <f t="shared" si="21"/>
-        <v>-45000</v>
+        <v>-49000</v>
       </c>
       <c r="O112">
         <f t="shared" si="22"/>
@@ -31321,7 +31336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4452A2C0-D173-4635-89B3-218927C8FDC6}">
   <dimension ref="A1:V268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1:R1048576"/>
     </sheetView>
   </sheetViews>
@@ -42378,7 +42393,7 @@
         <v>0.23206001500000001</v>
       </c>
       <c r="H101">
-        <f t="shared" ref="H101:K109" si="20">AVERAGE(A99:A103)</f>
+        <f t="shared" ref="H101:K102" si="20">AVERAGE(A99:A103)</f>
         <v>-59550.400000000001</v>
       </c>
       <c r="I101">
@@ -42490,19 +42505,19 @@
         <v>0.23206001500000001</v>
       </c>
       <c r="H103">
-        <f t="shared" ref="H103:H144" si="21">AVERAGE(A101:A105)</f>
+        <f t="shared" ref="H103:H142" si="21">AVERAGE(A101:A105)</f>
         <v>-59137.8</v>
       </c>
       <c r="I103">
-        <f t="shared" ref="I103:I144" si="22">AVERAGE(B101:B105)</f>
+        <f t="shared" ref="I103:I142" si="22">AVERAGE(B101:B105)</f>
         <v>66322</v>
       </c>
       <c r="J103">
-        <f t="shared" ref="J103:J144" si="23">AVERAGE(C101:C105)</f>
+        <f t="shared" ref="J103:J142" si="23">AVERAGE(C101:C105)</f>
         <v>1018.8</v>
       </c>
       <c r="K103">
-        <f t="shared" ref="K103:K144" si="24">AVERAGE(D101:D105)</f>
+        <f t="shared" ref="K103:K142" si="24">AVERAGE(D101:D105)</f>
         <v>3879</v>
       </c>
       <c r="M103">

--- a/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
+++ b/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SHARED\FRC2023\ROBOT_CODE\AlexanderGCowbell\src\main\java\frc\data\mp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10507305-7C22-40B1-8EC2-A6F43B9D77C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1D059A-66C5-4464-B086-78ADB770041D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thief1" sheetId="16" r:id="rId1"/>
@@ -5136,8 +5136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B7D99D-F1DF-47C3-91B6-FDAE4C5C3FE7}">
   <dimension ref="A1:V340"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:V1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5294,11 +5294,11 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:O18" si="3">H3+U$9 +($M2*U$10)</f>
-        <v>-4500.025821596244</v>
+        <v>-4464.8145539906109</v>
       </c>
       <c r="O3">
         <f t="shared" si="3"/>
-        <v>10384.636150234743</v>
+        <v>10398.720657276996</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:Q66" si="4">J3</f>
@@ -5359,11 +5359,11 @@
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>-4684.9183098591548</v>
+        <v>-4614.4957746478867</v>
       </c>
       <c r="O4">
         <f t="shared" si="3"/>
-        <v>10514.805633802818</v>
+        <v>10542.974647887324</v>
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
@@ -5381,10 +5381,10 @@
         <v>8</v>
       </c>
       <c r="U4" s="2">
-        <v>-40000</v>
+        <v>-35000</v>
       </c>
       <c r="V4" s="3">
-        <v>66000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -5424,11 +5424,11 @@
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>-4836.2774647887318</v>
+        <v>-4730.6436619718306</v>
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>10627.708450704225</v>
+        <v>10669.961971830986</v>
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
@@ -5491,11 +5491,11 @@
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>-5103.8366197183095</v>
+        <v>-4962.9915492957743</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>10821.811267605633</v>
+        <v>10878.149295774649</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
@@ -5558,11 +5558,11 @@
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>-5270.7957746478869</v>
+        <v>-5094.7394366197186</v>
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>10964.114084507042</v>
+        <v>11034.53661971831</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
@@ -5625,11 +5625,11 @@
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>-5569.954929577465</v>
+        <v>-5358.6873239436618</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>11202.416901408451</v>
+        <v>11286.923943661972</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
@@ -5681,11 +5681,11 @@
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>-5762.7140845070417</v>
+        <v>-5516.2352112676053</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>11377.919718309859</v>
+        <v>11476.511267605632</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
@@ -5748,11 +5748,11 @@
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>-6103.67323943662</v>
+        <v>-5821.9830985915496</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>11658.622535211269</v>
+        <v>11771.298591549297</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
@@ -5771,11 +5771,11 @@
       </c>
       <c r="U10">
         <f>(U4-U6-U9)/(U7-1)</f>
-        <v>55.640845070422536</v>
+        <v>90.852112676056336</v>
       </c>
       <c r="V10">
         <f>(V4-V6-V9)/(V7-1)</f>
-        <v>-1.6971830985915493</v>
+        <v>12.387323943661972</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>-6328.4323943661975</v>
+        <v>-6011.5309859154941</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>11858.125352112676</v>
+        <v>11984.885915492958</v>
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
@@ -5871,11 +5871,11 @@
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>-6720.7915492957754</v>
+        <v>-6368.6788732394371</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>12287.228169014084</v>
+        <v>12428.07323943662</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
@@ -5927,11 +5927,11 @@
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>-6980.9507042253517</v>
+        <v>-6593.6267605633802</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>12620.330985915492</v>
+        <v>12775.260563380281</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
@@ -5983,11 +5983,11 @@
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>-7241.1098591549289</v>
+        <v>-6818.5746478873234</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>12953.4338028169</v>
+        <v>13122.447887323942</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
@@ -6039,11 +6039,11 @@
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>-7733.0690140845063</v>
+        <v>-7275.3225352112677</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>13310.33661971831</v>
+        <v>13493.435211267606</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
@@ -6095,11 +6095,11 @@
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>-8225.0281690140837</v>
+        <v>-7732.070422535211</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>13667.239436619719</v>
+        <v>13864.422535211268</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
@@ -6151,11 +6151,11 @@
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>-8763.3873239436616</v>
+        <v>-8235.2183098591559</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>13934.942253521127</v>
+        <v>14146.209859154929</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>-9301.7464788732395</v>
+        <v>-8738.3661971830988</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>14202.645070422535</v>
+        <v>14427.997183098591</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
@@ -6263,11 +6263,11 @@
       </c>
       <c r="N19">
         <f t="shared" ref="N19:O34" si="7">H19+U$9 +($M18*U$10)</f>
-        <v>-10067.305633802818</v>
+        <v>-9468.7140845070426</v>
       </c>
       <c r="O19">
         <f t="shared" si="7"/>
-        <v>14620.347887323944</v>
+        <v>14859.784507042254</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
@@ -6319,11 +6319,11 @@
       </c>
       <c r="N20">
         <f t="shared" si="7"/>
-        <v>-10452.864788732393</v>
+        <v>-9819.0619718309863</v>
       </c>
       <c r="O20">
         <f t="shared" si="7"/>
-        <v>14909.05070422535</v>
+        <v>15162.571830985915</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
@@ -6375,11 +6375,11 @@
       </c>
       <c r="N21">
         <f t="shared" si="7"/>
-        <v>-11070.023943661972</v>
+        <v>-10401.00985915493</v>
       </c>
       <c r="O21">
         <f t="shared" si="7"/>
-        <v>15360.55352112676</v>
+        <v>15628.159154929577</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
@@ -6431,11 +6431,11 @@
       </c>
       <c r="N22">
         <f t="shared" si="7"/>
-        <v>-11473.183098591549</v>
+        <v>-10768.957746478873</v>
       </c>
       <c r="O22">
         <f t="shared" si="7"/>
-        <v>15671.656338028168</v>
+        <v>15953.346478873238</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
@@ -6487,11 +6487,11 @@
       </c>
       <c r="N23">
         <f t="shared" si="7"/>
-        <v>-11876.342253521127</v>
+        <v>-11136.905633802817</v>
       </c>
       <c r="O23">
         <f t="shared" si="7"/>
-        <v>15982.759154929579</v>
+        <v>16278.533802816903</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
@@ -6543,11 +6543,11 @@
       </c>
       <c r="N24">
         <f t="shared" si="7"/>
-        <v>-12295.101408450704</v>
+        <v>-11520.453521126761</v>
       </c>
       <c r="O24">
         <f t="shared" si="7"/>
-        <v>16316.461971830986</v>
+        <v>16626.321126760562</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
@@ -6599,11 +6599,11 @@
       </c>
       <c r="N25">
         <f t="shared" si="7"/>
-        <v>-12713.860563380282</v>
+        <v>-11904.001408450706</v>
       </c>
       <c r="O25">
         <f t="shared" si="7"/>
-        <v>16650.164788732396</v>
+        <v>16974.108450704225</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
@@ -6655,11 +6655,11 @@
       </c>
       <c r="N26">
         <f t="shared" si="7"/>
-        <v>-13163.619718309859</v>
+        <v>-12318.549295774648</v>
       </c>
       <c r="O26">
         <f t="shared" si="7"/>
-        <v>16998.267605633802</v>
+        <v>17336.295774647886</v>
       </c>
       <c r="P26">
         <f t="shared" si="4"/>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="N27">
         <f t="shared" si="7"/>
-        <v>-13613.378873239439</v>
+        <v>-12733.097183098593</v>
       </c>
       <c r="O27">
         <f t="shared" si="7"/>
-        <v>17346.370422535212</v>
+        <v>17698.483098591547</v>
       </c>
       <c r="P27">
         <f t="shared" si="4"/>
@@ -6767,11 +6767,11 @@
       </c>
       <c r="N28">
         <f t="shared" si="7"/>
-        <v>-14338.338028169013</v>
+        <v>-13422.845070422536</v>
       </c>
       <c r="O28">
         <f t="shared" si="7"/>
-        <v>17890.07323943662</v>
+        <v>18256.270422535214</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
@@ -6823,11 +6823,11 @@
       </c>
       <c r="N29">
         <f t="shared" si="7"/>
-        <v>-14820.497183098591</v>
+        <v>-13869.792957746478</v>
       </c>
       <c r="O29">
         <f t="shared" si="7"/>
-        <v>18261.176056338027</v>
+        <v>18641.457746478874</v>
       </c>
       <c r="P29">
         <f t="shared" si="4"/>
@@ -6879,11 +6879,11 @@
       </c>
       <c r="N30">
         <f t="shared" si="7"/>
-        <v>-15582.25633802817</v>
+        <v>-14596.340845070423</v>
       </c>
       <c r="O30">
         <f t="shared" si="7"/>
-        <v>18845.678873239438</v>
+        <v>19240.045070422537</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
@@ -6935,11 +6935,11 @@
       </c>
       <c r="N31">
         <f t="shared" si="7"/>
-        <v>-16081.415492957747</v>
+        <v>-15060.288732394367</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>19252.981690140845</v>
+        <v>19661.432394366198</v>
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
@@ -6991,11 +6991,11 @@
       </c>
       <c r="N32">
         <f t="shared" si="7"/>
-        <v>-16869.974647887324</v>
+        <v>-15813.636619718311</v>
       </c>
       <c r="O32">
         <f t="shared" si="7"/>
-        <v>19883.884507042254</v>
+        <v>20306.419718309859</v>
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
@@ -7047,11 +7047,11 @@
       </c>
       <c r="N33">
         <f t="shared" si="7"/>
-        <v>-17383.333802816902</v>
+        <v>-16291.784507042255</v>
       </c>
       <c r="O33">
         <f t="shared" si="7"/>
-        <v>20319.187323943661</v>
+        <v>20755.80704225352</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
@@ -7103,11 +7103,11 @@
       </c>
       <c r="N34">
         <f t="shared" si="7"/>
-        <v>-18202.292957746478</v>
+        <v>-17075.532394366197</v>
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
-        <v>20990.290140845071</v>
+        <v>21440.994366197181</v>
       </c>
       <c r="P34">
         <f t="shared" si="4"/>
@@ -7159,11 +7159,11 @@
       </c>
       <c r="N35">
         <f t="shared" ref="N35:O50" si="9">H35+U$9 +($M34*U$10)</f>
-        <v>-18741.652112676056</v>
+        <v>-17579.68028169014</v>
       </c>
       <c r="O35">
         <f t="shared" si="9"/>
-        <v>21447.992957746479</v>
+        <v>21912.781690140844</v>
       </c>
       <c r="P35">
         <f t="shared" si="4"/>
@@ -7215,11 +7215,11 @@
       </c>
       <c r="N36">
         <f t="shared" si="9"/>
-        <v>-19591.011267605634</v>
+        <v>-18393.828169014083</v>
       </c>
       <c r="O36">
         <f t="shared" si="9"/>
-        <v>22157.495774647887</v>
+        <v>22636.369014084506</v>
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
@@ -7271,11 +7271,11 @@
       </c>
       <c r="N37">
         <f t="shared" si="9"/>
-        <v>-20150.970422535214</v>
+        <v>-18918.576056338028</v>
       </c>
       <c r="O37">
         <f t="shared" si="9"/>
-        <v>22643.398591549296</v>
+        <v>23136.356338028167</v>
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
@@ -7327,11 +7327,11 @@
       </c>
       <c r="N38">
         <f t="shared" si="9"/>
-        <v>-21025.729577464786</v>
+        <v>-19758.123943661973</v>
       </c>
       <c r="O38">
         <f t="shared" si="9"/>
-        <v>23388.301408450705</v>
+        <v>23895.343661971834</v>
       </c>
       <c r="P38">
         <f t="shared" si="4"/>
@@ -7383,11 +7383,11 @@
       </c>
       <c r="N39">
         <f t="shared" si="9"/>
-        <v>-21594.888732394364</v>
+        <v>-20292.071830985915</v>
       </c>
       <c r="O39">
         <f t="shared" si="9"/>
-        <v>23897.404225352115</v>
+        <v>24418.530985915495</v>
       </c>
       <c r="P39">
         <f t="shared" si="4"/>
@@ -7439,11 +7439,11 @@
       </c>
       <c r="N40">
         <f t="shared" si="9"/>
-        <v>-22483.047887323944</v>
+        <v>-21145.019718309861</v>
       </c>
       <c r="O40">
         <f t="shared" si="9"/>
-        <v>24679.907042253522</v>
+        <v>25215.118309859157</v>
       </c>
       <c r="P40">
         <f t="shared" si="4"/>
@@ -7495,11 +7495,11 @@
       </c>
       <c r="N41">
         <f t="shared" si="9"/>
-        <v>-23061.207042253522</v>
+        <v>-21687.967605633803</v>
       </c>
       <c r="O41">
         <f t="shared" si="9"/>
-        <v>25210.609859154927</v>
+        <v>25759.905633802817</v>
       </c>
       <c r="P41">
         <f t="shared" si="4"/>
@@ -7551,11 +7551,11 @@
       </c>
       <c r="N42">
         <f t="shared" si="9"/>
-        <v>-23958.366197183099</v>
+        <v>-22549.915492957745</v>
       </c>
       <c r="O42">
         <f t="shared" si="9"/>
-        <v>26306.112676056338</v>
+        <v>26869.492957746479</v>
       </c>
       <c r="P42">
         <f t="shared" si="4"/>
@@ -7607,11 +7607,11 @@
       </c>
       <c r="N43">
         <f t="shared" si="9"/>
-        <v>-24540.725352112677</v>
+        <v>-23097.063380281688</v>
       </c>
       <c r="O43">
         <f t="shared" si="9"/>
-        <v>27142.615492957746</v>
+        <v>27720.080281690141</v>
       </c>
       <c r="P43">
         <f t="shared" si="4"/>
@@ -7663,11 +7663,11 @@
       </c>
       <c r="N44">
         <f t="shared" si="9"/>
-        <v>-25123.084507042255</v>
+        <v>-23644.211267605635</v>
       </c>
       <c r="O44">
         <f t="shared" si="9"/>
-        <v>27979.118309859157</v>
+        <v>28570.667605633804</v>
       </c>
       <c r="P44">
         <f t="shared" si="4"/>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="N45">
         <f t="shared" si="9"/>
-        <v>-26043.443661971833</v>
+        <v>-24529.359154929578</v>
       </c>
       <c r="O45">
         <f t="shared" si="9"/>
-        <v>28834.421126760564</v>
+        <v>29440.054929577465</v>
       </c>
       <c r="P45">
         <f t="shared" si="4"/>
@@ -7775,11 +7775,11 @@
       </c>
       <c r="N46">
         <f t="shared" si="9"/>
-        <v>-26963.802816901407</v>
+        <v>-25414.507042253521</v>
       </c>
       <c r="O46">
         <f t="shared" si="9"/>
-        <v>29689.723943661975</v>
+        <v>30309.442253521127</v>
       </c>
       <c r="P46">
         <f t="shared" si="4"/>
@@ -7831,11 +7831,11 @@
       </c>
       <c r="N47">
         <f t="shared" si="9"/>
-        <v>-27888.961971830984</v>
+        <v>-26304.454929577463</v>
       </c>
       <c r="O47">
         <f t="shared" si="9"/>
-        <v>30281.826760563381</v>
+        <v>30915.629577464788</v>
       </c>
       <c r="P47">
         <f t="shared" si="4"/>
@@ -7887,11 +7887,11 @@
       </c>
       <c r="N48">
         <f t="shared" si="9"/>
-        <v>-28814.121126760561</v>
+        <v>-27194.402816901405</v>
       </c>
       <c r="O48">
         <f t="shared" si="9"/>
-        <v>30873.929577464787</v>
+        <v>31521.816901408452</v>
       </c>
       <c r="P48">
         <f t="shared" si="4"/>
@@ -7943,11 +7943,11 @@
       </c>
       <c r="N49">
         <f t="shared" si="9"/>
-        <v>-30053.680281690144</v>
+        <v>-28398.750704225356</v>
       </c>
       <c r="O49">
         <f t="shared" si="9"/>
-        <v>31772.032394366201</v>
+        <v>32434.004225352117</v>
       </c>
       <c r="P49">
         <f t="shared" si="4"/>
@@ -7999,11 +7999,11 @@
       </c>
       <c r="N50">
         <f t="shared" si="9"/>
-        <v>-30636.239436619719</v>
+        <v>-28946.098591549297</v>
       </c>
       <c r="O50">
         <f t="shared" si="9"/>
-        <v>32377.935211267606</v>
+        <v>33053.991549295773</v>
       </c>
       <c r="P50">
         <f t="shared" si="4"/>
@@ -8055,11 +8055,11 @@
       </c>
       <c r="N51">
         <f t="shared" ref="N51:O66" si="11">H51+U$9 +($M50*U$10)</f>
-        <v>-31534.998591549298</v>
+        <v>-29809.646478873241</v>
       </c>
       <c r="O51">
         <f t="shared" si="11"/>
-        <v>33292.838028169012</v>
+        <v>33982.978873239437</v>
       </c>
       <c r="P51">
         <f t="shared" si="4"/>
@@ -8111,11 +8111,11 @@
       </c>
       <c r="N52">
         <f t="shared" si="11"/>
-        <v>-32109.957746478874</v>
+        <v>-30349.394366197183</v>
       </c>
       <c r="O52">
         <f t="shared" si="11"/>
-        <v>33906.140845070426</v>
+        <v>34610.366197183095</v>
       </c>
       <c r="P52">
         <f t="shared" si="4"/>
@@ -8167,11 +8167,11 @@
       </c>
       <c r="N53">
         <f t="shared" si="11"/>
-        <v>-33002.116901408452</v>
+        <v>-31206.342253521128</v>
       </c>
       <c r="O53">
         <f t="shared" si="11"/>
-        <v>34825.243661971836</v>
+        <v>35543.553521126763</v>
       </c>
       <c r="P53">
         <f t="shared" si="4"/>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="N54">
         <f t="shared" si="11"/>
-        <v>-33579.876056338027</v>
+        <v>-31748.890140845069</v>
       </c>
       <c r="O54">
         <f t="shared" si="11"/>
-        <v>35438.346478873238</v>
+        <v>36170.740845070424</v>
       </c>
       <c r="P54">
         <f t="shared" si="4"/>
@@ -8279,11 +8279,11 @@
       </c>
       <c r="N55">
         <f t="shared" si="11"/>
-        <v>-34480.035211267605</v>
+        <v>-32613.838028169015</v>
       </c>
       <c r="O55">
         <f t="shared" si="11"/>
-        <v>36355.649295774645</v>
+        <v>37102.128169014082</v>
       </c>
       <c r="P55">
         <f t="shared" si="4"/>
@@ -8335,11 +8335,11 @@
       </c>
       <c r="N56">
         <f t="shared" si="11"/>
-        <v>-35063.994366197185</v>
+        <v>-33162.585915492957</v>
       </c>
       <c r="O56">
         <f t="shared" si="11"/>
-        <v>36963.952112676052</v>
+        <v>37724.515492957747</v>
       </c>
       <c r="P56">
         <f t="shared" si="4"/>
@@ -8391,11 +8391,11 @@
       </c>
       <c r="N57">
         <f t="shared" si="11"/>
-        <v>-35968.75352112676</v>
+        <v>-34032.133802816898</v>
       </c>
       <c r="O57">
         <f t="shared" si="11"/>
-        <v>37871.254929577466</v>
+        <v>38645.902816901405</v>
       </c>
       <c r="P57">
         <f t="shared" si="4"/>
@@ -8447,11 +8447,11 @@
       </c>
       <c r="N58">
         <f t="shared" si="11"/>
-        <v>-36871.112676056335</v>
+        <v>-34899.281690140844</v>
       </c>
       <c r="O58">
         <f t="shared" si="11"/>
-        <v>38771.157746478872</v>
+        <v>39559.890140845069</v>
       </c>
       <c r="P58">
         <f t="shared" si="4"/>
@@ -8503,11 +8503,11 @@
       </c>
       <c r="N59">
         <f t="shared" si="11"/>
-        <v>-37773.471830985916</v>
+        <v>-35766.429577464791</v>
       </c>
       <c r="O59">
         <f t="shared" si="11"/>
-        <v>39671.060563380284</v>
+        <v>40473.877464788733</v>
       </c>
       <c r="P59">
         <f t="shared" si="4"/>
@@ -8559,11 +8559,11 @@
       </c>
       <c r="N60">
         <f t="shared" si="11"/>
-        <v>-38353.430985915489</v>
+        <v>-36311.177464788729</v>
       </c>
       <c r="O60">
         <f t="shared" si="11"/>
-        <v>40266.763380281685</v>
+        <v>41083.664788732392</v>
       </c>
       <c r="P60">
         <f t="shared" si="4"/>
@@ -8615,11 +8615,11 @@
       </c>
       <c r="N61">
         <f t="shared" si="11"/>
-        <v>-38933.390140845069</v>
+        <v>-36855.925352112674</v>
       </c>
       <c r="O61">
         <f t="shared" si="11"/>
-        <v>40862.466197183094</v>
+        <v>41693.452112676052</v>
       </c>
       <c r="P61">
         <f t="shared" si="4"/>
@@ -8671,11 +8671,11 @@
       </c>
       <c r="N62">
         <f t="shared" si="11"/>
-        <v>-39497.349295774649</v>
+        <v>-37384.673239436626</v>
       </c>
       <c r="O62">
         <f t="shared" si="11"/>
-        <v>41454.569014084511</v>
+        <v>42299.63943661972</v>
       </c>
       <c r="P62">
         <f t="shared" si="4"/>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="N63">
         <f t="shared" si="11"/>
-        <v>-39746.508450704227</v>
+        <v>-37598.621126760561</v>
       </c>
       <c r="O63">
         <f t="shared" si="11"/>
-        <v>41748.271830985919</v>
+        <v>42607.426760563387</v>
       </c>
       <c r="P63">
         <f t="shared" si="4"/>
@@ -8783,11 +8783,11 @@
       </c>
       <c r="N64">
         <f t="shared" si="11"/>
-        <v>-40296.667605633804</v>
+        <v>-38113.569014084511</v>
       </c>
       <c r="O64">
         <f t="shared" si="11"/>
-        <v>42339.774647887323</v>
+        <v>43213.014084507042</v>
       </c>
       <c r="P64">
         <f t="shared" si="4"/>
@@ -8839,11 +8839,11 @@
       </c>
       <c r="N65">
         <f t="shared" si="11"/>
-        <v>-40846.826760563374</v>
+        <v>-38628.516901408446</v>
       </c>
       <c r="O65">
         <f t="shared" si="11"/>
-        <v>42931.277464788727</v>
+        <v>43818.601408450704</v>
       </c>
       <c r="P65">
         <f t="shared" si="4"/>
@@ -8895,11 +8895,11 @@
       </c>
       <c r="N66">
         <f t="shared" si="11"/>
-        <v>-41691.785915492961</v>
+        <v>-39438.264788732398</v>
       </c>
       <c r="O66">
         <f t="shared" si="11"/>
-        <v>43815.180281690147</v>
+        <v>44716.588732394368</v>
       </c>
       <c r="P66">
         <f t="shared" si="4"/>
@@ -8951,11 +8951,11 @@
       </c>
       <c r="N67">
         <f t="shared" ref="N67:O82" si="14">H67+U$9 +($M66*U$10)</f>
-        <v>-42231.945070422531</v>
+        <v>-39943.212676056341</v>
       </c>
       <c r="O67">
         <f t="shared" si="14"/>
-        <v>44403.683098591551</v>
+        <v>45319.17605633803</v>
       </c>
       <c r="P67">
         <f t="shared" ref="P67:Q111" si="15">J67</f>
@@ -9007,11 +9007,11 @@
       </c>
       <c r="N68">
         <f t="shared" si="14"/>
-        <v>-43060.504225352117</v>
+        <v>-40736.560563380284</v>
       </c>
       <c r="O68">
         <f t="shared" si="14"/>
-        <v>45282.785915492961</v>
+        <v>46212.363380281691</v>
       </c>
       <c r="P68">
         <f t="shared" si="15"/>
@@ -9063,11 +9063,11 @@
       </c>
       <c r="N69">
         <f t="shared" si="14"/>
-        <v>-43588.063380281688</v>
+        <v>-41228.908450704228</v>
       </c>
       <c r="O69">
         <f t="shared" si="14"/>
-        <v>45864.088732394368</v>
+        <v>46807.750704225356</v>
       </c>
       <c r="P69">
         <f t="shared" si="15"/>
@@ -9119,11 +9119,11 @@
       </c>
       <c r="N70">
         <f t="shared" si="14"/>
-        <v>-44391.42253521127</v>
+        <v>-41997.056338028167</v>
       </c>
       <c r="O70">
         <f t="shared" si="14"/>
-        <v>46734.791549295769</v>
+        <v>47692.538028169009</v>
       </c>
       <c r="P70">
         <f t="shared" si="15"/>
@@ -9175,11 +9175,11 @@
       </c>
       <c r="N71">
         <f t="shared" si="14"/>
-        <v>-44899.981690140841</v>
+        <v>-42470.404225352111</v>
       </c>
       <c r="O71">
         <f t="shared" si="14"/>
-        <v>47313.094366197183</v>
+        <v>48284.925352112674</v>
       </c>
       <c r="P71">
         <f t="shared" si="15"/>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="N72">
         <f t="shared" si="14"/>
-        <v>-45672.140845070426</v>
+        <v>-43207.352112676053</v>
       </c>
       <c r="O72">
         <f t="shared" si="14"/>
-        <v>48176.597183098595</v>
+        <v>49162.512676056336</v>
       </c>
       <c r="P72">
         <f t="shared" si="15"/>
@@ -9287,11 +9287,11 @@
       </c>
       <c r="N73">
         <f t="shared" si="14"/>
-        <v>-46155.9</v>
+        <v>-43655.9</v>
       </c>
       <c r="O73">
         <f t="shared" si="14"/>
-        <v>48749.5</v>
+        <v>49749.5</v>
       </c>
       <c r="P73">
         <f t="shared" si="15"/>
@@ -9343,11 +9343,11 @@
       </c>
       <c r="N74">
         <f t="shared" si="14"/>
-        <v>-46890.859154929574</v>
+        <v>-44355.647887323947</v>
       </c>
       <c r="O74">
         <f t="shared" si="14"/>
-        <v>49599.002816901404</v>
+        <v>50613.087323943662</v>
       </c>
       <c r="P74">
         <f t="shared" si="15"/>
@@ -9399,11 +9399,11 @@
       </c>
       <c r="N75">
         <f t="shared" si="14"/>
-        <v>-47350.018309859159</v>
+        <v>-44779.595774647889</v>
       </c>
       <c r="O75">
         <f t="shared" si="14"/>
-        <v>50159.105633802814</v>
+        <v>51187.274647887323</v>
       </c>
       <c r="P75">
         <f t="shared" si="15"/>
@@ -9455,11 +9455,11 @@
       </c>
       <c r="N76">
         <f t="shared" si="14"/>
-        <v>-48045.777464788727</v>
+        <v>-45440.14366197183</v>
       </c>
       <c r="O76">
         <f t="shared" si="14"/>
-        <v>50985.408450704228</v>
+        <v>52027.661971830988</v>
       </c>
       <c r="P76">
         <f t="shared" si="15"/>
@@ -9511,11 +9511,11 @@
       </c>
       <c r="N77">
         <f t="shared" si="14"/>
-        <v>-48477.936619718312</v>
+        <v>-45837.091549295772</v>
       </c>
       <c r="O77">
         <f t="shared" si="14"/>
-        <v>51526.511267605638</v>
+        <v>52582.849295774649</v>
       </c>
       <c r="P77">
         <f t="shared" si="15"/>
@@ -9567,11 +9567,11 @@
       </c>
       <c r="N78">
         <f t="shared" si="14"/>
-        <v>-49131.295774647886</v>
+        <v>-46455.239436619719</v>
       </c>
       <c r="O78">
         <f t="shared" si="14"/>
-        <v>52322.214084507039</v>
+        <v>53392.636619718309</v>
       </c>
       <c r="P78">
         <f t="shared" si="15"/>
@@ -9623,11 +9623,11 @@
       </c>
       <c r="N79">
         <f t="shared" si="14"/>
-        <v>-49533.45492957747</v>
+        <v>-46822.187323943668</v>
       </c>
       <c r="O79">
         <f t="shared" si="14"/>
-        <v>52841.316901408449</v>
+        <v>53925.82394366197</v>
       </c>
       <c r="P79">
         <f t="shared" si="15"/>
@@ -9679,11 +9679,11 @@
       </c>
       <c r="N80">
         <f t="shared" si="14"/>
-        <v>-50140.61408450704</v>
+        <v>-47394.135211267603</v>
       </c>
       <c r="O80">
         <f t="shared" si="14"/>
-        <v>53602.219718309854</v>
+        <v>54700.811267605633</v>
       </c>
       <c r="P80">
         <f t="shared" si="15"/>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="N81">
         <f t="shared" si="14"/>
-        <v>-50511.173239436626</v>
+        <v>-47729.483098591554</v>
       </c>
       <c r="O81">
         <f t="shared" si="14"/>
-        <v>54096.92253521127</v>
+        <v>55209.598591549293</v>
       </c>
       <c r="P81">
         <f t="shared" si="15"/>
@@ -9791,11 +9791,11 @@
       </c>
       <c r="N82">
         <f t="shared" si="14"/>
-        <v>-51072.332394366196</v>
+        <v>-48255.430985915489</v>
       </c>
       <c r="O82">
         <f t="shared" si="14"/>
-        <v>54822.825352112675</v>
+        <v>55949.585915492957</v>
       </c>
       <c r="P82">
         <f t="shared" si="15"/>
@@ -9847,11 +9847,11 @@
       </c>
       <c r="N83">
         <f t="shared" ref="N83:O98" si="17">H83+U$9 +($M82*U$10)</f>
-        <v>-51412.291549295769</v>
+        <v>-48560.178873239434</v>
       </c>
       <c r="O83">
         <f t="shared" si="17"/>
-        <v>55294.128169014082</v>
+        <v>56434.973239436615</v>
       </c>
       <c r="P83">
         <f t="shared" si="15"/>
@@ -9903,11 +9903,11 @@
       </c>
       <c r="N84">
         <f t="shared" si="17"/>
-        <v>-51925.250704225356</v>
+        <v>-49037.92676056338</v>
       </c>
       <c r="O84">
         <f t="shared" si="17"/>
-        <v>55765.430985915489</v>
+        <v>56920.36056338028</v>
       </c>
       <c r="P84">
         <f t="shared" si="15"/>
@@ -9959,11 +9959,11 @@
       </c>
       <c r="N85">
         <f t="shared" si="17"/>
-        <v>-52233.209859154929</v>
+        <v>-49310.674647887325</v>
       </c>
       <c r="O85">
         <f t="shared" si="17"/>
-        <v>56422.733802816903</v>
+        <v>57591.747887323945</v>
       </c>
       <c r="P85">
         <f t="shared" si="15"/>
@@ -10015,11 +10015,11 @@
       </c>
       <c r="N86">
         <f t="shared" si="17"/>
-        <v>-52685.369014084506</v>
+        <v>-49727.622535211267</v>
       </c>
       <c r="O86">
         <f t="shared" si="17"/>
-        <v>57080.03661971831</v>
+        <v>58263.135211267603</v>
       </c>
       <c r="P86">
         <f t="shared" si="15"/>
@@ -10071,11 +10071,11 @@
       </c>
       <c r="N87">
         <f t="shared" si="17"/>
-        <v>-52946.928169014085</v>
+        <v>-49953.970422535211</v>
       </c>
       <c r="O87">
         <f t="shared" si="17"/>
-        <v>57705.539436619722</v>
+        <v>58902.722535211273</v>
       </c>
       <c r="P87">
         <f t="shared" si="15"/>
@@ -10127,11 +10127,11 @@
       </c>
       <c r="N88">
         <f t="shared" si="17"/>
-        <v>-53284.687323943668</v>
+        <v>-50256.518309859159</v>
       </c>
       <c r="O88">
         <f t="shared" si="17"/>
-        <v>58331.042253521126</v>
+        <v>59542.309859154928</v>
       </c>
       <c r="P88">
         <f t="shared" si="15"/>
@@ -10183,11 +10183,11 @@
       </c>
       <c r="N89">
         <f t="shared" si="17"/>
-        <v>-53449.446478873237</v>
+        <v>-50386.0661971831</v>
       </c>
       <c r="O89">
         <f t="shared" si="17"/>
-        <v>59147.345070422532</v>
+        <v>60372.697183098593</v>
       </c>
       <c r="P89">
         <f t="shared" si="15"/>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="N90">
         <f t="shared" si="17"/>
-        <v>-53626.605633802814</v>
+        <v>-50528.014084507042</v>
       </c>
       <c r="O90">
         <f t="shared" si="17"/>
-        <v>59535.847887323944</v>
+        <v>60775.284507042248</v>
       </c>
       <c r="P90">
         <f t="shared" si="15"/>
@@ -10295,11 +10295,11 @@
       </c>
       <c r="N91">
         <f t="shared" si="17"/>
-        <v>-53659.564788732394</v>
+        <v>-50525.761971830987</v>
       </c>
       <c r="O91">
         <f t="shared" si="17"/>
-        <v>60104.750704225356</v>
+        <v>61358.271830985919</v>
       </c>
       <c r="P91">
         <f t="shared" si="15"/>
@@ -10351,11 +10351,11 @@
       </c>
       <c r="N92">
         <f t="shared" si="17"/>
-        <v>-53680.923943661968</v>
+        <v>-50511.909859154926</v>
       </c>
       <c r="O92">
         <f t="shared" si="17"/>
-        <v>60474.25352112676</v>
+        <v>61741.859154929574</v>
       </c>
       <c r="P92">
         <f t="shared" si="15"/>
@@ -10407,11 +10407,11 @@
       </c>
       <c r="N93">
         <f t="shared" si="17"/>
-        <v>-53626.083098591553</v>
+        <v>-50421.857746478876</v>
       </c>
       <c r="O93">
         <f t="shared" si="17"/>
-        <v>61013.35633802817</v>
+        <v>62295.046478873242</v>
       </c>
       <c r="P93">
         <f t="shared" si="15"/>
@@ -10463,11 +10463,11 @@
       </c>
       <c r="N94">
         <f t="shared" si="17"/>
-        <v>-53556.042253521126</v>
+        <v>-50316.605633802814</v>
       </c>
       <c r="O94">
         <f t="shared" si="17"/>
-        <v>61361.659154929577</v>
+        <v>62657.433802816908</v>
       </c>
       <c r="P94">
         <f t="shared" si="15"/>
@@ -10519,11 +10519,11 @@
       </c>
       <c r="N95">
         <f t="shared" si="17"/>
-        <v>-53473.601408450704</v>
+        <v>-50198.953521126758</v>
       </c>
       <c r="O95">
         <f t="shared" si="17"/>
-        <v>61709.961971830991</v>
+        <v>63019.821126760566</v>
       </c>
       <c r="P95">
         <f t="shared" si="15"/>
@@ -10575,11 +10575,11 @@
       </c>
       <c r="N96">
         <f t="shared" si="17"/>
-        <v>-53362.960563380278</v>
+        <v>-50053.101408450704</v>
       </c>
       <c r="O96">
         <f t="shared" si="17"/>
-        <v>62035.264788732398</v>
+        <v>63359.208450704231</v>
       </c>
       <c r="P96">
         <f t="shared" si="15"/>
@@ -10631,11 +10631,11 @@
       </c>
       <c r="N97">
         <f t="shared" si="17"/>
-        <v>-53263.919718309859</v>
+        <v>-49918.849295774649</v>
       </c>
       <c r="O97">
         <f t="shared" si="17"/>
-        <v>62360.567605633805</v>
+        <v>63698.595774647889</v>
       </c>
       <c r="P97">
         <f t="shared" si="15"/>
@@ -10687,11 +10687,11 @@
       </c>
       <c r="N98">
         <f t="shared" si="17"/>
-        <v>-53112.678873239434</v>
+        <v>-49732.39718309859</v>
       </c>
       <c r="O98">
         <f t="shared" si="17"/>
-        <v>62661.870422535212</v>
+        <v>64013.983098591554</v>
       </c>
       <c r="P98">
         <f t="shared" si="15"/>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="N99">
         <f t="shared" ref="N99:O111" si="19">H99+U$9 +($M98*U$10)</f>
-        <v>-52976.638028169014</v>
+        <v>-49561.145070422543</v>
       </c>
       <c r="O99">
         <f t="shared" si="19"/>
-        <v>62963.173239436619</v>
+        <v>64329.370422535212</v>
       </c>
       <c r="P99">
         <f t="shared" si="15"/>
@@ -10799,11 +10799,11 @@
       </c>
       <c r="N100">
         <f t="shared" si="19"/>
-        <v>-52760.197183098593</v>
+        <v>-49309.492957746479</v>
       </c>
       <c r="O100">
         <f t="shared" si="19"/>
-        <v>63398.67605633803</v>
+        <v>64778.957746478874</v>
       </c>
       <c r="P100">
         <f t="shared" si="15"/>
@@ -10855,11 +10855,11 @@
       </c>
       <c r="N101">
         <f t="shared" si="19"/>
-        <v>-52571.956338028169</v>
+        <v>-49086.040845070427</v>
       </c>
       <c r="O101">
         <f t="shared" si="19"/>
-        <v>63676.77887323944</v>
+        <v>65071.145070422535</v>
       </c>
       <c r="P101">
         <f t="shared" si="15"/>
@@ -10911,11 +10911,11 @@
       </c>
       <c r="N102">
         <f t="shared" si="19"/>
-        <v>-52283.915492957749</v>
+        <v>-48762.788732394365</v>
       </c>
       <c r="O102">
         <f t="shared" si="19"/>
-        <v>64077.481690140841</v>
+        <v>65485.932394366195</v>
       </c>
       <c r="P102">
         <f t="shared" si="15"/>
@@ -10967,11 +10967,11 @@
       </c>
       <c r="N103">
         <f t="shared" si="19"/>
-        <v>-52048.074647887326</v>
+        <v>-48491.736619718315</v>
       </c>
       <c r="O103">
         <f t="shared" si="19"/>
-        <v>64332.584507042251</v>
+        <v>65755.119718309856</v>
       </c>
       <c r="P103">
         <f t="shared" si="15"/>
@@ -11023,11 +11023,11 @@
       </c>
       <c r="N104">
         <f t="shared" si="19"/>
-        <v>-51812.233802816903</v>
+        <v>-48220.68450704225</v>
       </c>
       <c r="O104">
         <f t="shared" si="19"/>
-        <v>64695.887323943665</v>
+        <v>66132.507042253521</v>
       </c>
       <c r="P104">
         <f t="shared" si="15"/>
@@ -11079,11 +11079,11 @@
       </c>
       <c r="N105">
         <f t="shared" si="19"/>
-        <v>-51452.792957746482</v>
+        <v>-47826.032394366201</v>
       </c>
       <c r="O105">
         <f t="shared" si="19"/>
-        <v>64924.990140845075</v>
+        <v>66375.694366197189</v>
       </c>
       <c r="P105">
         <f t="shared" si="15"/>
@@ -11135,11 +11135,11 @@
       </c>
       <c r="N106">
         <f t="shared" si="19"/>
-        <v>-51093.352112676053</v>
+        <v>-47431.380281690144</v>
       </c>
       <c r="O106">
         <f t="shared" si="19"/>
-        <v>65275.692957746476</v>
+        <v>66740.481690140849</v>
       </c>
       <c r="P106">
         <f t="shared" si="15"/>
@@ -11191,11 +11191,11 @@
       </c>
       <c r="N107">
         <f t="shared" si="19"/>
-        <v>-50727.511267605638</v>
+        <v>-47030.328169014087</v>
       </c>
       <c r="O107">
         <f t="shared" si="19"/>
-        <v>65503.795774647886</v>
+        <v>66982.669014084502</v>
       </c>
       <c r="P107">
         <f t="shared" si="15"/>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="N108">
         <f t="shared" si="19"/>
-        <v>-50361.670422535208</v>
+        <v>-46629.276056338029</v>
       </c>
       <c r="O108">
         <f t="shared" si="19"/>
-        <v>65731.898591549296</v>
+        <v>67224.85633802817</v>
       </c>
       <c r="P108">
         <f t="shared" si="15"/>
@@ -11303,11 +11303,11 @@
       </c>
       <c r="N109">
         <f t="shared" si="19"/>
-        <v>-49869.829577464792</v>
+        <v>-46102.223943661971</v>
       </c>
       <c r="O109">
         <f t="shared" si="19"/>
-        <v>65882.001408450713</v>
+        <v>67389.043661971838</v>
       </c>
       <c r="P109">
         <f t="shared" si="15"/>
@@ -11359,11 +11359,11 @@
       </c>
       <c r="N110">
         <f t="shared" si="19"/>
-        <v>-49581.988732394362</v>
+        <v>-45779.171830985913</v>
       </c>
       <c r="O110">
         <f t="shared" si="19"/>
-        <v>66032.104225352101</v>
+        <v>67553.230985915492</v>
       </c>
       <c r="P110">
         <f t="shared" si="15"/>
@@ -11415,11 +11415,11 @@
       </c>
       <c r="N111">
         <f t="shared" si="19"/>
-        <v>-49155.147887323947</v>
+        <v>-45317.119718309856</v>
       </c>
       <c r="O111">
         <f t="shared" si="19"/>
-        <v>66082.207042253518</v>
+        <v>67617.418309859146</v>
       </c>
       <c r="P111">
         <f t="shared" si="15"/>
@@ -11471,11 +11471,11 @@
       </c>
       <c r="N112">
         <f t="shared" ref="N112:N144" si="25">H112+U$9 +($M111*U$10)</f>
-        <v>-48834.507042253521</v>
+        <v>-44961.267605633802</v>
       </c>
       <c r="O112">
         <f t="shared" ref="O112:O144" si="26">I112+V$9 +($M111*V$10)</f>
-        <v>66132.309859154935</v>
+        <v>67681.605633802814</v>
       </c>
       <c r="P112">
         <f t="shared" ref="P112:P144" si="27">J112</f>
@@ -11527,11 +11527,11 @@
       </c>
       <c r="N113">
         <f t="shared" si="25"/>
-        <v>-48375.266197183097</v>
+        <v>-44466.81549295775</v>
       </c>
       <c r="O113">
         <f t="shared" si="26"/>
-        <v>66196.012676056329</v>
+        <v>67759.392957746473</v>
       </c>
       <c r="P113">
         <f t="shared" si="27"/>
@@ -11583,11 +11583,11 @@
       </c>
       <c r="N114">
         <f t="shared" si="25"/>
-        <v>-48042.02535211268</v>
+        <v>-44098.363380281691</v>
       </c>
       <c r="O114">
         <f t="shared" si="26"/>
-        <v>66229.515492957755</v>
+        <v>67806.98028169015</v>
       </c>
       <c r="P114">
         <f t="shared" si="27"/>
@@ -11639,11 +11639,11 @@
       </c>
       <c r="N115">
         <f t="shared" si="25"/>
-        <v>-47578.984507042253</v>
+        <v>-43600.111267605636</v>
       </c>
       <c r="O115">
         <f t="shared" si="26"/>
-        <v>66270.218309859149</v>
+        <v>67861.76760563381</v>
       </c>
       <c r="P115">
         <f t="shared" si="27"/>
@@ -11695,11 +11695,11 @@
       </c>
       <c r="N116">
         <f t="shared" si="25"/>
-        <v>-47254.943661971833</v>
+        <v>-43240.859154929582</v>
       </c>
       <c r="O116">
         <f t="shared" si="26"/>
-        <v>66289.321126760566</v>
+        <v>67894.954929577463</v>
       </c>
       <c r="P116">
         <f t="shared" si="27"/>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="N117">
         <f t="shared" si="25"/>
-        <v>-46811.10281690141</v>
+        <v>-42761.807042253524</v>
       </c>
       <c r="O117">
         <f t="shared" si="26"/>
-        <v>66311.62394366198</v>
+        <v>67931.342253521128</v>
       </c>
       <c r="P117">
         <f t="shared" si="27"/>
@@ -11807,11 +11807,11 @@
       </c>
       <c r="N118">
         <f t="shared" si="25"/>
-        <v>-46505.861971830986</v>
+        <v>-42421.354929577465</v>
       </c>
       <c r="O118">
         <f t="shared" si="26"/>
-        <v>66320.326760563374</v>
+        <v>67954.129577464788</v>
       </c>
       <c r="P118">
         <f t="shared" si="27"/>
@@ -11863,11 +11863,11 @@
       </c>
       <c r="N119">
         <f t="shared" si="25"/>
-        <v>-46082.821126760566</v>
+        <v>-41963.10281690141</v>
       </c>
       <c r="O119">
         <f t="shared" si="26"/>
-        <v>66326.029577464797</v>
+        <v>67973.916901408462</v>
       </c>
       <c r="P119">
         <f t="shared" si="27"/>
@@ -11919,11 +11919,11 @@
       </c>
       <c r="N120">
         <f t="shared" si="25"/>
-        <v>-45789.580281690141</v>
+        <v>-41634.650704225351</v>
       </c>
       <c r="O120">
         <f t="shared" si="26"/>
-        <v>66324.532394366193</v>
+        <v>67986.50422535211</v>
       </c>
       <c r="P120">
         <f t="shared" si="27"/>
@@ -11975,11 +11975,11 @@
       </c>
       <c r="N121">
         <f t="shared" si="25"/>
-        <v>-45378.739436619719</v>
+        <v>-41188.598591549293</v>
       </c>
       <c r="O121">
         <f t="shared" si="26"/>
-        <v>66320.835211267608</v>
+        <v>67996.891549295775</v>
       </c>
       <c r="P121">
         <f t="shared" si="27"/>
@@ -12031,11 +12031,11 @@
       </c>
       <c r="N122">
         <f t="shared" si="25"/>
-        <v>-45087.698591549291</v>
+        <v>-40862.346478873238</v>
       </c>
       <c r="O122">
         <f t="shared" si="26"/>
-        <v>66313.938028169025</v>
+        <v>68004.078873239443</v>
       </c>
       <c r="P122">
         <f t="shared" si="27"/>
@@ -12087,11 +12087,11 @@
       </c>
       <c r="N123">
         <f t="shared" si="25"/>
-        <v>-44685.657746478872</v>
+        <v>-40425.094366197183</v>
       </c>
       <c r="O123">
         <f t="shared" si="26"/>
-        <v>66299.440845070421</v>
+        <v>68003.666197183105</v>
       </c>
       <c r="P123">
         <f t="shared" si="27"/>
@@ -12143,11 +12143,11 @@
       </c>
       <c r="N124">
         <f t="shared" si="25"/>
-        <v>-44401.416901408447</v>
+        <v>-40105.642253521124</v>
       </c>
       <c r="O124">
         <f t="shared" si="26"/>
-        <v>66287.943661971833</v>
+        <v>68006.253521126768</v>
       </c>
       <c r="P124">
         <f t="shared" si="27"/>
@@ -12199,11 +12199,11 @@
       </c>
       <c r="N125">
         <f t="shared" si="25"/>
-        <v>-44014.376056338027</v>
+        <v>-39683.390140845069</v>
       </c>
       <c r="O125">
         <f t="shared" si="26"/>
-        <v>66262.646478873226</v>
+        <v>67995.040845070413</v>
       </c>
       <c r="P125">
         <f t="shared" si="27"/>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="N126">
         <f t="shared" si="25"/>
-        <v>-43744.935211267606</v>
+        <v>-39378.738028169013</v>
       </c>
       <c r="O126">
         <f t="shared" si="26"/>
-        <v>66239.549295774646</v>
+        <v>67986.028169014084</v>
       </c>
       <c r="P126">
         <f t="shared" si="27"/>
@@ -12311,11 +12311,11 @@
       </c>
       <c r="N127">
         <f t="shared" si="25"/>
-        <v>-43383.494366197185</v>
+        <v>-38982.085915492957</v>
       </c>
       <c r="O127">
         <f t="shared" si="26"/>
-        <v>66208.052112676058</v>
+        <v>67968.615492957746</v>
       </c>
       <c r="P127">
         <f t="shared" si="27"/>
@@ -12367,11 +12367,11 @@
       </c>
       <c r="N128">
         <f t="shared" si="25"/>
-        <v>-43133.053521126763</v>
+        <v>-38696.4338028169</v>
       </c>
       <c r="O128">
         <f t="shared" si="26"/>
-        <v>66184.15492957746</v>
+        <v>67958.802816901414</v>
       </c>
       <c r="P128">
         <f t="shared" si="27"/>
@@ -12423,11 +12423,11 @@
       </c>
       <c r="N129">
         <f t="shared" si="25"/>
-        <v>-42799.612676056335</v>
+        <v>-38327.781690140844</v>
       </c>
       <c r="O129">
         <f t="shared" si="26"/>
-        <v>66157.857746478869</v>
+        <v>67946.590140845059</v>
       </c>
       <c r="P129">
         <f t="shared" si="27"/>
@@ -12479,11 +12479,11 @@
       </c>
       <c r="N130">
         <f t="shared" si="25"/>
-        <v>-42568.971830985916</v>
+        <v>-38061.929577464791</v>
       </c>
       <c r="O130">
         <f t="shared" si="26"/>
-        <v>66145.360563380294</v>
+        <v>67948.177464788736</v>
       </c>
       <c r="P130">
         <f t="shared" si="27"/>
@@ -12535,11 +12535,11 @@
       </c>
       <c r="N131">
         <f t="shared" si="25"/>
-        <v>-42265.930985915489</v>
+        <v>-37723.677464788729</v>
       </c>
       <c r="O131">
         <f t="shared" si="26"/>
-        <v>66135.263380281685</v>
+        <v>67952.164788732392</v>
       </c>
       <c r="P131">
         <f t="shared" si="27"/>
@@ -12591,11 +12591,11 @@
       </c>
       <c r="N132">
         <f t="shared" si="25"/>
-        <v>-42054.890140845069</v>
+        <v>-37477.425352112674</v>
       </c>
       <c r="O132">
         <f t="shared" si="26"/>
-        <v>66133.5661971831</v>
+        <v>67964.552112676058</v>
       </c>
       <c r="P132">
         <f t="shared" si="27"/>
@@ -12647,11 +12647,11 @@
       </c>
       <c r="N133">
         <f t="shared" si="25"/>
-        <v>-41783.849295774649</v>
+        <v>-37171.173239436626</v>
       </c>
       <c r="O133">
         <f t="shared" si="26"/>
-        <v>66130.069014084496</v>
+        <v>67975.139436619706</v>
       </c>
       <c r="P133">
         <f t="shared" si="27"/>
@@ -12703,11 +12703,11 @@
       </c>
       <c r="N134">
         <f t="shared" si="25"/>
-        <v>-41595.808450704229</v>
+        <v>-36947.921126760564</v>
       </c>
       <c r="O134">
         <f t="shared" si="26"/>
-        <v>66128.971830985916</v>
+        <v>67988.126760563377</v>
       </c>
       <c r="P134">
         <f t="shared" si="27"/>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="N135">
         <f t="shared" si="25"/>
-        <v>-41356.367605633801</v>
+        <v>-36673.269014084508</v>
       </c>
       <c r="O135">
         <f t="shared" si="26"/>
-        <v>66125.874647887336</v>
+        <v>67999.114084507048</v>
       </c>
       <c r="P135">
         <f t="shared" si="27"/>
@@ -12815,11 +12815,11 @@
       </c>
       <c r="N136">
         <f t="shared" si="25"/>
-        <v>-41189.326760563374</v>
+        <v>-36471.016901408446</v>
       </c>
       <c r="O136">
         <f t="shared" si="26"/>
-        <v>66120.377464788733</v>
+        <v>68007.70140845071</v>
       </c>
       <c r="P136">
         <f t="shared" si="27"/>
@@ -12871,11 +12871,11 @@
       </c>
       <c r="N137">
         <f t="shared" si="25"/>
-        <v>-40979.285915492961</v>
+        <v>-36225.764788732398</v>
       </c>
       <c r="O137">
         <f t="shared" si="26"/>
-        <v>66110.680281690147</v>
+        <v>68012.088732394375</v>
       </c>
       <c r="P137">
         <f t="shared" si="27"/>
@@ -12927,11 +12927,11 @@
       </c>
       <c r="N138">
         <f t="shared" si="25"/>
-        <v>-40829.245070422534</v>
+        <v>-36040.512676056343</v>
       </c>
       <c r="O138">
         <f t="shared" si="26"/>
-        <v>66102.78309859155</v>
+        <v>68018.276056338029</v>
       </c>
       <c r="P138">
         <f t="shared" si="27"/>
@@ -12983,11 +12983,11 @@
       </c>
       <c r="N139">
         <f t="shared" si="25"/>
-        <v>-40643.804225352113</v>
+        <v>-35819.86056338028</v>
       </c>
       <c r="O139">
         <f t="shared" si="26"/>
-        <v>66086.085915492964</v>
+        <v>68015.663380281694</v>
       </c>
       <c r="P139">
         <f t="shared" si="27"/>
@@ -13039,11 +13039,11 @@
       </c>
       <c r="N140">
         <f t="shared" si="25"/>
-        <v>-40509.763380281685</v>
+        <v>-35650.608450704225</v>
       </c>
       <c r="O140">
         <f t="shared" si="26"/>
-        <v>66071.388732394378</v>
+        <v>68015.050704225359</v>
       </c>
       <c r="P140">
         <f t="shared" si="27"/>
@@ -13095,11 +13095,11 @@
       </c>
       <c r="N141">
         <f t="shared" si="25"/>
-        <v>-40348.122535211267</v>
+        <v>-35453.756338028164</v>
       </c>
       <c r="O141">
         <f t="shared" si="26"/>
-        <v>66049.891549295775</v>
+        <v>68007.638028169022</v>
       </c>
       <c r="P141">
         <f t="shared" si="27"/>
@@ -13151,11 +13151,11 @@
       </c>
       <c r="N142">
         <f t="shared" si="25"/>
-        <v>-40229.481690140841</v>
+        <v>-35299.904225352111</v>
       </c>
       <c r="O142">
         <f t="shared" si="26"/>
-        <v>66032.594366197183</v>
+        <v>68004.425352112667</v>
       </c>
       <c r="P142">
         <f t="shared" si="27"/>
@@ -13207,11 +13207,11 @@
       </c>
       <c r="N143">
         <f t="shared" si="25"/>
-        <v>-40101.640845070418</v>
+        <v>-35136.852112676061</v>
       </c>
       <c r="O143">
         <f t="shared" si="26"/>
-        <v>66013.030516431914</v>
+        <v>67998.946009389663</v>
       </c>
       <c r="P143">
         <f t="shared" si="27"/>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="N144">
         <f t="shared" si="25"/>
-        <v>-40000</v>
+        <v>-35000</v>
       </c>
       <c r="O144">
         <f t="shared" si="26"/>
-        <v>66000</v>
+        <v>68000</v>
       </c>
       <c r="P144">
         <f t="shared" si="27"/>
@@ -33469,7 +33469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F9E1EC-7C98-4AA9-801F-96C3CE1E30A0}">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1:R1048576"/>
     </sheetView>
   </sheetViews>

--- a/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
+++ b/ROBOT_CODE/AlexanderGCowbell/src/main/java/frc/data/mp/SmoothedPaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SHARED\FRC2023\ROBOT_CODE\AlexanderGCowbell\src\main\java\frc\data\mp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF03287-1CF0-483F-9314-5E29A808B84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C89064-61DC-4AC5-854D-725367692560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thief1" sheetId="16" r:id="rId1"/>
@@ -5136,8 +5136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B7D99D-F1DF-47C3-91B6-FDAE4C5C3FE7}">
   <dimension ref="A1:V340"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="O3">
         <f t="shared" si="3"/>
-        <v>10398.720657276996</v>
+        <v>10391.171361502347</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:Q66" si="4">J3</f>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="3"/>
-        <v>10542.974647887324</v>
+        <v>10527.876056338029</v>
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
@@ -5384,7 +5384,7 @@
         <v>-35000</v>
       </c>
       <c r="V4" s="3">
-        <v>68000</v>
+        <v>66928</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>10669.961971830986</v>
+        <v>10647.314084507041</v>
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>10878.149295774649</v>
+        <v>10847.952112676057</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>11034.53661971831</v>
+        <v>10996.790140845071</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>11286.923943661972</v>
+        <v>11241.628169014084</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>11476.511267605632</v>
+        <v>11423.666197183098</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>11771.298591549297</v>
+        <v>11710.904225352113</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="V10">
         <f>(V4-V6-V9)/(V7-1)</f>
-        <v>12.387323943661972</v>
+        <v>4.8380281690140849</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>11984.885915492958</v>
+        <v>11916.942253521127</v>
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>12428.07323943662</v>
+        <v>12352.580281690141</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>12775.260563380281</v>
+        <v>12692.218309859154</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>13122.447887323942</v>
+        <v>13031.856338028168</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>13493.435211267606</v>
+        <v>13395.294366197182</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>13864.422535211268</v>
+        <v>13758.732394366198</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>14146.209859154929</v>
+        <v>14032.970422535211</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>14427.997183098591</v>
+        <v>14307.208450704225</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="7"/>
-        <v>14859.784507042254</v>
+        <v>14731.44647887324</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="7"/>
-        <v>15162.571830985915</v>
+        <v>15026.684507042251</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="7"/>
-        <v>15628.159154929577</v>
+        <v>15484.722535211267</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="7"/>
-        <v>15953.346478873238</v>
+        <v>15802.36056338028</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="7"/>
-        <v>16278.533802816903</v>
+        <v>16119.998591549298</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="7"/>
-        <v>16626.321126760562</v>
+        <v>16460.236619718307</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="7"/>
-        <v>16974.108450704225</v>
+        <v>16800.474647887324</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="7"/>
-        <v>17336.295774647886</v>
+        <v>17155.112676056338</v>
       </c>
       <c r="P26">
         <f t="shared" si="4"/>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="7"/>
-        <v>17698.483098591547</v>
+        <v>17509.750704225353</v>
       </c>
       <c r="P27">
         <f t="shared" si="4"/>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="7"/>
-        <v>18256.270422535214</v>
+        <v>18059.988732394366</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="7"/>
-        <v>18641.457746478874</v>
+        <v>18437.62676056338</v>
       </c>
       <c r="P29">
         <f t="shared" si="4"/>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="7"/>
-        <v>19240.045070422537</v>
+        <v>19028.664788732396</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>19661.432394366198</v>
+        <v>19442.502816901408</v>
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="7"/>
-        <v>20306.419718309859</v>
+        <v>20079.940845070421</v>
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="7"/>
-        <v>20755.80704225352</v>
+        <v>20521.778873239437</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
-        <v>21440.994366197181</v>
+        <v>21199.416901408451</v>
       </c>
       <c r="P34">
         <f t="shared" si="4"/>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="9"/>
-        <v>21912.781690140844</v>
+        <v>21663.654929577464</v>
       </c>
       <c r="P35">
         <f t="shared" si="4"/>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="9"/>
-        <v>22636.369014084506</v>
+        <v>22379.69295774648</v>
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="9"/>
-        <v>23136.356338028167</v>
+        <v>22872.130985915494</v>
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="9"/>
-        <v>23895.343661971834</v>
+        <v>23623.569014084507</v>
       </c>
       <c r="P38">
         <f t="shared" si="4"/>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="9"/>
-        <v>24418.530985915495</v>
+        <v>24139.207042253522</v>
       </c>
       <c r="P39">
         <f t="shared" si="4"/>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="9"/>
-        <v>25215.118309859157</v>
+        <v>24928.245070422538</v>
       </c>
       <c r="P40">
         <f t="shared" si="4"/>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="9"/>
-        <v>25759.905633802817</v>
+        <v>25465.483098591547</v>
       </c>
       <c r="P41">
         <f t="shared" si="4"/>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="9"/>
-        <v>26869.492957746479</v>
+        <v>26567.521126760563</v>
       </c>
       <c r="P42">
         <f t="shared" si="4"/>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="9"/>
-        <v>27720.080281690141</v>
+        <v>27410.559154929579</v>
       </c>
       <c r="P43">
         <f t="shared" si="4"/>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="9"/>
-        <v>28570.667605633804</v>
+        <v>28253.597183098595</v>
       </c>
       <c r="P44">
         <f t="shared" si="4"/>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="9"/>
-        <v>29440.054929577465</v>
+        <v>29115.435211267606</v>
       </c>
       <c r="P45">
         <f t="shared" si="4"/>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="9"/>
-        <v>30309.442253521127</v>
+        <v>29977.273239436621</v>
       </c>
       <c r="P46">
         <f t="shared" si="4"/>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="9"/>
-        <v>30915.629577464788</v>
+        <v>30575.911267605636</v>
       </c>
       <c r="P47">
         <f t="shared" si="4"/>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="9"/>
-        <v>31521.816901408452</v>
+        <v>31174.549295774646</v>
       </c>
       <c r="P48">
         <f t="shared" si="4"/>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="9"/>
-        <v>32434.004225352117</v>
+        <v>32079.187323943665</v>
       </c>
       <c r="P49">
         <f t="shared" si="4"/>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="9"/>
-        <v>33053.991549295773</v>
+        <v>32691.625352112678</v>
       </c>
       <c r="P50">
         <f t="shared" si="4"/>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="11"/>
-        <v>33982.978873239437</v>
+        <v>33613.063380281688</v>
       </c>
       <c r="P51">
         <f t="shared" si="4"/>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="11"/>
-        <v>34610.366197183095</v>
+        <v>34232.901408450707</v>
       </c>
       <c r="P52">
         <f t="shared" si="4"/>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="11"/>
-        <v>35543.553521126763</v>
+        <v>35158.539436619722</v>
       </c>
       <c r="P53">
         <f t="shared" si="4"/>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="11"/>
-        <v>36170.740845070424</v>
+        <v>35778.177464788729</v>
       </c>
       <c r="P54">
         <f t="shared" si="4"/>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="11"/>
-        <v>37102.128169014082</v>
+        <v>36702.015492957747</v>
       </c>
       <c r="P55">
         <f t="shared" si="4"/>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="11"/>
-        <v>37724.515492957747</v>
+        <v>37316.853521126759</v>
       </c>
       <c r="P56">
         <f t="shared" si="4"/>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="11"/>
-        <v>38645.902816901405</v>
+        <v>38230.691549295771</v>
       </c>
       <c r="P57">
         <f t="shared" si="4"/>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="11"/>
-        <v>39559.890140845069</v>
+        <v>39137.129577464788</v>
       </c>
       <c r="P58">
         <f t="shared" si="4"/>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="11"/>
-        <v>40473.877464788733</v>
+        <v>40043.567605633805</v>
       </c>
       <c r="P59">
         <f t="shared" si="4"/>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="11"/>
-        <v>41083.664788732392</v>
+        <v>40645.805633802811</v>
       </c>
       <c r="P60">
         <f t="shared" si="4"/>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="11"/>
-        <v>41693.452112676052</v>
+        <v>41248.043661971831</v>
       </c>
       <c r="P61">
         <f t="shared" si="4"/>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="11"/>
-        <v>42299.63943661972</v>
+        <v>41846.681690140846</v>
       </c>
       <c r="P62">
         <f t="shared" si="4"/>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="11"/>
-        <v>42607.426760563387</v>
+        <v>42146.919718309859</v>
       </c>
       <c r="P63">
         <f t="shared" si="4"/>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="11"/>
-        <v>43213.014084507042</v>
+        <v>42744.957746478874</v>
       </c>
       <c r="P64">
         <f t="shared" si="4"/>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="11"/>
-        <v>43818.601408450704</v>
+        <v>43342.995774647883</v>
       </c>
       <c r="P65">
         <f t="shared" si="4"/>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="11"/>
-        <v>44716.588732394368</v>
+        <v>44233.433802816908</v>
       </c>
       <c r="P66">
         <f t="shared" si="4"/>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="O67">
         <f t="shared" si="14"/>
-        <v>45319.17605633803</v>
+        <v>44828.471830985916</v>
       </c>
       <c r="P67">
         <f t="shared" ref="P67:Q111" si="15">J67</f>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="14"/>
-        <v>46212.363380281691</v>
+        <v>45714.109859154931</v>
       </c>
       <c r="P68">
         <f t="shared" si="15"/>
@@ -9067,7 +9067,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="14"/>
-        <v>46807.750704225356</v>
+        <v>46301.94788732395</v>
       </c>
       <c r="P69">
         <f t="shared" si="15"/>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="14"/>
-        <v>47692.538028169009</v>
+        <v>47179.185915492955</v>
       </c>
       <c r="P70">
         <f t="shared" si="15"/>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="14"/>
-        <v>48284.925352112674</v>
+        <v>47764.023943661967</v>
       </c>
       <c r="P71">
         <f t="shared" si="15"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="14"/>
-        <v>49162.512676056336</v>
+        <v>48634.06197183099</v>
       </c>
       <c r="P72">
         <f t="shared" si="15"/>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="14"/>
-        <v>49749.5</v>
+        <v>49213.5</v>
       </c>
       <c r="P73">
         <f t="shared" si="15"/>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="14"/>
-        <v>50613.087323943662</v>
+        <v>50069.538028169009</v>
       </c>
       <c r="P74">
         <f t="shared" si="15"/>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="14"/>
-        <v>51187.274647887323</v>
+        <v>50636.17605633803</v>
       </c>
       <c r="P75">
         <f t="shared" si="15"/>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="14"/>
-        <v>52027.661971830988</v>
+        <v>51469.014084507042</v>
       </c>
       <c r="P76">
         <f t="shared" si="15"/>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="14"/>
-        <v>52582.849295774649</v>
+        <v>52016.652112676056</v>
       </c>
       <c r="P77">
         <f t="shared" si="15"/>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="14"/>
-        <v>53392.636619718309</v>
+        <v>52818.890140845069</v>
       </c>
       <c r="P78">
         <f t="shared" si="15"/>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="14"/>
-        <v>53925.82394366197</v>
+        <v>53344.528169014084</v>
       </c>
       <c r="P79">
         <f t="shared" si="15"/>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="14"/>
-        <v>54700.811267605633</v>
+        <v>54111.966197183094</v>
       </c>
       <c r="P80">
         <f t="shared" si="15"/>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="14"/>
-        <v>55209.598591549293</v>
+        <v>54613.204225352114</v>
       </c>
       <c r="P81">
         <f t="shared" si="15"/>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="14"/>
-        <v>55949.585915492957</v>
+        <v>55345.642253521124</v>
       </c>
       <c r="P82">
         <f t="shared" si="15"/>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="17"/>
-        <v>56434.973239436615</v>
+        <v>55823.480281690143</v>
       </c>
       <c r="P83">
         <f t="shared" si="15"/>
@@ -9907,7 +9907,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="17"/>
-        <v>56920.36056338028</v>
+        <v>56301.318309859154</v>
       </c>
       <c r="P84">
         <f t="shared" si="15"/>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="17"/>
-        <v>57591.747887323945</v>
+        <v>56965.156338028166</v>
       </c>
       <c r="P85">
         <f t="shared" si="15"/>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="17"/>
-        <v>58263.135211267603</v>
+        <v>57628.994366197185</v>
       </c>
       <c r="P86">
         <f t="shared" si="15"/>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="17"/>
-        <v>58902.722535211273</v>
+        <v>58261.032394366201</v>
       </c>
       <c r="P87">
         <f t="shared" si="15"/>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="17"/>
-        <v>59542.309859154928</v>
+        <v>58893.070422535209</v>
       </c>
       <c r="P88">
         <f t="shared" si="15"/>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="17"/>
-        <v>60372.697183098593</v>
+        <v>59715.908450704228</v>
       </c>
       <c r="P89">
         <f t="shared" si="15"/>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="17"/>
-        <v>60775.284507042248</v>
+        <v>60110.946478873237</v>
       </c>
       <c r="P90">
         <f t="shared" si="15"/>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="17"/>
-        <v>61358.271830985919</v>
+        <v>60686.384507042254</v>
       </c>
       <c r="P91">
         <f t="shared" si="15"/>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="17"/>
-        <v>61741.859154929574</v>
+        <v>61062.42253521127</v>
       </c>
       <c r="P92">
         <f t="shared" si="15"/>
@@ -10411,7 +10411,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="17"/>
-        <v>62295.046478873242</v>
+        <v>61608.060563380284</v>
       </c>
       <c r="P93">
         <f t="shared" si="15"/>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="17"/>
-        <v>62657.433802816908</v>
+        <v>61962.898591549296</v>
       </c>
       <c r="P94">
         <f t="shared" si="15"/>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="17"/>
-        <v>63019.821126760566</v>
+        <v>62317.736619718315</v>
       </c>
       <c r="P95">
         <f t="shared" si="15"/>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="17"/>
-        <v>63359.208450704231</v>
+        <v>62649.574647887326</v>
       </c>
       <c r="P96">
         <f t="shared" si="15"/>
@@ -10635,7 +10635,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="17"/>
-        <v>63698.595774647889</v>
+        <v>62981.412676056338</v>
       </c>
       <c r="P97">
         <f t="shared" si="15"/>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="17"/>
-        <v>64013.983098591554</v>
+        <v>63289.250704225356</v>
       </c>
       <c r="P98">
         <f t="shared" si="15"/>
@@ -10747,7 +10747,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="19"/>
-        <v>64329.370422535212</v>
+        <v>63597.088732394368</v>
       </c>
       <c r="P99">
         <f t="shared" si="15"/>
@@ -10803,7 +10803,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="19"/>
-        <v>64778.957746478874</v>
+        <v>64039.126760563384</v>
       </c>
       <c r="P100">
         <f t="shared" si="15"/>
@@ -10859,7 +10859,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="19"/>
-        <v>65071.145070422535</v>
+        <v>64323.764788732398</v>
       </c>
       <c r="P101">
         <f t="shared" si="15"/>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="19"/>
-        <v>65485.932394366195</v>
+        <v>64731.002816901404</v>
       </c>
       <c r="P102">
         <f t="shared" si="15"/>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="19"/>
-        <v>65755.119718309856</v>
+        <v>64992.640845070426</v>
       </c>
       <c r="P103">
         <f t="shared" si="15"/>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="19"/>
-        <v>66132.507042253521</v>
+        <v>65362.478873239437</v>
       </c>
       <c r="P104">
         <f t="shared" si="15"/>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="19"/>
-        <v>66375.694366197189</v>
+        <v>65598.116901408459</v>
       </c>
       <c r="P105">
         <f t="shared" si="15"/>
@@ -11139,7 +11139,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="19"/>
-        <v>66740.481690140849</v>
+        <v>65955.354929577457</v>
       </c>
       <c r="P106">
         <f t="shared" si="15"/>
@@ -11195,7 +11195,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="19"/>
-        <v>66982.669014084502</v>
+        <v>66189.992957746479</v>
       </c>
       <c r="P107">
         <f t="shared" si="15"/>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="19"/>
-        <v>67224.85633802817</v>
+        <v>66424.630985915501</v>
       </c>
       <c r="P108">
         <f t="shared" si="15"/>
@@ -11307,7 +11307,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="19"/>
-        <v>67389.043661971838</v>
+        <v>66581.269014084508</v>
       </c>
       <c r="P109">
         <f t="shared" si="15"/>
@@ -11363,7 +11363,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="19"/>
-        <v>67553.230985915492</v>
+        <v>66737.907042253515</v>
       </c>
       <c r="P110">
         <f t="shared" si="15"/>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="19"/>
-        <v>67617.418309859146</v>
+        <v>66794.545070422537</v>
       </c>
       <c r="P111">
         <f t="shared" si="15"/>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="O112">
         <f t="shared" ref="O112:O144" si="26">I112+V$9 +($M111*V$10)</f>
-        <v>67681.605633802814</v>
+        <v>66851.183098591544</v>
       </c>
       <c r="P112">
         <f t="shared" ref="P112:P144" si="27">J112</f>
@@ -11531,7 +11531,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="26"/>
-        <v>67759.392957746473</v>
+        <v>66921.421126760557</v>
       </c>
       <c r="P113">
         <f t="shared" si="27"/>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="26"/>
-        <v>67806.98028169015</v>
+        <v>66961.459154929587</v>
       </c>
       <c r="P114">
         <f t="shared" si="27"/>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="26"/>
-        <v>67861.76760563381</v>
+        <v>67008.697183098586</v>
       </c>
       <c r="P115">
         <f t="shared" si="27"/>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="26"/>
-        <v>67894.954929577463</v>
+        <v>67034.335211267608</v>
       </c>
       <c r="P116">
         <f t="shared" si="27"/>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="26"/>
-        <v>67931.342253521128</v>
+        <v>67063.173239436626</v>
       </c>
       <c r="P117">
         <f t="shared" si="27"/>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="26"/>
-        <v>67954.129577464788</v>
+        <v>67078.411267605625</v>
       </c>
       <c r="P118">
         <f t="shared" si="27"/>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="O119">
         <f t="shared" si="26"/>
-        <v>67973.916901408462</v>
+        <v>67090.649295774652</v>
       </c>
       <c r="P119">
         <f t="shared" si="27"/>
@@ -11923,7 +11923,7 @@
       </c>
       <c r="O120">
         <f t="shared" si="26"/>
-        <v>67986.50422535211</v>
+        <v>67095.687323943668</v>
       </c>
       <c r="P120">
         <f t="shared" si="27"/>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="O121">
         <f t="shared" si="26"/>
-        <v>67996.891549295775</v>
+        <v>67098.525352112672</v>
       </c>
       <c r="P121">
         <f t="shared" si="27"/>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="O122">
         <f t="shared" si="26"/>
-        <v>68004.078873239443</v>
+        <v>67098.163380281694</v>
       </c>
       <c r="P122">
         <f t="shared" si="27"/>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="O123">
         <f t="shared" si="26"/>
-        <v>68003.666197183105</v>
+        <v>67090.20140845071</v>
       </c>
       <c r="P123">
         <f t="shared" si="27"/>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="O124">
         <f t="shared" si="26"/>
-        <v>68006.253521126768</v>
+        <v>67085.239436619711</v>
       </c>
       <c r="P124">
         <f t="shared" si="27"/>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="O125">
         <f t="shared" si="26"/>
-        <v>67995.040845070413</v>
+        <v>67066.477464788724</v>
       </c>
       <c r="P125">
         <f t="shared" si="27"/>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="O126">
         <f t="shared" si="26"/>
-        <v>67986.028169014084</v>
+        <v>67049.915492957749</v>
       </c>
       <c r="P126">
         <f t="shared" si="27"/>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="O127">
         <f t="shared" si="26"/>
-        <v>67968.615492957746</v>
+        <v>67024.953521126765</v>
       </c>
       <c r="P127">
         <f t="shared" si="27"/>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="O128">
         <f t="shared" si="26"/>
-        <v>67958.802816901414</v>
+        <v>67007.591549295772</v>
       </c>
       <c r="P128">
         <f t="shared" si="27"/>
@@ -12427,7 +12427,7 @@
       </c>
       <c r="O129">
         <f t="shared" si="26"/>
-        <v>67946.590140845059</v>
+        <v>66987.829577464785</v>
       </c>
       <c r="P129">
         <f t="shared" si="27"/>
@@ -12483,7 +12483,7 @@
       </c>
       <c r="O130">
         <f t="shared" si="26"/>
-        <v>67948.177464788736</v>
+        <v>66981.867605633815</v>
       </c>
       <c r="P130">
         <f t="shared" si="27"/>
@@ -12539,7 +12539,7 @@
       </c>
       <c r="O131">
         <f t="shared" si="26"/>
-        <v>67952.164788732392</v>
+        <v>66978.305633802811</v>
       </c>
       <c r="P131">
         <f t="shared" si="27"/>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="O132">
         <f t="shared" si="26"/>
-        <v>67964.552112676058</v>
+        <v>66983.14366197183</v>
       </c>
       <c r="P132">
         <f t="shared" si="27"/>
@@ -12651,7 +12651,7 @@
       </c>
       <c r="O133">
         <f t="shared" si="26"/>
-        <v>67975.139436619706</v>
+        <v>66986.181690140846</v>
       </c>
       <c r="P133">
         <f t="shared" si="27"/>
@@ -12707,7 +12707,7 @@
       </c>
       <c r="O134">
         <f t="shared" si="26"/>
-        <v>67988.126760563377</v>
+        <v>66991.619718309856</v>
       </c>
       <c r="P134">
         <f t="shared" si="27"/>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="O135">
         <f t="shared" si="26"/>
-        <v>67999.114084507048</v>
+        <v>66995.05774647888</v>
       </c>
       <c r="P135">
         <f t="shared" si="27"/>
@@ -12819,7 +12819,7 @@
       </c>
       <c r="O136">
         <f t="shared" si="26"/>
-        <v>68007.70140845071</v>
+        <v>66996.095774647896</v>
       </c>
       <c r="P136">
         <f t="shared" si="27"/>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="O137">
         <f t="shared" si="26"/>
-        <v>68012.088732394375</v>
+        <v>66992.9338028169</v>
       </c>
       <c r="P137">
         <f t="shared" si="27"/>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="O138">
         <f t="shared" si="26"/>
-        <v>68018.276056338029</v>
+        <v>66991.571830985922</v>
       </c>
       <c r="P138">
         <f t="shared" si="27"/>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="O139">
         <f t="shared" si="26"/>
-        <v>68015.663380281694</v>
+        <v>66981.409859154941</v>
       </c>
       <c r="P139">
         <f t="shared" si="27"/>
@@ -13043,7 +13043,7 @@
       </c>
       <c r="O140">
         <f t="shared" si="26"/>
-        <v>68015.050704225359</v>
+        <v>66973.247887323945</v>
       </c>
       <c r="P140">
         <f t="shared" si="27"/>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="O141">
         <f t="shared" si="26"/>
-        <v>68007.638028169022</v>
+        <v>66958.285915492961</v>
       </c>
       <c r="P141">
         <f t="shared" si="27"/>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="O142">
         <f t="shared" si="26"/>
-        <v>68004.425352112667</v>
+        <v>66947.523943661974</v>
       </c>
       <c r="P142">
         <f t="shared" si="27"/>
@@ -13211,7 +13211,7 @@
       </c>
       <c r="O143">
         <f t="shared" si="26"/>
-        <v>67998.946009389663</v>
+        <v>66934.49530516431</v>
       </c>
       <c r="P143">
         <f t="shared" si="27"/>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="O144">
         <f t="shared" si="26"/>
-        <v>68000</v>
+        <v>66928</v>
       </c>
       <c r="P144">
         <f t="shared" si="27"/>
@@ -14271,8 +14271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3ECCBA-6D4F-466F-804D-502AE8BB8A06}">
   <dimension ref="A1:V331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
